--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9645365555253579</v>
+        <v>0.9645365555253576</v>
       </c>
       <c r="D2">
         <v>1.032167290303209</v>
       </c>
       <c r="E2">
-        <v>0.9753044594622386</v>
+        <v>0.9753044594622384</v>
       </c>
       <c r="F2">
-        <v>1.004298031233706</v>
+        <v>1.004298031233707</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.048462619696231</v>
       </c>
       <c r="J2">
-        <v>0.9878323040865858</v>
+        <v>0.9878323040865854</v>
       </c>
       <c r="K2">
-        <v>1.043195960547469</v>
+        <v>1.04319596054747</v>
       </c>
       <c r="L2">
-        <v>0.987118911773192</v>
+        <v>0.9871189117731918</v>
       </c>
       <c r="M2">
-        <v>1.015697810664806</v>
+        <v>1.015697810664807</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9735712816128317</v>
+        <v>0.9735712816128312</v>
       </c>
       <c r="D3">
         <v>1.03667047545074</v>
@@ -477,13 +477,13 @@
         <v>1.050905346820854</v>
       </c>
       <c r="J3">
-        <v>0.9948093001409823</v>
+        <v>0.9948093001409819</v>
       </c>
       <c r="K3">
         <v>1.046854703109551</v>
       </c>
       <c r="L3">
-        <v>0.9936989626868566</v>
+        <v>0.9936989626868562</v>
       </c>
       <c r="M3">
         <v>1.022199439158927</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9792064891342613</v>
+        <v>0.9792064891342614</v>
       </c>
       <c r="D4">
-        <v>1.039486490207653</v>
+        <v>1.039486490207654</v>
       </c>
       <c r="E4">
-        <v>0.9875508592911221</v>
+        <v>0.9875508592911223</v>
       </c>
       <c r="F4">
         <v>1.016349820353102</v>
@@ -515,7 +515,7 @@
         <v>1.052414267760931</v>
       </c>
       <c r="J4">
-        <v>0.9991574775552484</v>
+        <v>0.9991574775552485</v>
       </c>
       <c r="K4">
         <v>1.049130607649316</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9815284901928261</v>
+        <v>0.9815284901928265</v>
       </c>
       <c r="D5">
-        <v>1.040648160638407</v>
+        <v>1.040648160638408</v>
       </c>
       <c r="E5">
-        <v>0.98949301958286</v>
+        <v>0.9894930195828607</v>
       </c>
       <c r="F5">
-        <v>1.018261908721079</v>
+        <v>1.01826190872108</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.053032300019012</v>
       </c>
       <c r="J5">
-        <v>1.00094818605605</v>
+        <v>1.000948186056051</v>
       </c>
       <c r="K5">
         <v>1.05006661540945</v>
       </c>
       <c r="L5">
-        <v>0.9994921002845217</v>
+        <v>0.9994921002845226</v>
       </c>
       <c r="M5">
-        <v>1.027925610744253</v>
+        <v>1.027925610744254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819156992416095</v>
+        <v>0.9819156992416089</v>
       </c>
       <c r="D6">
         <v>1.040841943320974</v>
       </c>
       <c r="E6">
-        <v>0.9898169865012399</v>
+        <v>0.9898169865012395</v>
       </c>
       <c r="F6">
         <v>1.018580870340198</v>
@@ -597,7 +597,7 @@
         <v>1.050222587411833</v>
       </c>
       <c r="L6">
-        <v>0.9997739256587896</v>
+        <v>0.9997739256587891</v>
       </c>
       <c r="M6">
         <v>1.028204198042018</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9792376963837275</v>
+        <v>0.9792376963837274</v>
       </c>
       <c r="D7">
         <v>1.039502098112071</v>
@@ -620,7 +620,7 @@
         <v>0.9875769548063089</v>
       </c>
       <c r="F7">
-        <v>1.016375510956548</v>
+        <v>1.016375510956547</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.052422589004098</v>
       </c>
       <c r="J7">
-        <v>0.9991815483154501</v>
+        <v>0.9991815483154499</v>
       </c>
       <c r="K7">
         <v>1.049143194875811</v>
       </c>
       <c r="L7">
-        <v>0.9978246113787235</v>
+        <v>0.9978246113787234</v>
       </c>
       <c r="M7">
         <v>1.026277298630029</v>
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9676357368587963</v>
+        <v>0.9676357368587962</v>
       </c>
       <c r="D8">
         <v>1.033710211005644</v>
@@ -667,7 +667,7 @@
         <v>1.049303530206178</v>
       </c>
       <c r="J8">
-        <v>0.990226305633937</v>
+        <v>0.9902263056339369</v>
       </c>
       <c r="K8">
         <v>1.044452125062569</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9453993416981755</v>
+        <v>0.9453993416981746</v>
       </c>
       <c r="D9">
         <v>1.022691488324283</v>
       </c>
       <c r="E9">
-        <v>0.9593923566676695</v>
+        <v>0.9593923566676686</v>
       </c>
       <c r="F9">
-        <v>0.9886634165815248</v>
+        <v>0.9886634165815242</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.043215160734416</v>
       </c>
       <c r="J9">
-        <v>0.9730393130116077</v>
+        <v>0.9730393130116071</v>
       </c>
       <c r="K9">
         <v>1.035426835438882</v>
       </c>
       <c r="L9">
-        <v>0.9731805160993008</v>
+        <v>0.9731805160993</v>
       </c>
       <c r="M9">
-        <v>1.001943139331087</v>
+        <v>1.001943139331086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9290779972912325</v>
+        <v>0.9290779972912316</v>
       </c>
       <c r="D10">
         <v>1.014696527436098</v>
       </c>
       <c r="E10">
-        <v>0.9458811793575495</v>
+        <v>0.9458811793575485</v>
       </c>
       <c r="F10">
-        <v>0.9754227283108198</v>
+        <v>0.9754227283108193</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0386877053166</v>
+        <v>1.038687705316599</v>
       </c>
       <c r="J10">
-        <v>0.9604182902036416</v>
+        <v>0.9604182902036407</v>
       </c>
       <c r="K10">
         <v>1.028805406446223</v>
       </c>
       <c r="L10">
-        <v>0.9613015087484572</v>
+        <v>0.9613015087484561</v>
       </c>
       <c r="M10">
-        <v>0.9902503793287708</v>
+        <v>0.9902503793287706</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.92157376359356</v>
+        <v>0.9215737635935592</v>
       </c>
       <c r="D11">
         <v>1.011052436706863</v>
       </c>
       <c r="E11">
-        <v>0.9396882633255195</v>
+        <v>0.9396882633255186</v>
       </c>
       <c r="F11">
-        <v>0.9693676373421604</v>
+        <v>0.9693676373421596</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036596692504413</v>
+        <v>1.036596692504412</v>
       </c>
       <c r="J11">
-        <v>0.9546167731812455</v>
+        <v>0.9546167731812448</v>
       </c>
       <c r="K11">
         <v>1.025768887427513</v>
       </c>
       <c r="L11">
-        <v>0.955844837148131</v>
+        <v>0.9558448371481298</v>
       </c>
       <c r="M11">
-        <v>0.9848913172209605</v>
+        <v>0.9848913172209599</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187121210932873</v>
+        <v>0.9187121210932868</v>
       </c>
       <c r="D12">
-        <v>1.009668572371033</v>
+        <v>1.009668572371034</v>
       </c>
       <c r="E12">
-        <v>0.9373299661624249</v>
+        <v>0.9373299661624244</v>
       </c>
       <c r="F12">
-        <v>0.9670644205470588</v>
+        <v>0.9670644205470598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035798362112713</v>
+        <v>1.035798362112714</v>
       </c>
       <c r="J12">
-        <v>0.9524049332998705</v>
+        <v>0.9524049332998702</v>
       </c>
       <c r="K12">
-        <v>1.02461285280424</v>
+        <v>1.024612852804242</v>
       </c>
       <c r="L12">
-        <v>0.9537650780340505</v>
+        <v>0.9537650780340499</v>
       </c>
       <c r="M12">
-        <v>0.9828510380467501</v>
+        <v>0.9828510380467508</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9193294682096738</v>
+        <v>0.9193294682096733</v>
       </c>
       <c r="D13">
         <v>1.009966838821354</v>
       </c>
       <c r="E13">
-        <v>0.93783857025548</v>
+        <v>0.9378385702554798</v>
       </c>
       <c r="F13">
-        <v>0.9675610194442836</v>
+        <v>0.9675610194442835</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035970622028304</v>
       </c>
       <c r="J13">
-        <v>0.9528820700091042</v>
+        <v>0.952882070009104</v>
       </c>
       <c r="K13">
         <v>1.024862147736846</v>
       </c>
       <c r="L13">
-        <v>0.9542136942034279</v>
+        <v>0.9542136942034277</v>
       </c>
       <c r="M13">
-        <v>0.9832910272319205</v>
+        <v>0.9832910272319203</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9213387892015277</v>
+        <v>0.9213387892015289</v>
       </c>
       <c r="D14">
-        <v>1.010938682537422</v>
+        <v>1.010938682537423</v>
       </c>
       <c r="E14">
-        <v>0.9394945503953933</v>
+        <v>0.9394945503953945</v>
       </c>
       <c r="F14">
-        <v>0.9691783929724136</v>
+        <v>0.9691783929724141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036531156552826</v>
+        <v>1.036531156552827</v>
       </c>
       <c r="J14">
-        <v>0.9544351434039268</v>
+        <v>0.9544351434039277</v>
       </c>
       <c r="K14">
         <v>1.0256739204513</v>
       </c>
       <c r="L14">
-        <v>0.955674040889953</v>
+        <v>0.9556740408899541</v>
       </c>
       <c r="M14">
-        <v>0.9847237141727839</v>
+        <v>0.9847237141727844</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9225666767561218</v>
+        <v>0.9225666767561221</v>
       </c>
       <c r="D15">
         <v>1.011533358560545</v>
       </c>
       <c r="E15">
-        <v>0.9405069569821526</v>
+        <v>0.940506956982153</v>
       </c>
       <c r="F15">
-        <v>0.9701675539209726</v>
+        <v>0.9701675539209733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036873587141999</v>
+        <v>1.036873587142</v>
       </c>
       <c r="J15">
-        <v>0.9553842939385633</v>
+        <v>0.9553842939385637</v>
       </c>
       <c r="K15">
         <v>1.02617026366621</v>
       </c>
       <c r="L15">
-        <v>0.956566603134386</v>
+        <v>0.9565666031343865</v>
       </c>
       <c r="M15">
-        <v>0.9855996842815826</v>
+        <v>0.985599684281583</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9295661249106811</v>
+        <v>0.929566124910681</v>
       </c>
       <c r="D16">
         <v>1.01493429733316</v>
       </c>
       <c r="E16">
-        <v>0.9462844372988245</v>
+        <v>0.9462844372988243</v>
       </c>
       <c r="F16">
-        <v>0.9758173377334852</v>
+        <v>0.975817337733485</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038823563404478</v>
       </c>
       <c r="J16">
-        <v>0.9607957124708368</v>
+        <v>0.9607957124708366</v>
       </c>
       <c r="K16">
-        <v>1.029003142378991</v>
+        <v>1.029003142378992</v>
       </c>
       <c r="L16">
-        <v>0.9616565775508804</v>
+        <v>0.9616565775508803</v>
       </c>
       <c r="M16">
-        <v>0.9905993817329189</v>
+        <v>0.9905993817329187</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>1.01701692675566</v>
       </c>
       <c r="E17">
-        <v>0.9498125613914032</v>
+        <v>0.949812561391403</v>
       </c>
       <c r="F17">
-        <v>0.9792713989814625</v>
+        <v>0.9792713989814628</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.030733024294041</v>
       </c>
       <c r="L17">
-        <v>0.9647617581172929</v>
+        <v>0.9647617581172928</v>
       </c>
       <c r="M17">
-        <v>0.993652906632377</v>
+        <v>0.9936529066323772</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9362820660623942</v>
+        <v>0.9362820660623946</v>
       </c>
       <c r="D18">
         <v>1.018214328274773</v>
       </c>
       <c r="E18">
-        <v>0.9518379086422718</v>
+        <v>0.9518379086422719</v>
       </c>
       <c r="F18">
-        <v>0.9812554834048087</v>
+        <v>0.9812554834048091</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.040690296807859</v>
       </c>
       <c r="J18">
-        <v>0.9659889023733509</v>
+        <v>0.9659889023733512</v>
       </c>
       <c r="K18">
         <v>1.031725894736478</v>
       </c>
       <c r="L18">
-        <v>0.9665432082029282</v>
+        <v>0.9665432082029284</v>
       </c>
       <c r="M18">
-        <v>0.9954058108362059</v>
+        <v>0.9954058108362065</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9371099470573204</v>
+        <v>0.937109947057322</v>
       </c>
       <c r="D19">
         <v>1.018619747034205</v>
       </c>
       <c r="E19">
-        <v>0.952523158228014</v>
+        <v>0.9525231582280156</v>
       </c>
       <c r="F19">
-        <v>0.9819269711196834</v>
+        <v>0.9819269711196846</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.040920050589517</v>
       </c>
       <c r="J19">
-        <v>0.9666291061759608</v>
+        <v>0.9666291061759622</v>
       </c>
       <c r="K19">
         <v>1.032061774422786</v>
       </c>
       <c r="L19">
-        <v>0.9671457524638708</v>
+        <v>0.9671457524638725</v>
       </c>
       <c r="M19">
-        <v>0.9959988722364683</v>
+        <v>0.9959988722364694</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9333805564339455</v>
+        <v>0.933380556433945</v>
       </c>
       <c r="D20">
         <v>1.016795295514553</v>
       </c>
       <c r="E20">
-        <v>0.9494374369902973</v>
+        <v>0.9494374369902966</v>
       </c>
       <c r="F20">
         <v>0.9789040154361761</v>
@@ -1123,16 +1123,16 @@
         <v>1.039884411145105</v>
       </c>
       <c r="J20">
-        <v>0.963745197384097</v>
+        <v>0.9637451973840966</v>
       </c>
       <c r="K20">
         <v>1.030549111755155</v>
       </c>
       <c r="L20">
-        <v>0.9644317178716059</v>
+        <v>0.9644317178716052</v>
       </c>
       <c r="M20">
-        <v>0.9933282403099628</v>
+        <v>0.9933282403099627</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9207492206635522</v>
+        <v>0.920749220663551</v>
       </c>
       <c r="D21">
         <v>1.010653360775703</v>
       </c>
       <c r="E21">
-        <v>0.9390085642781061</v>
+        <v>0.9390085642781048</v>
       </c>
       <c r="F21">
-        <v>0.9687036611389995</v>
+        <v>0.9687036611389989</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036366708330042</v>
       </c>
       <c r="J21">
-        <v>0.9539794295222386</v>
+        <v>0.9539794295222372</v>
       </c>
       <c r="K21">
         <v>1.025435674281929</v>
       </c>
       <c r="L21">
-        <v>0.9552455185042129</v>
+        <v>0.9552455185042115</v>
       </c>
       <c r="M21">
-        <v>0.9843032417129709</v>
+        <v>0.9843032417129702</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9123723551685965</v>
+        <v>0.912372355168596</v>
       </c>
       <c r="D22">
         <v>1.006614612474455</v>
       </c>
       <c r="E22">
-        <v>0.9321119250386039</v>
+        <v>0.932111925038604</v>
       </c>
       <c r="F22">
-        <v>0.9619737100072425</v>
+        <v>0.961973710007242</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0.9491599000335544</v>
       </c>
       <c r="M22">
-        <v>0.9783380835469097</v>
+        <v>0.9783380835469092</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.916857645464679</v>
+        <v>0.9168576454646792</v>
       </c>
       <c r="D23">
-        <v>1.008773525743202</v>
+        <v>1.008773525743203</v>
       </c>
       <c r="E23">
         <v>0.9358026655515836</v>
       </c>
       <c r="F23">
-        <v>0.9655735960913623</v>
+        <v>0.965573596091363</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.03528080325522</v>
       </c>
       <c r="J23">
-        <v>0.9509717390177841</v>
+        <v>0.9509717390177842</v>
       </c>
       <c r="K23">
-        <v>1.023864325561884</v>
+        <v>1.023864325561885</v>
       </c>
       <c r="L23">
-        <v>0.9524176448484294</v>
+        <v>0.9524176448484297</v>
       </c>
       <c r="M23">
-        <v>0.9815298904726537</v>
+        <v>0.9815298904726545</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9335856307951403</v>
+        <v>0.9335856307951402</v>
       </c>
       <c r="D24">
-        <v>1.016895494568304</v>
+        <v>1.016895494568303</v>
       </c>
       <c r="E24">
-        <v>0.9496070396614562</v>
+        <v>0.9496070396614561</v>
       </c>
       <c r="F24">
-        <v>0.9790701144197564</v>
+        <v>0.9790701144197561</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039941401958203</v>
       </c>
       <c r="J24">
-        <v>0.9639037761436681</v>
+        <v>0.9639037761436683</v>
       </c>
       <c r="K24">
-        <v>1.030632263595354</v>
+        <v>1.030632263595353</v>
       </c>
       <c r="L24">
         <v>0.9645809403514566</v>
       </c>
       <c r="M24">
-        <v>0.9934750296999606</v>
+        <v>0.9934750296999603</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513877098052043</v>
+        <v>0.9513877098052034</v>
       </c>
       <c r="D25">
-        <v>1.025646093163227</v>
+        <v>1.025646093163225</v>
       </c>
       <c r="E25">
-        <v>0.9643636015965817</v>
+        <v>0.964363601596581</v>
       </c>
       <c r="F25">
-        <v>0.9935439511270592</v>
+        <v>0.9935439511270583</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.044865952672402</v>
       </c>
       <c r="J25">
-        <v>0.9776696287235991</v>
+        <v>0.9776696287235982</v>
       </c>
       <c r="K25">
-        <v>1.037858916606673</v>
+        <v>1.037858916606672</v>
       </c>
       <c r="L25">
-        <v>0.9775415221183285</v>
+        <v>0.9775415221183275</v>
       </c>
       <c r="M25">
-        <v>1.006243322568188</v>
+        <v>1.006243322568187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9645365555253576</v>
+        <v>0.9645365555253579</v>
       </c>
       <c r="D2">
         <v>1.032167290303209</v>
       </c>
       <c r="E2">
-        <v>0.9753044594622384</v>
+        <v>0.9753044594622386</v>
       </c>
       <c r="F2">
-        <v>1.004298031233707</v>
+        <v>1.004298031233706</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.048462619696231</v>
       </c>
       <c r="J2">
-        <v>0.9878323040865854</v>
+        <v>0.9878323040865858</v>
       </c>
       <c r="K2">
-        <v>1.04319596054747</v>
+        <v>1.043195960547469</v>
       </c>
       <c r="L2">
-        <v>0.9871189117731918</v>
+        <v>0.987118911773192</v>
       </c>
       <c r="M2">
-        <v>1.015697810664807</v>
+        <v>1.015697810664806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9735712816128312</v>
+        <v>0.9735712816128317</v>
       </c>
       <c r="D3">
         <v>1.03667047545074</v>
@@ -477,13 +477,13 @@
         <v>1.050905346820854</v>
       </c>
       <c r="J3">
-        <v>0.9948093001409819</v>
+        <v>0.9948093001409823</v>
       </c>
       <c r="K3">
         <v>1.046854703109551</v>
       </c>
       <c r="L3">
-        <v>0.9936989626868562</v>
+        <v>0.9936989626868566</v>
       </c>
       <c r="M3">
         <v>1.022199439158927</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9792064891342614</v>
+        <v>0.9792064891342613</v>
       </c>
       <c r="D4">
-        <v>1.039486490207654</v>
+        <v>1.039486490207653</v>
       </c>
       <c r="E4">
-        <v>0.9875508592911223</v>
+        <v>0.9875508592911221</v>
       </c>
       <c r="F4">
         <v>1.016349820353102</v>
@@ -515,7 +515,7 @@
         <v>1.052414267760931</v>
       </c>
       <c r="J4">
-        <v>0.9991574775552485</v>
+        <v>0.9991574775552484</v>
       </c>
       <c r="K4">
         <v>1.049130607649316</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9815284901928265</v>
+        <v>0.9815284901928261</v>
       </c>
       <c r="D5">
-        <v>1.040648160638408</v>
+        <v>1.040648160638407</v>
       </c>
       <c r="E5">
-        <v>0.9894930195828607</v>
+        <v>0.98949301958286</v>
       </c>
       <c r="F5">
-        <v>1.01826190872108</v>
+        <v>1.018261908721079</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.053032300019012</v>
       </c>
       <c r="J5">
-        <v>1.000948186056051</v>
+        <v>1.00094818605605</v>
       </c>
       <c r="K5">
         <v>1.05006661540945</v>
       </c>
       <c r="L5">
-        <v>0.9994921002845226</v>
+        <v>0.9994921002845217</v>
       </c>
       <c r="M5">
-        <v>1.027925610744254</v>
+        <v>1.027925610744253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819156992416089</v>
+        <v>0.9819156992416095</v>
       </c>
       <c r="D6">
         <v>1.040841943320974</v>
       </c>
       <c r="E6">
-        <v>0.9898169865012395</v>
+        <v>0.9898169865012399</v>
       </c>
       <c r="F6">
         <v>1.018580870340198</v>
@@ -597,7 +597,7 @@
         <v>1.050222587411833</v>
       </c>
       <c r="L6">
-        <v>0.9997739256587891</v>
+        <v>0.9997739256587896</v>
       </c>
       <c r="M6">
         <v>1.028204198042018</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9792376963837274</v>
+        <v>0.9792376963837275</v>
       </c>
       <c r="D7">
         <v>1.039502098112071</v>
@@ -620,7 +620,7 @@
         <v>0.9875769548063089</v>
       </c>
       <c r="F7">
-        <v>1.016375510956547</v>
+        <v>1.016375510956548</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.052422589004098</v>
       </c>
       <c r="J7">
-        <v>0.9991815483154499</v>
+        <v>0.9991815483154501</v>
       </c>
       <c r="K7">
         <v>1.049143194875811</v>
       </c>
       <c r="L7">
-        <v>0.9978246113787234</v>
+        <v>0.9978246113787235</v>
       </c>
       <c r="M7">
         <v>1.026277298630029</v>
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9676357368587962</v>
+        <v>0.9676357368587963</v>
       </c>
       <c r="D8">
         <v>1.033710211005644</v>
@@ -667,7 +667,7 @@
         <v>1.049303530206178</v>
       </c>
       <c r="J8">
-        <v>0.9902263056339369</v>
+        <v>0.990226305633937</v>
       </c>
       <c r="K8">
         <v>1.044452125062569</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9453993416981746</v>
+        <v>0.9453993416981755</v>
       </c>
       <c r="D9">
         <v>1.022691488324283</v>
       </c>
       <c r="E9">
-        <v>0.9593923566676686</v>
+        <v>0.9593923566676695</v>
       </c>
       <c r="F9">
-        <v>0.9886634165815242</v>
+        <v>0.9886634165815248</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.043215160734416</v>
       </c>
       <c r="J9">
-        <v>0.9730393130116071</v>
+        <v>0.9730393130116077</v>
       </c>
       <c r="K9">
         <v>1.035426835438882</v>
       </c>
       <c r="L9">
-        <v>0.9731805160993</v>
+        <v>0.9731805160993008</v>
       </c>
       <c r="M9">
-        <v>1.001943139331086</v>
+        <v>1.001943139331087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9290779972912316</v>
+        <v>0.9290779972912325</v>
       </c>
       <c r="D10">
         <v>1.014696527436098</v>
       </c>
       <c r="E10">
-        <v>0.9458811793575485</v>
+        <v>0.9458811793575495</v>
       </c>
       <c r="F10">
-        <v>0.9754227283108193</v>
+        <v>0.9754227283108198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038687705316599</v>
+        <v>1.0386877053166</v>
       </c>
       <c r="J10">
-        <v>0.9604182902036407</v>
+        <v>0.9604182902036416</v>
       </c>
       <c r="K10">
         <v>1.028805406446223</v>
       </c>
       <c r="L10">
-        <v>0.9613015087484561</v>
+        <v>0.9613015087484572</v>
       </c>
       <c r="M10">
-        <v>0.9902503793287706</v>
+        <v>0.9902503793287708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9215737635935592</v>
+        <v>0.92157376359356</v>
       </c>
       <c r="D11">
         <v>1.011052436706863</v>
       </c>
       <c r="E11">
-        <v>0.9396882633255186</v>
+        <v>0.9396882633255195</v>
       </c>
       <c r="F11">
-        <v>0.9693676373421596</v>
+        <v>0.9693676373421604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036596692504412</v>
+        <v>1.036596692504413</v>
       </c>
       <c r="J11">
-        <v>0.9546167731812448</v>
+        <v>0.9546167731812455</v>
       </c>
       <c r="K11">
         <v>1.025768887427513</v>
       </c>
       <c r="L11">
-        <v>0.9558448371481298</v>
+        <v>0.955844837148131</v>
       </c>
       <c r="M11">
-        <v>0.9848913172209599</v>
+        <v>0.9848913172209605</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187121210932868</v>
+        <v>0.9187121210932873</v>
       </c>
       <c r="D12">
-        <v>1.009668572371034</v>
+        <v>1.009668572371033</v>
       </c>
       <c r="E12">
-        <v>0.9373299661624244</v>
+        <v>0.9373299661624249</v>
       </c>
       <c r="F12">
-        <v>0.9670644205470598</v>
+        <v>0.9670644205470588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035798362112714</v>
+        <v>1.035798362112713</v>
       </c>
       <c r="J12">
-        <v>0.9524049332998702</v>
+        <v>0.9524049332998705</v>
       </c>
       <c r="K12">
-        <v>1.024612852804242</v>
+        <v>1.02461285280424</v>
       </c>
       <c r="L12">
-        <v>0.9537650780340499</v>
+        <v>0.9537650780340505</v>
       </c>
       <c r="M12">
-        <v>0.9828510380467508</v>
+        <v>0.9828510380467501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9193294682096733</v>
+        <v>0.9193294682096738</v>
       </c>
       <c r="D13">
         <v>1.009966838821354</v>
       </c>
       <c r="E13">
-        <v>0.9378385702554798</v>
+        <v>0.93783857025548</v>
       </c>
       <c r="F13">
-        <v>0.9675610194442835</v>
+        <v>0.9675610194442836</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035970622028304</v>
       </c>
       <c r="J13">
-        <v>0.952882070009104</v>
+        <v>0.9528820700091042</v>
       </c>
       <c r="K13">
         <v>1.024862147736846</v>
       </c>
       <c r="L13">
-        <v>0.9542136942034277</v>
+        <v>0.9542136942034279</v>
       </c>
       <c r="M13">
-        <v>0.9832910272319203</v>
+        <v>0.9832910272319205</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9213387892015289</v>
+        <v>0.9213387892015277</v>
       </c>
       <c r="D14">
-        <v>1.010938682537423</v>
+        <v>1.010938682537422</v>
       </c>
       <c r="E14">
-        <v>0.9394945503953945</v>
+        <v>0.9394945503953933</v>
       </c>
       <c r="F14">
-        <v>0.9691783929724141</v>
+        <v>0.9691783929724136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036531156552827</v>
+        <v>1.036531156552826</v>
       </c>
       <c r="J14">
-        <v>0.9544351434039277</v>
+        <v>0.9544351434039268</v>
       </c>
       <c r="K14">
         <v>1.0256739204513</v>
       </c>
       <c r="L14">
-        <v>0.9556740408899541</v>
+        <v>0.955674040889953</v>
       </c>
       <c r="M14">
-        <v>0.9847237141727844</v>
+        <v>0.9847237141727839</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9225666767561221</v>
+        <v>0.9225666767561218</v>
       </c>
       <c r="D15">
         <v>1.011533358560545</v>
       </c>
       <c r="E15">
-        <v>0.940506956982153</v>
+        <v>0.9405069569821526</v>
       </c>
       <c r="F15">
-        <v>0.9701675539209733</v>
+        <v>0.9701675539209726</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036873587142</v>
+        <v>1.036873587141999</v>
       </c>
       <c r="J15">
-        <v>0.9553842939385637</v>
+        <v>0.9553842939385633</v>
       </c>
       <c r="K15">
         <v>1.02617026366621</v>
       </c>
       <c r="L15">
-        <v>0.9565666031343865</v>
+        <v>0.956566603134386</v>
       </c>
       <c r="M15">
-        <v>0.985599684281583</v>
+        <v>0.9855996842815826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.929566124910681</v>
+        <v>0.9295661249106811</v>
       </c>
       <c r="D16">
         <v>1.01493429733316</v>
       </c>
       <c r="E16">
-        <v>0.9462844372988243</v>
+        <v>0.9462844372988245</v>
       </c>
       <c r="F16">
-        <v>0.975817337733485</v>
+        <v>0.9758173377334852</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038823563404478</v>
       </c>
       <c r="J16">
-        <v>0.9607957124708366</v>
+        <v>0.9607957124708368</v>
       </c>
       <c r="K16">
-        <v>1.029003142378992</v>
+        <v>1.029003142378991</v>
       </c>
       <c r="L16">
-        <v>0.9616565775508803</v>
+        <v>0.9616565775508804</v>
       </c>
       <c r="M16">
-        <v>0.9905993817329187</v>
+        <v>0.9905993817329189</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>1.01701692675566</v>
       </c>
       <c r="E17">
-        <v>0.949812561391403</v>
+        <v>0.9498125613914032</v>
       </c>
       <c r="F17">
-        <v>0.9792713989814628</v>
+        <v>0.9792713989814625</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.030733024294041</v>
       </c>
       <c r="L17">
-        <v>0.9647617581172928</v>
+        <v>0.9647617581172929</v>
       </c>
       <c r="M17">
-        <v>0.9936529066323772</v>
+        <v>0.993652906632377</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9362820660623946</v>
+        <v>0.9362820660623942</v>
       </c>
       <c r="D18">
         <v>1.018214328274773</v>
       </c>
       <c r="E18">
-        <v>0.9518379086422719</v>
+        <v>0.9518379086422718</v>
       </c>
       <c r="F18">
-        <v>0.9812554834048091</v>
+        <v>0.9812554834048087</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.040690296807859</v>
       </c>
       <c r="J18">
-        <v>0.9659889023733512</v>
+        <v>0.9659889023733509</v>
       </c>
       <c r="K18">
         <v>1.031725894736478</v>
       </c>
       <c r="L18">
-        <v>0.9665432082029284</v>
+        <v>0.9665432082029282</v>
       </c>
       <c r="M18">
-        <v>0.9954058108362065</v>
+        <v>0.9954058108362059</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.937109947057322</v>
+        <v>0.9371099470573204</v>
       </c>
       <c r="D19">
         <v>1.018619747034205</v>
       </c>
       <c r="E19">
-        <v>0.9525231582280156</v>
+        <v>0.952523158228014</v>
       </c>
       <c r="F19">
-        <v>0.9819269711196846</v>
+        <v>0.9819269711196834</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.040920050589517</v>
       </c>
       <c r="J19">
-        <v>0.9666291061759622</v>
+        <v>0.9666291061759608</v>
       </c>
       <c r="K19">
         <v>1.032061774422786</v>
       </c>
       <c r="L19">
-        <v>0.9671457524638725</v>
+        <v>0.9671457524638708</v>
       </c>
       <c r="M19">
-        <v>0.9959988722364694</v>
+        <v>0.9959988722364683</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.933380556433945</v>
+        <v>0.9333805564339455</v>
       </c>
       <c r="D20">
         <v>1.016795295514553</v>
       </c>
       <c r="E20">
-        <v>0.9494374369902966</v>
+        <v>0.9494374369902973</v>
       </c>
       <c r="F20">
         <v>0.9789040154361761</v>
@@ -1123,16 +1123,16 @@
         <v>1.039884411145105</v>
       </c>
       <c r="J20">
-        <v>0.9637451973840966</v>
+        <v>0.963745197384097</v>
       </c>
       <c r="K20">
         <v>1.030549111755155</v>
       </c>
       <c r="L20">
-        <v>0.9644317178716052</v>
+        <v>0.9644317178716059</v>
       </c>
       <c r="M20">
-        <v>0.9933282403099627</v>
+        <v>0.9933282403099628</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.920749220663551</v>
+        <v>0.9207492206635522</v>
       </c>
       <c r="D21">
         <v>1.010653360775703</v>
       </c>
       <c r="E21">
-        <v>0.9390085642781048</v>
+        <v>0.9390085642781061</v>
       </c>
       <c r="F21">
-        <v>0.9687036611389989</v>
+        <v>0.9687036611389995</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036366708330042</v>
       </c>
       <c r="J21">
-        <v>0.9539794295222372</v>
+        <v>0.9539794295222386</v>
       </c>
       <c r="K21">
         <v>1.025435674281929</v>
       </c>
       <c r="L21">
-        <v>0.9552455185042115</v>
+        <v>0.9552455185042129</v>
       </c>
       <c r="M21">
-        <v>0.9843032417129702</v>
+        <v>0.9843032417129709</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.912372355168596</v>
+        <v>0.9123723551685965</v>
       </c>
       <c r="D22">
         <v>1.006614612474455</v>
       </c>
       <c r="E22">
-        <v>0.932111925038604</v>
+        <v>0.9321119250386039</v>
       </c>
       <c r="F22">
-        <v>0.961973710007242</v>
+        <v>0.9619737100072425</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0.9491599000335544</v>
       </c>
       <c r="M22">
-        <v>0.9783380835469092</v>
+        <v>0.9783380835469097</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9168576454646792</v>
+        <v>0.916857645464679</v>
       </c>
       <c r="D23">
-        <v>1.008773525743203</v>
+        <v>1.008773525743202</v>
       </c>
       <c r="E23">
         <v>0.9358026655515836</v>
       </c>
       <c r="F23">
-        <v>0.965573596091363</v>
+        <v>0.9655735960913623</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.03528080325522</v>
       </c>
       <c r="J23">
-        <v>0.9509717390177842</v>
+        <v>0.9509717390177841</v>
       </c>
       <c r="K23">
-        <v>1.023864325561885</v>
+        <v>1.023864325561884</v>
       </c>
       <c r="L23">
-        <v>0.9524176448484297</v>
+        <v>0.9524176448484294</v>
       </c>
       <c r="M23">
-        <v>0.9815298904726545</v>
+        <v>0.9815298904726537</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9335856307951402</v>
+        <v>0.9335856307951403</v>
       </c>
       <c r="D24">
-        <v>1.016895494568303</v>
+        <v>1.016895494568304</v>
       </c>
       <c r="E24">
-        <v>0.9496070396614561</v>
+        <v>0.9496070396614562</v>
       </c>
       <c r="F24">
-        <v>0.9790701144197561</v>
+        <v>0.9790701144197564</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039941401958203</v>
       </c>
       <c r="J24">
-        <v>0.9639037761436683</v>
+        <v>0.9639037761436681</v>
       </c>
       <c r="K24">
-        <v>1.030632263595353</v>
+        <v>1.030632263595354</v>
       </c>
       <c r="L24">
         <v>0.9645809403514566</v>
       </c>
       <c r="M24">
-        <v>0.9934750296999603</v>
+        <v>0.9934750296999606</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513877098052034</v>
+        <v>0.9513877098052043</v>
       </c>
       <c r="D25">
-        <v>1.025646093163225</v>
+        <v>1.025646093163227</v>
       </c>
       <c r="E25">
-        <v>0.964363601596581</v>
+        <v>0.9643636015965817</v>
       </c>
       <c r="F25">
-        <v>0.9935439511270583</v>
+        <v>0.9935439511270592</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.044865952672402</v>
       </c>
       <c r="J25">
-        <v>0.9776696287235982</v>
+        <v>0.9776696287235991</v>
       </c>
       <c r="K25">
-        <v>1.037858916606672</v>
+        <v>1.037858916606673</v>
       </c>
       <c r="L25">
-        <v>0.9775415221183275</v>
+        <v>0.9775415221183285</v>
       </c>
       <c r="M25">
-        <v>1.006243322568187</v>
+        <v>1.006243322568188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9645365555253579</v>
+        <v>0.9645745297808024</v>
       </c>
       <c r="D2">
-        <v>1.032167290303209</v>
+        <v>1.032178244545153</v>
       </c>
       <c r="E2">
-        <v>0.9753044594622386</v>
+        <v>0.9753388186589486</v>
       </c>
       <c r="F2">
-        <v>1.004298031233706</v>
+        <v>1.004320752454257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048462619696231</v>
+        <v>1.048471274982521</v>
       </c>
       <c r="J2">
-        <v>0.9878323040865858</v>
+        <v>0.9878690233386478</v>
       </c>
       <c r="K2">
-        <v>1.043195960547469</v>
+        <v>1.04320677385052</v>
       </c>
       <c r="L2">
-        <v>0.987118911773192</v>
+        <v>0.9871527610139</v>
       </c>
       <c r="M2">
-        <v>1.015697810664806</v>
+        <v>1.015720218757452</v>
+      </c>
+      <c r="N2">
+        <v>0.9932812049398961</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9735712816128317</v>
+        <v>0.9736011973507375</v>
       </c>
       <c r="D3">
-        <v>1.03667047545074</v>
+        <v>1.036679092579778</v>
       </c>
       <c r="E3">
-        <v>0.9828417266305989</v>
+        <v>0.982868969661832</v>
       </c>
       <c r="F3">
-        <v>1.011714282380882</v>
+        <v>1.011732163192848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050905346820854</v>
+        <v>1.050912171324669</v>
       </c>
       <c r="J3">
-        <v>0.9948093001409823</v>
+        <v>0.9948383384148894</v>
       </c>
       <c r="K3">
-        <v>1.046854703109551</v>
+        <v>1.046863219427385</v>
       </c>
       <c r="L3">
-        <v>0.9936989626868566</v>
+        <v>0.9937258417019084</v>
       </c>
       <c r="M3">
-        <v>1.022199439158927</v>
+        <v>1.02221709774076</v>
+      </c>
+      <c r="N3">
+        <v>0.9981222248733356</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9792064891342613</v>
+        <v>0.9792315027221603</v>
       </c>
       <c r="D4">
-        <v>1.039486490207653</v>
+        <v>1.039493688982781</v>
       </c>
       <c r="E4">
-        <v>0.9875508592911221</v>
+        <v>0.9875737633651248</v>
       </c>
       <c r="F4">
-        <v>1.016349820353102</v>
+        <v>1.016364761520833</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052414267760931</v>
+        <v>1.052419977242851</v>
       </c>
       <c r="J4">
-        <v>0.9991574775552484</v>
+        <v>0.9991818137805052</v>
       </c>
       <c r="K4">
-        <v>1.049130607649316</v>
+        <v>1.049137727466885</v>
       </c>
       <c r="L4">
-        <v>0.99780189352274</v>
+        <v>0.9978245124237204</v>
       </c>
       <c r="M4">
-        <v>1.026254842362383</v>
+        <v>1.026269610307931</v>
+      </c>
+      <c r="N4">
+        <v>1.001136664956465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9815284901928261</v>
+        <v>0.9815515098314442</v>
       </c>
       <c r="D5">
-        <v>1.040648160638407</v>
+        <v>1.040654783231977</v>
       </c>
       <c r="E5">
-        <v>0.98949301958286</v>
+        <v>0.9895141567966454</v>
       </c>
       <c r="F5">
-        <v>1.018261908721079</v>
+        <v>1.018275655266997</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053032300019012</v>
+        <v>1.053037555659094</v>
       </c>
       <c r="J5">
-        <v>1.00094818605605</v>
+        <v>1.000970603338297</v>
       </c>
       <c r="K5">
-        <v>1.05006661540945</v>
+        <v>1.050073167362964</v>
       </c>
       <c r="L5">
-        <v>0.9994921002845217</v>
+        <v>0.9995129822023162</v>
       </c>
       <c r="M5">
-        <v>1.027925610744253</v>
+        <v>1.027939202618972</v>
+      </c>
+      <c r="N5">
+        <v>1.002377461382578</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819156992416095</v>
+        <v>0.9819383878044776</v>
       </c>
       <c r="D6">
-        <v>1.040841943320974</v>
+        <v>1.040848470286298</v>
       </c>
       <c r="E6">
-        <v>0.9898169865012399</v>
+        <v>0.9898378302393956</v>
       </c>
       <c r="F6">
-        <v>1.018580870340198</v>
+        <v>1.018594418591663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053135136411751</v>
+        <v>1.053140316677943</v>
       </c>
       <c r="J6">
-        <v>1.001246738469308</v>
+        <v>1.001268836773103</v>
       </c>
       <c r="K6">
-        <v>1.050222587411833</v>
+        <v>1.050229045085666</v>
       </c>
       <c r="L6">
-        <v>0.9997739256587896</v>
+        <v>0.9997945189379239</v>
       </c>
       <c r="M6">
-        <v>1.028204198042018</v>
+        <v>1.028217594624502</v>
+      </c>
+      <c r="N6">
+        <v>1.002584292462418</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9792376963837275</v>
+        <v>0.9792626830749562</v>
       </c>
       <c r="D7">
-        <v>1.039502098112071</v>
+        <v>1.039509289112179</v>
       </c>
       <c r="E7">
-        <v>0.9875769548063089</v>
+        <v>0.9875998350542758</v>
       </c>
       <c r="F7">
-        <v>1.016375510956548</v>
+        <v>1.016390436005681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052422589004098</v>
+        <v>1.052428292365293</v>
       </c>
       <c r="J7">
-        <v>0.9991815483154501</v>
+        <v>0.9992058586803452</v>
       </c>
       <c r="K7">
-        <v>1.049143194875811</v>
+        <v>1.049150307032777</v>
       </c>
       <c r="L7">
-        <v>0.9978246113787235</v>
+        <v>0.9978472068651708</v>
       </c>
       <c r="M7">
-        <v>1.026277298630029</v>
+        <v>1.026292050712565</v>
+      </c>
+      <c r="N7">
+        <v>1.001153346347359</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9676357368587963</v>
+        <v>0.9676709179434269</v>
       </c>
       <c r="D8">
-        <v>1.033710211005644</v>
+        <v>1.033720354411274</v>
       </c>
       <c r="E8">
-        <v>0.9778881867105423</v>
+        <v>0.9779200818199097</v>
       </c>
       <c r="F8">
-        <v>1.00683971702911</v>
+        <v>1.006860759406255</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049303530206178</v>
+        <v>1.049311551217412</v>
       </c>
       <c r="J8">
-        <v>0.990226305633937</v>
+        <v>0.9902603694208517</v>
       </c>
       <c r="K8">
-        <v>1.044452125062569</v>
+        <v>1.044462142016556</v>
       </c>
       <c r="L8">
-        <v>0.9893762476977745</v>
+        <v>0.9894076857032794</v>
       </c>
       <c r="M8">
-        <v>1.017927830267004</v>
+        <v>1.017948592460724</v>
+      </c>
+      <c r="N8">
+        <v>0.9949428212321664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9453993416981755</v>
+        <v>0.9454553060896175</v>
       </c>
       <c r="D9">
-        <v>1.022691488324283</v>
+        <v>1.022707683296729</v>
       </c>
       <c r="E9">
-        <v>0.9593923566676695</v>
+        <v>0.9594425173853763</v>
       </c>
       <c r="F9">
-        <v>0.9886634165815248</v>
+        <v>0.9886969768638172</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043215160734416</v>
+        <v>1.04322789409255</v>
       </c>
       <c r="J9">
-        <v>0.9730393130116077</v>
+        <v>0.9730929621450023</v>
       </c>
       <c r="K9">
-        <v>1.035426835438882</v>
+        <v>1.035442782331352</v>
       </c>
       <c r="L9">
-        <v>0.9731805160993008</v>
+        <v>0.9732297710291511</v>
       </c>
       <c r="M9">
-        <v>1.001943139331087</v>
+        <v>1.001976138937741</v>
+      </c>
+      <c r="N9">
+        <v>0.9830036857616011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9290779972912325</v>
+        <v>0.9291504713812256</v>
       </c>
       <c r="D10">
-        <v>1.014696527436098</v>
+        <v>1.014717556146663</v>
       </c>
       <c r="E10">
-        <v>0.9458811793575495</v>
+        <v>0.9459457251873276</v>
       </c>
       <c r="F10">
-        <v>0.9754227283108198</v>
+        <v>0.9754662697376262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0386877053166</v>
+        <v>1.038704170158452</v>
       </c>
       <c r="J10">
-        <v>0.9604182902036416</v>
+        <v>0.9604872158891885</v>
       </c>
       <c r="K10">
-        <v>1.028805406446223</v>
+        <v>1.028826069590065</v>
       </c>
       <c r="L10">
-        <v>0.9613015087484572</v>
+        <v>0.9613647062736391</v>
       </c>
       <c r="M10">
-        <v>0.9902503793287708</v>
+        <v>0.9902930819003604</v>
+      </c>
+      <c r="N10">
+        <v>0.9742248852219482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.92157376359356</v>
+        <v>0.9216542504859365</v>
       </c>
       <c r="D11">
-        <v>1.011052436706863</v>
+        <v>1.011075818091612</v>
       </c>
       <c r="E11">
-        <v>0.9396882633255195</v>
+        <v>0.9397597477769059</v>
       </c>
       <c r="F11">
-        <v>0.9693676373421604</v>
+        <v>0.9694160322546375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036596692504413</v>
+        <v>1.036614964310018</v>
       </c>
       <c r="J11">
-        <v>0.9546167731812455</v>
+        <v>0.9546930257444604</v>
       </c>
       <c r="K11">
-        <v>1.025768887427513</v>
+        <v>1.025791840351323</v>
       </c>
       <c r="L11">
-        <v>0.955844837148131</v>
+        <v>0.9559147332905106</v>
       </c>
       <c r="M11">
-        <v>0.9848913172209605</v>
+        <v>0.9849387218682109</v>
+      </c>
+      <c r="N11">
+        <v>0.9701873819274893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187121210932873</v>
+        <v>0.9187957408411946</v>
       </c>
       <c r="D12">
-        <v>1.009668572371033</v>
+        <v>1.009692874580602</v>
       </c>
       <c r="E12">
-        <v>0.9373299661624249</v>
+        <v>0.9374041556150605</v>
       </c>
       <c r="F12">
-        <v>0.9670644205470588</v>
+        <v>0.9671147144189866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035798362112713</v>
+        <v>1.035817339635846</v>
       </c>
       <c r="J12">
-        <v>0.9524049332998705</v>
+        <v>0.9524840353382229</v>
       </c>
       <c r="K12">
-        <v>1.02461285280424</v>
+        <v>1.024636701001188</v>
       </c>
       <c r="L12">
-        <v>0.9537650780340505</v>
+        <v>0.9538375811035066</v>
       </c>
       <c r="M12">
-        <v>0.9828510380467501</v>
+        <v>0.9829002796844383</v>
+      </c>
+      <c r="N12">
+        <v>0.968647813385536</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9193294682096738</v>
+        <v>0.9194124083572218</v>
       </c>
       <c r="D13">
-        <v>1.009966838821354</v>
+        <v>1.00999094123674</v>
       </c>
       <c r="E13">
-        <v>0.93783857025548</v>
+        <v>0.9379121732994843</v>
       </c>
       <c r="F13">
-        <v>0.9675610194442836</v>
+        <v>0.9676109013226922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035970622028304</v>
+        <v>1.035989446500172</v>
       </c>
       <c r="J13">
-        <v>0.9528820700091042</v>
+        <v>0.9529605546387464</v>
       </c>
       <c r="K13">
-        <v>1.024862147736846</v>
+        <v>1.024885801726901</v>
       </c>
       <c r="L13">
-        <v>0.9542136942034279</v>
+        <v>0.9542856323370162</v>
       </c>
       <c r="M13">
-        <v>0.9832910272319205</v>
+        <v>0.9833398704484927</v>
+      </c>
+      <c r="N13">
+        <v>0.9689799389079801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9213387892015277</v>
+        <v>0.9214195316829121</v>
       </c>
       <c r="D14">
-        <v>1.010938682537422</v>
+        <v>1.010962139027046</v>
       </c>
       <c r="E14">
-        <v>0.9394945503953933</v>
+        <v>0.9395662556967639</v>
       </c>
       <c r="F14">
-        <v>0.9691783929724136</v>
+        <v>0.9692269427822289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036531156552826</v>
+        <v>1.036549485949845</v>
       </c>
       <c r="J14">
-        <v>0.9544351434039268</v>
+        <v>0.9545116287547279</v>
       </c>
       <c r="K14">
-        <v>1.0256739204513</v>
+        <v>1.025696946415128</v>
       </c>
       <c r="L14">
-        <v>0.955674040889953</v>
+        <v>0.9557441499687718</v>
       </c>
       <c r="M14">
-        <v>0.9847237141727839</v>
+        <v>0.984771268719166</v>
+      </c>
+      <c r="N14">
+        <v>0.97006096202262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9225666767561218</v>
+        <v>0.9226460868477711</v>
       </c>
       <c r="D15">
-        <v>1.011533358560545</v>
+        <v>1.011556423565909</v>
       </c>
       <c r="E15">
-        <v>0.9405069569821526</v>
+        <v>0.9405775106644533</v>
       </c>
       <c r="F15">
-        <v>0.9701675539209726</v>
+        <v>0.9702152963014931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036873587141999</v>
+        <v>1.036891616282017</v>
       </c>
       <c r="J15">
-        <v>0.9553842939385633</v>
+        <v>0.9554595651416017</v>
       </c>
       <c r="K15">
-        <v>1.02617026366621</v>
+        <v>1.026192908870901</v>
       </c>
       <c r="L15">
-        <v>0.956566603134386</v>
+        <v>0.9566356016749779</v>
       </c>
       <c r="M15">
-        <v>0.9855996842815826</v>
+        <v>0.98564645734144</v>
+      </c>
+      <c r="N15">
+        <v>0.9707215897014877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9295661249106811</v>
+        <v>0.9296380875474274</v>
       </c>
       <c r="D16">
-        <v>1.01493429733316</v>
+        <v>1.014955176006505</v>
       </c>
       <c r="E16">
-        <v>0.9462844372988245</v>
+        <v>0.9463485392668737</v>
       </c>
       <c r="F16">
-        <v>0.9758173377334852</v>
+        <v>0.9758605695478787</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038823563404478</v>
+        <v>1.038839912815102</v>
       </c>
       <c r="J16">
-        <v>0.9607957124708368</v>
+        <v>0.9608641685689182</v>
       </c>
       <c r="K16">
-        <v>1.029003142378991</v>
+        <v>1.029023659375828</v>
       </c>
       <c r="L16">
-        <v>0.9616565775508804</v>
+        <v>0.9617193459916685</v>
       </c>
       <c r="M16">
-        <v>0.9905993817329189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9906417840029816</v>
+      </c>
+      <c r="N16">
+        <v>0.9744875088736957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9338341219384358</v>
+        <v>0.9339016611004989</v>
       </c>
       <c r="D17">
-        <v>1.01701692675566</v>
+        <v>1.017036508509326</v>
       </c>
       <c r="E17">
-        <v>0.9498125613914032</v>
+        <v>0.9498728196658529</v>
       </c>
       <c r="F17">
-        <v>0.9792713989814625</v>
+        <v>0.9793119540162435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040010452130036</v>
+        <v>1.040025802740506</v>
       </c>
       <c r="J17">
-        <v>0.9640959286887002</v>
+        <v>0.9641603137067241</v>
       </c>
       <c r="K17">
-        <v>1.030733024294041</v>
+        <v>1.030752277370503</v>
       </c>
       <c r="L17">
-        <v>0.9647617581172929</v>
+        <v>0.964820807884803</v>
       </c>
       <c r="M17">
-        <v>0.993652906632377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9936927108388703</v>
+      </c>
+      <c r="N17">
+        <v>0.9767836812910342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9362820660623942</v>
+        <v>0.9363471063240434</v>
       </c>
       <c r="D18">
-        <v>1.018214328274773</v>
+        <v>1.018233177979681</v>
       </c>
       <c r="E18">
-        <v>0.9518379086422718</v>
+        <v>0.9518959917703869</v>
       </c>
       <c r="F18">
-        <v>0.9812554834048087</v>
+        <v>0.9812945271170748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040690296807859</v>
+        <v>1.040705082823965</v>
       </c>
       <c r="J18">
-        <v>0.9659889023733509</v>
+        <v>0.9660509798393296</v>
       </c>
       <c r="K18">
-        <v>1.031725894736478</v>
+        <v>1.031744433882622</v>
       </c>
       <c r="L18">
-        <v>0.9665432082029282</v>
+        <v>0.9666001512093656</v>
       </c>
       <c r="M18">
-        <v>0.9954058108362059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9954441467332192</v>
+      </c>
+      <c r="N18">
+        <v>0.9781005408985032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9371099470573204</v>
+        <v>0.9371741483344554</v>
       </c>
       <c r="D19">
-        <v>1.018619747034205</v>
+        <v>1.018638351062536</v>
       </c>
       <c r="E19">
-        <v>0.952523158228014</v>
+        <v>0.9525805104644943</v>
       </c>
       <c r="F19">
-        <v>0.9819269711196834</v>
+        <v>0.981965507560818</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040920050589517</v>
+        <v>1.040934646991495</v>
       </c>
       <c r="J19">
-        <v>0.9666291061759608</v>
+        <v>0.9666904076433729</v>
       </c>
       <c r="K19">
-        <v>1.032061774422786</v>
+        <v>1.032080073888824</v>
       </c>
       <c r="L19">
-        <v>0.9671457524638708</v>
+        <v>0.9672019871700938</v>
       </c>
       <c r="M19">
-        <v>0.9959988722364683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9960367150648585</v>
+      </c>
+      <c r="N19">
+        <v>0.978545866725075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9333805564339455</v>
+        <v>0.9334485616188736</v>
       </c>
       <c r="D20">
-        <v>1.016795295514553</v>
+        <v>1.016815013838322</v>
       </c>
       <c r="E20">
-        <v>0.9494374369902973</v>
+        <v>0.9494981006103546</v>
       </c>
       <c r="F20">
-        <v>0.9789040154361761</v>
+        <v>0.9789448523879484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039884411145105</v>
+        <v>1.039899867019397</v>
       </c>
       <c r="J20">
-        <v>0.963745197384097</v>
+        <v>0.963810012121333</v>
       </c>
       <c r="K20">
-        <v>1.030549111755155</v>
+        <v>1.030568497980502</v>
       </c>
       <c r="L20">
-        <v>0.9644317178716059</v>
+        <v>0.9644911600510765</v>
       </c>
       <c r="M20">
-        <v>0.9933282403099628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9933683182948662</v>
+      </c>
+      <c r="N20">
+        <v>0.9765396758184682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9207492206635522</v>
+        <v>0.920830605730677</v>
       </c>
       <c r="D21">
-        <v>1.010653360775703</v>
+        <v>1.01067700610457</v>
       </c>
       <c r="E21">
-        <v>0.9390085642781061</v>
+        <v>0.9390808246958586</v>
       </c>
       <c r="F21">
-        <v>0.9687036611389995</v>
+        <v>0.968752600402918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036366708330042</v>
+        <v>1.036385182506816</v>
       </c>
       <c r="J21">
-        <v>0.9539794295222386</v>
+        <v>0.9540564998830283</v>
       </c>
       <c r="K21">
-        <v>1.025435674281929</v>
+        <v>1.025458883878074</v>
       </c>
       <c r="L21">
-        <v>0.9552455185042129</v>
+        <v>0.9553161627345368</v>
       </c>
       <c r="M21">
-        <v>0.9843032417129709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9843511731020095</v>
+      </c>
+      <c r="N21">
+        <v>0.969743767170313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9123723551685965</v>
+        <v>0.9124630774421134</v>
       </c>
       <c r="D22">
-        <v>1.006614612474455</v>
+        <v>1.006641004026224</v>
       </c>
       <c r="E22">
-        <v>0.9321119250386039</v>
+        <v>0.932192230440844</v>
       </c>
       <c r="F22">
-        <v>0.9619737100072425</v>
+        <v>0.962028311390291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034028534408044</v>
+        <v>1.034049110190435</v>
       </c>
       <c r="J22">
-        <v>0.9475060365926395</v>
+        <v>0.9475915675887144</v>
       </c>
       <c r="K22">
-        <v>1.022056161691627</v>
+        <v>1.022082039410469</v>
       </c>
       <c r="L22">
-        <v>0.9491599000335544</v>
+        <v>0.9492382882247581</v>
       </c>
       <c r="M22">
-        <v>0.9783380835469097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9783914866367805</v>
+      </c>
+      <c r="N22">
+        <v>0.9652374878555259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.916857645464679</v>
+        <v>0.9169433193044454</v>
       </c>
       <c r="D23">
-        <v>1.008773525743202</v>
+        <v>1.008798431967601</v>
       </c>
       <c r="E23">
-        <v>0.9358026655515836</v>
+        <v>0.9358786261447487</v>
       </c>
       <c r="F23">
-        <v>0.9655735960913623</v>
+        <v>0.9656251354006654</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03528080325522</v>
+        <v>1.035300243246855</v>
       </c>
       <c r="J23">
-        <v>0.9509717390177841</v>
+        <v>0.9510527047644107</v>
       </c>
       <c r="K23">
-        <v>1.023864325561884</v>
+        <v>1.02388876073878</v>
       </c>
       <c r="L23">
-        <v>0.9524176448484294</v>
+        <v>0.9524918534980673</v>
       </c>
       <c r="M23">
-        <v>0.9815298904726537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9815803360928201</v>
+      </c>
+      <c r="N23">
+        <v>0.9676501616145794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9335856307951403</v>
+        <v>0.9336534251552988</v>
       </c>
       <c r="D24">
-        <v>1.016895494568304</v>
+        <v>1.016915151107029</v>
       </c>
       <c r="E24">
-        <v>0.9496070396614562</v>
+        <v>0.9496675199183418</v>
       </c>
       <c r="F24">
-        <v>0.9790701144197564</v>
+        <v>0.9791108238320582</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039941401958203</v>
+        <v>1.039956810213138</v>
       </c>
       <c r="J24">
-        <v>0.9639037761436681</v>
+        <v>0.9639683965036484</v>
       </c>
       <c r="K24">
-        <v>1.030632263595354</v>
+        <v>1.030651589585019</v>
       </c>
       <c r="L24">
-        <v>0.9645809403514566</v>
+        <v>0.9646402050258137</v>
       </c>
       <c r="M24">
-        <v>0.9934750296999606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9935149838317535</v>
+      </c>
+      <c r="N24">
+        <v>0.9766500004704158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513877098052043</v>
+        <v>0.9514378989289349</v>
       </c>
       <c r="D25">
-        <v>1.025646093163227</v>
+        <v>1.0256606024352</v>
       </c>
       <c r="E25">
-        <v>0.9643636015965817</v>
+        <v>0.9644087033066243</v>
       </c>
       <c r="F25">
-        <v>0.9935439511270592</v>
+        <v>0.9935740271515973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044865952672402</v>
+        <v>1.044877378205471</v>
       </c>
       <c r="J25">
-        <v>0.9776696287235991</v>
+        <v>0.9777178755195826</v>
       </c>
       <c r="K25">
-        <v>1.037858916606673</v>
+        <v>1.037873214707768</v>
       </c>
       <c r="L25">
-        <v>0.9775415221183285</v>
+        <v>0.9775858553179051</v>
       </c>
       <c r="M25">
-        <v>1.006243322568188</v>
+        <v>1.006272923920087</v>
+      </c>
+      <c r="N25">
+        <v>0.9862222785091075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9645745297808024</v>
+        <v>0.9520613945905765</v>
       </c>
       <c r="D2">
-        <v>1.032178244545153</v>
+        <v>1.034176817698278</v>
       </c>
       <c r="E2">
-        <v>0.9753388186589486</v>
+        <v>0.9717963635652765</v>
       </c>
       <c r="F2">
-        <v>1.004320752454257</v>
+        <v>0.979545655501019</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048471274982521</v>
+        <v>1.046903805755952</v>
       </c>
       <c r="J2">
-        <v>0.9878690233386478</v>
+        <v>0.9757769994775746</v>
       </c>
       <c r="K2">
-        <v>1.04320677385052</v>
+        <v>1.045179695518394</v>
       </c>
       <c r="L2">
-        <v>0.9871527610139</v>
+        <v>0.9836631242109916</v>
       </c>
       <c r="M2">
-        <v>1.015720218757452</v>
+        <v>0.9912975036010624</v>
       </c>
       <c r="N2">
-        <v>0.9932812049398961</v>
+        <v>0.977162714740019</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9736011973507375</v>
+        <v>0.9659407127596108</v>
       </c>
       <c r="D3">
-        <v>1.036679092579778</v>
+        <v>1.036785179069903</v>
       </c>
       <c r="E3">
-        <v>0.982868969661832</v>
+        <v>0.9838255741199741</v>
       </c>
       <c r="F3">
-        <v>1.011732163192848</v>
+        <v>0.9918454116066456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050912171324669</v>
+        <v>1.048100795620043</v>
       </c>
       <c r="J3">
-        <v>0.9948383384148894</v>
+        <v>0.9874049878478572</v>
       </c>
       <c r="K3">
-        <v>1.046863219427385</v>
+        <v>1.046968064988772</v>
       </c>
       <c r="L3">
-        <v>0.9937258417019084</v>
+        <v>0.9946696802434225</v>
       </c>
       <c r="M3">
-        <v>1.02221709774076</v>
+        <v>1.002583706309632</v>
       </c>
       <c r="N3">
-        <v>0.9981222248733356</v>
+        <v>0.9888072161875365</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9792315027221603</v>
+        <v>0.9744490481877905</v>
       </c>
       <c r="D4">
-        <v>1.039493688982781</v>
+        <v>1.038417893646024</v>
       </c>
       <c r="E4">
-        <v>0.9875737633651248</v>
+        <v>0.9912092311888229</v>
       </c>
       <c r="F4">
-        <v>1.016364761520833</v>
+        <v>0.9993965695850457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052419977242851</v>
+        <v>1.048827310168972</v>
       </c>
       <c r="J4">
-        <v>0.9991818137805052</v>
+        <v>0.9945297289005813</v>
       </c>
       <c r="K4">
-        <v>1.049137727466885</v>
+        <v>1.048073746579002</v>
       </c>
       <c r="L4">
-        <v>0.9978245124237204</v>
+        <v>1.001414923870074</v>
       </c>
       <c r="M4">
-        <v>1.026269610307931</v>
+        <v>1.009502282940287</v>
       </c>
       <c r="N4">
-        <v>1.001136664956465</v>
+        <v>0.9959420751897746</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9815515098314442</v>
+        <v>0.9779244386181918</v>
       </c>
       <c r="D5">
-        <v>1.040654783231977</v>
+        <v>1.039091943975934</v>
       </c>
       <c r="E5">
-        <v>0.9895141567966454</v>
+        <v>0.9942271151609635</v>
       </c>
       <c r="F5">
-        <v>1.018275655266997</v>
+        <v>1.002483134807337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053037555659094</v>
+        <v>1.049121983978518</v>
       </c>
       <c r="J5">
-        <v>1.000970603338297</v>
+        <v>0.9974389166996933</v>
       </c>
       <c r="K5">
-        <v>1.050073167362964</v>
+        <v>1.048527028750199</v>
       </c>
       <c r="L5">
-        <v>0.9995129822023162</v>
+        <v>1.004169353418497</v>
       </c>
       <c r="M5">
-        <v>1.027939202618972</v>
+        <v>1.012327832289658</v>
       </c>
       <c r="N5">
-        <v>1.002377461382578</v>
+        <v>0.9988553943692497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819383878044776</v>
+        <v>0.9785023204767049</v>
       </c>
       <c r="D6">
-        <v>1.040848470286298</v>
+        <v>1.039204418251188</v>
       </c>
       <c r="E6">
-        <v>0.9898378302393956</v>
+        <v>0.9947290247897338</v>
       </c>
       <c r="F6">
-        <v>1.018594418591663</v>
+        <v>1.002996476513083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053140316677943</v>
+        <v>1.049170849826468</v>
       </c>
       <c r="J6">
-        <v>1.001268836773103</v>
+        <v>0.9979225841351731</v>
       </c>
       <c r="K6">
-        <v>1.050229045085666</v>
+        <v>1.048602480285618</v>
       </c>
       <c r="L6">
-        <v>0.9997945189379239</v>
+        <v>1.004627300422217</v>
       </c>
       <c r="M6">
-        <v>1.028217594624502</v>
+        <v>1.012797620039738</v>
       </c>
       <c r="N6">
-        <v>1.002584292462418</v>
+        <v>0.9993397486679652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9792626830749562</v>
+        <v>0.974495871519267</v>
       </c>
       <c r="D7">
-        <v>1.039509289112179</v>
+        <v>1.03842694782235</v>
       </c>
       <c r="E7">
-        <v>0.9875998350542758</v>
+        <v>0.9912498835697089</v>
       </c>
       <c r="F7">
-        <v>1.016390436005681</v>
+        <v>0.9994381464180757</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052428292365293</v>
+        <v>1.048831288973291</v>
       </c>
       <c r="J7">
-        <v>0.9992058586803452</v>
+        <v>0.9945689283046223</v>
       </c>
       <c r="K7">
-        <v>1.049150307032777</v>
+        <v>1.048079847779708</v>
       </c>
       <c r="L7">
-        <v>0.9978472068651708</v>
+        <v>1.001452037345844</v>
       </c>
       <c r="M7">
-        <v>1.026292050712565</v>
+        <v>1.009540353504132</v>
       </c>
       <c r="N7">
-        <v>1.001153346347359</v>
+        <v>0.9959813302614655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9676709179434269</v>
+        <v>0.9568574714895983</v>
       </c>
       <c r="D8">
-        <v>1.033720354411274</v>
+        <v>1.035070278886315</v>
       </c>
       <c r="E8">
-        <v>0.9779200818199097</v>
+        <v>0.975950829538179</v>
       </c>
       <c r="F8">
-        <v>1.006860759406255</v>
+        <v>0.9837931660040325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049311551217412</v>
+        <v>1.047318764811652</v>
       </c>
       <c r="J8">
-        <v>0.9902603694208517</v>
+        <v>0.9797957175078047</v>
       </c>
       <c r="K8">
-        <v>1.044462142016556</v>
+        <v>1.045795265352041</v>
       </c>
       <c r="L8">
-        <v>0.9894076857032794</v>
+        <v>0.9874667266727808</v>
       </c>
       <c r="M8">
-        <v>1.017948592460724</v>
+        <v>0.9951972385158238</v>
       </c>
       <c r="N8">
-        <v>0.9949428212321664</v>
+        <v>0.9811871398108054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9454553060896175</v>
+        <v>0.9214965366919957</v>
       </c>
       <c r="D9">
-        <v>1.022707683296729</v>
+        <v>1.028686722617157</v>
       </c>
       <c r="E9">
-        <v>0.9594425173853763</v>
+        <v>0.945385146844535</v>
       </c>
       <c r="F9">
-        <v>0.9886969768638172</v>
+        <v>0.9525562135637573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04322789409255</v>
+        <v>1.044243892231636</v>
       </c>
       <c r="J9">
-        <v>0.9730929621450023</v>
+        <v>0.9501622772231091</v>
       </c>
       <c r="K9">
-        <v>1.035442782331352</v>
+        <v>1.041330912602123</v>
       </c>
       <c r="L9">
-        <v>0.9732297710291511</v>
+        <v>0.9594311559845755</v>
       </c>
       <c r="M9">
-        <v>1.001976138937741</v>
+        <v>0.9664689808449746</v>
       </c>
       <c r="N9">
-        <v>0.9830036857616011</v>
+        <v>0.9515116166419025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9291504713812256</v>
+        <v>0.8937885441639076</v>
       </c>
       <c r="D10">
-        <v>1.014717556146663</v>
+        <v>1.024028913313837</v>
       </c>
       <c r="E10">
-        <v>0.9459457251873276</v>
+        <v>0.9215554632633551</v>
       </c>
       <c r="F10">
-        <v>0.9754662697376262</v>
+        <v>0.9282312769886595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038704170158452</v>
+        <v>1.041840082883407</v>
       </c>
       <c r="J10">
-        <v>0.9604872158891885</v>
+        <v>0.9269568562652931</v>
       </c>
       <c r="K10">
-        <v>1.028826069590065</v>
+        <v>1.037977460934697</v>
       </c>
       <c r="L10">
-        <v>0.9613647062736391</v>
+        <v>0.9375018614922659</v>
       </c>
       <c r="M10">
-        <v>0.9902930819003604</v>
+        <v>0.9440296540215003</v>
       </c>
       <c r="N10">
-        <v>0.9742248852219482</v>
+        <v>0.9282732413246273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9216542504859365</v>
+        <v>0.8803733043143582</v>
       </c>
       <c r="D11">
-        <v>1.011075818091612</v>
+        <v>1.02188730653678</v>
       </c>
       <c r="E11">
-        <v>0.9397597477769059</v>
+        <v>0.9100628783584497</v>
       </c>
       <c r="F11">
-        <v>0.9694160322546375</v>
+        <v>0.9165111784432992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036614964310018</v>
+        <v>1.040688446015993</v>
       </c>
       <c r="J11">
-        <v>0.9546930257444604</v>
+        <v>0.9157342018407194</v>
       </c>
       <c r="K11">
-        <v>1.025791840351323</v>
+        <v>1.036407936531698</v>
       </c>
       <c r="L11">
-        <v>0.9559147332905106</v>
+        <v>0.9269065906129008</v>
       </c>
       <c r="M11">
-        <v>0.9849387218682109</v>
+        <v>0.9332002534435562</v>
       </c>
       <c r="N11">
-        <v>0.9701873819274893</v>
+        <v>0.9170346494435144</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187957408411946</v>
+        <v>0.8751206405517713</v>
       </c>
       <c r="D12">
-        <v>1.009692874580602</v>
+        <v>1.021069353513906</v>
       </c>
       <c r="E12">
-        <v>0.9374041556150605</v>
+        <v>0.9055717501717701</v>
       </c>
       <c r="F12">
-        <v>0.9671147144189866</v>
+        <v>0.9119333988163816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035817339635846</v>
+        <v>1.040240601624687</v>
       </c>
       <c r="J12">
-        <v>0.9524840353382229</v>
+        <v>0.911343072853487</v>
       </c>
       <c r="K12">
-        <v>1.024636701001188</v>
+        <v>1.035803731945233</v>
       </c>
       <c r="L12">
-        <v>0.9538375811035066</v>
+        <v>0.9227630031223462</v>
       </c>
       <c r="M12">
-        <v>0.9829002796844383</v>
+        <v>0.928967507546798</v>
       </c>
       <c r="N12">
-        <v>0.968647813385536</v>
+        <v>0.9126372845494507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9194124083572218</v>
+        <v>0.8762607323527954</v>
       </c>
       <c r="D13">
-        <v>1.00999094123674</v>
+        <v>1.021245900126488</v>
       </c>
       <c r="E13">
-        <v>0.9379121732994843</v>
+        <v>0.9065461192140709</v>
       </c>
       <c r="F13">
-        <v>0.9676109013226922</v>
+        <v>0.912926455054038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035989446500172</v>
+        <v>1.04033764488491</v>
       </c>
       <c r="J13">
-        <v>0.9529605546387464</v>
+        <v>0.9122960088739469</v>
       </c>
       <c r="K13">
-        <v>1.024885801726901</v>
+        <v>1.035934369119512</v>
       </c>
       <c r="L13">
-        <v>0.9542856323370162</v>
+        <v>0.9236621161301022</v>
       </c>
       <c r="M13">
-        <v>0.9833398704484927</v>
+        <v>0.9298858481439407</v>
       </c>
       <c r="N13">
-        <v>0.9689799389079801</v>
+        <v>0.9135915738483628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9214195316829121</v>
+        <v>0.8799450319181704</v>
       </c>
       <c r="D14">
-        <v>1.010962139027046</v>
+        <v>1.02182017945129</v>
       </c>
       <c r="E14">
-        <v>0.9395662556967639</v>
+        <v>0.9096965084858364</v>
       </c>
       <c r="F14">
-        <v>0.9692269427822289</v>
+        <v>0.9161376907904014</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036549485949845</v>
+        <v>1.040651861475413</v>
       </c>
       <c r="J14">
-        <v>0.9545116287547279</v>
+        <v>0.9153761051271699</v>
       </c>
       <c r="K14">
-        <v>1.025696946415128</v>
+        <v>1.036358451352171</v>
       </c>
       <c r="L14">
-        <v>0.9557441499687718</v>
+        <v>0.926568635901297</v>
       </c>
       <c r="M14">
-        <v>0.984771268719166</v>
+        <v>0.9328549748743464</v>
       </c>
       <c r="N14">
-        <v>0.97006096202262</v>
+        <v>0.9166760441915572</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9226460868477711</v>
+        <v>0.8821772227603822</v>
       </c>
       <c r="D15">
-        <v>1.011556423565909</v>
+        <v>1.022170898663741</v>
       </c>
       <c r="E15">
-        <v>0.9405775106644533</v>
+        <v>0.9116064213781063</v>
       </c>
       <c r="F15">
-        <v>0.9702152963014931</v>
+        <v>0.9180848033895914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036891616282017</v>
+        <v>1.040842674305988</v>
       </c>
       <c r="J15">
-        <v>0.9554595651416017</v>
+        <v>0.91724266411857</v>
       </c>
       <c r="K15">
-        <v>1.026192908870901</v>
+        <v>1.036616800501688</v>
       </c>
       <c r="L15">
-        <v>0.9566356016749779</v>
+        <v>0.9283302920476828</v>
       </c>
       <c r="M15">
-        <v>0.98564645734144</v>
+        <v>0.9346549081691331</v>
       </c>
       <c r="N15">
-        <v>0.9707215897014877</v>
+        <v>0.9185452539108223</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9296380875474274</v>
+        <v>0.89464466578851</v>
       </c>
       <c r="D16">
-        <v>1.014955176006505</v>
+        <v>1.024168129866378</v>
       </c>
       <c r="E16">
-        <v>0.9463485392668737</v>
+        <v>0.9222899347591335</v>
       </c>
       <c r="F16">
-        <v>0.9758605695478787</v>
+        <v>0.9289805578466003</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038839912815102</v>
+        <v>1.041913915697791</v>
       </c>
       <c r="J16">
-        <v>0.9608641685689182</v>
+        <v>0.9276733909337586</v>
       </c>
       <c r="K16">
-        <v>1.029023659375828</v>
+        <v>1.038078876187256</v>
       </c>
       <c r="L16">
-        <v>0.9617193459916685</v>
+        <v>0.9381785838465153</v>
       </c>
       <c r="M16">
-        <v>0.9906417840029816</v>
+        <v>0.9447216190556437</v>
       </c>
       <c r="N16">
-        <v>0.9744875088736957</v>
+        <v>0.9289907935545098</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9339016611004989</v>
+        <v>0.9020521615413627</v>
       </c>
       <c r="D17">
-        <v>1.017036508509326</v>
+        <v>1.025385321546441</v>
       </c>
       <c r="E17">
-        <v>0.9498728196658529</v>
+        <v>0.9286498997851547</v>
       </c>
       <c r="F17">
-        <v>0.9793119540162435</v>
+        <v>0.9354700400431549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040025802740506</v>
+        <v>1.042554179772669</v>
       </c>
       <c r="J17">
-        <v>0.9641603137067241</v>
+        <v>0.9338745838462553</v>
       </c>
       <c r="K17">
-        <v>1.030752277370503</v>
+        <v>1.03896242760508</v>
       </c>
       <c r="L17">
-        <v>0.964820807884803</v>
+        <v>0.9440363767697457</v>
       </c>
       <c r="M17">
-        <v>0.9936927108388703</v>
+        <v>0.9507127376042908</v>
       </c>
       <c r="N17">
-        <v>0.9767836812910342</v>
+        <v>0.9352007928722288</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9363471063240434</v>
+        <v>0.9062407874761957</v>
       </c>
       <c r="D18">
-        <v>1.018233177979681</v>
+        <v>1.026083560784932</v>
       </c>
       <c r="E18">
-        <v>0.9518959917703869</v>
+        <v>0.9322500870988237</v>
       </c>
       <c r="F18">
-        <v>0.9812945271170748</v>
+        <v>0.9391445255197245</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040705082823965</v>
+        <v>1.042917231997086</v>
       </c>
       <c r="J18">
-        <v>0.9660509798393296</v>
+        <v>0.937382144926623</v>
       </c>
       <c r="K18">
-        <v>1.031744433882622</v>
+        <v>1.039466750783692</v>
       </c>
       <c r="L18">
-        <v>0.9666001512093656</v>
+        <v>0.9473505832401271</v>
       </c>
       <c r="M18">
-        <v>0.9954441467332192</v>
+        <v>0.9541034442896296</v>
       </c>
       <c r="N18">
-        <v>0.9781005408985032</v>
+        <v>0.9387133350916534</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.9371741483344554</v>
+        <v>0.9076479842164109</v>
       </c>
       <c r="D19">
-        <v>1.018638351062536</v>
+        <v>1.026319744762491</v>
       </c>
       <c r="E19">
-        <v>0.9525805104644943</v>
+        <v>0.9334602090262957</v>
       </c>
       <c r="F19">
-        <v>0.981965507560818</v>
+        <v>0.9403797746762911</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040934646991495</v>
+        <v>1.043039343097542</v>
       </c>
       <c r="J19">
-        <v>0.9666904076433729</v>
+        <v>0.9385606848782335</v>
       </c>
       <c r="K19">
-        <v>1.032080073888824</v>
+        <v>1.039636927460984</v>
       </c>
       <c r="L19">
-        <v>0.9672019871700938</v>
+        <v>0.9484642933961506</v>
       </c>
       <c r="M19">
-        <v>0.9960367150648585</v>
+        <v>0.9552430295879666</v>
       </c>
       <c r="N19">
-        <v>0.978545866725075</v>
+        <v>0.9398935487051759</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9334485616188736</v>
+        <v>0.9012714046905529</v>
       </c>
       <c r="D20">
-        <v>1.016815013838322</v>
+        <v>1.025255964029103</v>
       </c>
       <c r="E20">
-        <v>0.9494981006103546</v>
+        <v>0.9279791345002143</v>
       </c>
       <c r="F20">
-        <v>0.9789448523879484</v>
+        <v>0.934785508982009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039899867019397</v>
+        <v>1.042486582230882</v>
       </c>
       <c r="J20">
-        <v>0.963810012121333</v>
+        <v>0.9332208561209003</v>
       </c>
       <c r="K20">
-        <v>1.030568497980502</v>
+        <v>1.038868794097144</v>
       </c>
       <c r="L20">
-        <v>0.9644911600510765</v>
+        <v>0.9434187548524947</v>
       </c>
       <c r="M20">
-        <v>0.9933683182948662</v>
+        <v>0.9500809433907599</v>
       </c>
       <c r="N20">
-        <v>0.9765396758184682</v>
+        <v>0.9345461367785205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.920830605730677</v>
+        <v>0.8788681164090815</v>
       </c>
       <c r="D21">
-        <v>1.01067700610457</v>
+        <v>1.021651726036915</v>
       </c>
       <c r="E21">
-        <v>0.9390808246958586</v>
+        <v>0.9087753974862218</v>
       </c>
       <c r="F21">
-        <v>0.968752600402918</v>
+        <v>0.9151987227636168</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036385182506816</v>
+        <v>1.040559921304702</v>
       </c>
       <c r="J21">
-        <v>0.9540564998830283</v>
+        <v>0.9144757034717798</v>
       </c>
       <c r="K21">
-        <v>1.025458883878074</v>
+        <v>1.036234191193834</v>
       </c>
       <c r="L21">
-        <v>0.9553161627345368</v>
+        <v>0.9257189144674149</v>
       </c>
       <c r="M21">
-        <v>0.9843511731020095</v>
+        <v>0.9319868795519656</v>
       </c>
       <c r="N21">
-        <v>0.969743767170313</v>
+        <v>0.9157743638625389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9124630774421134</v>
+        <v>0.8631734291728214</v>
       </c>
       <c r="D22">
-        <v>1.006641004026224</v>
+        <v>1.019252493586437</v>
       </c>
       <c r="E22">
-        <v>0.932192230440844</v>
+        <v>0.8953760195611616</v>
       </c>
       <c r="F22">
-        <v>0.962028311390291</v>
+        <v>0.901545998742077</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034049110190435</v>
+        <v>1.039229494412825</v>
       </c>
       <c r="J22">
-        <v>0.9475915675887144</v>
+        <v>0.9013628727524843</v>
       </c>
       <c r="K22">
-        <v>1.022082039410469</v>
+        <v>1.034451965555598</v>
       </c>
       <c r="L22">
-        <v>0.9492382882247581</v>
+        <v>0.9133500769818232</v>
       </c>
       <c r="M22">
-        <v>0.9783914866367805</v>
+        <v>0.9193573651061017</v>
       </c>
       <c r="N22">
-        <v>0.9652374878555259</v>
+        <v>0.9026429114195597</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9169433193044454</v>
+        <v>0.8716720050922271</v>
       </c>
       <c r="D23">
-        <v>1.008798431967601</v>
+        <v>1.020538673728302</v>
       </c>
       <c r="E23">
-        <v>0.9358786261447487</v>
+        <v>0.9026258845568337</v>
       </c>
       <c r="F23">
-        <v>0.9656251354006654</v>
+        <v>0.9089314206241782</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035300243246855</v>
+        <v>1.039947625861693</v>
       </c>
       <c r="J23">
-        <v>0.9510527047644107</v>
+        <v>0.9084611219584038</v>
       </c>
       <c r="K23">
-        <v>1.02388876073878</v>
+        <v>1.035410295091699</v>
       </c>
       <c r="L23">
-        <v>0.9524918534980673</v>
+        <v>0.9200441836079895</v>
       </c>
       <c r="M23">
-        <v>0.9815803360928201</v>
+        <v>0.9261909530239564</v>
       </c>
       <c r="N23">
-        <v>0.9676501616145794</v>
+        <v>0.9097512409535317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9336534251552988</v>
+        <v>0.9016245991711336</v>
       </c>
       <c r="D24">
-        <v>1.016915151107029</v>
+        <v>1.025314451104537</v>
       </c>
       <c r="E24">
-        <v>0.9496675199183418</v>
+        <v>0.9282825595397872</v>
       </c>
       <c r="F24">
-        <v>0.9791108238320582</v>
+        <v>0.9350951580236315</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039956810213138</v>
+        <v>1.042517158557031</v>
       </c>
       <c r="J24">
-        <v>0.9639683965036484</v>
+        <v>0.933516582660129</v>
       </c>
       <c r="K24">
-        <v>1.030651589585019</v>
+        <v>1.038911136906993</v>
       </c>
       <c r="L24">
-        <v>0.9646402050258137</v>
+        <v>0.9436981454980734</v>
       </c>
       <c r="M24">
-        <v>0.9935149838317535</v>
+        <v>0.9503667417860207</v>
       </c>
       <c r="N24">
-        <v>0.9766500004704158</v>
+        <v>0.9348422832833551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9514378989289349</v>
+        <v>0.9312534655106164</v>
       </c>
       <c r="D25">
-        <v>1.0256606024352</v>
+        <v>1.030400154725943</v>
       </c>
       <c r="E25">
-        <v>0.9644087033066243</v>
+        <v>0.9538031597997813</v>
       </c>
       <c r="F25">
-        <v>0.9935740271515973</v>
+        <v>0.9611556641054606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044877378205471</v>
+        <v>1.045094167440409</v>
       </c>
       <c r="J25">
-        <v>0.9777178755195826</v>
+        <v>0.9583386276334459</v>
       </c>
       <c r="K25">
-        <v>1.037873214707768</v>
+        <v>1.042544189730002</v>
       </c>
       <c r="L25">
-        <v>0.9775858553179051</v>
+        <v>0.9671636173807863</v>
       </c>
       <c r="M25">
-        <v>1.006272923920087</v>
+        <v>0.974388485429137</v>
       </c>
       <c r="N25">
-        <v>0.9862222785091075</v>
+        <v>0.9596995784076623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9520613945905765</v>
+        <v>0.9837559942110812</v>
       </c>
       <c r="D2">
-        <v>1.034176817698278</v>
+        <v>1.030151746366781</v>
       </c>
       <c r="E2">
-        <v>0.9717963635652765</v>
+        <v>1.004292126330029</v>
       </c>
       <c r="F2">
-        <v>0.979545655501019</v>
+        <v>1.020885438177087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046903805755952</v>
+        <v>1.047169063988232</v>
       </c>
       <c r="J2">
-        <v>0.9757769994775746</v>
+        <v>1.006433658783985</v>
       </c>
       <c r="K2">
-        <v>1.045179695518394</v>
+        <v>1.041206412724031</v>
       </c>
       <c r="L2">
-        <v>0.9836631242109916</v>
+        <v>1.015691987141288</v>
       </c>
       <c r="M2">
-        <v>0.9912975036010624</v>
+        <v>1.032061276166831</v>
       </c>
       <c r="N2">
-        <v>0.977162714740019</v>
+        <v>1.005130104956664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9659407127596108</v>
+        <v>0.990735475783201</v>
       </c>
       <c r="D3">
-        <v>1.036785179069903</v>
+        <v>1.033683069456211</v>
       </c>
       <c r="E3">
-        <v>0.9838255741199741</v>
+        <v>1.009915142641057</v>
       </c>
       <c r="F3">
-        <v>0.9918454116066456</v>
+        <v>1.026132230111815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048100795620043</v>
+        <v>1.048191552561815</v>
       </c>
       <c r="J3">
-        <v>0.9874049878478572</v>
+        <v>1.011481927362417</v>
       </c>
       <c r="K3">
-        <v>1.046968064988772</v>
+        <v>1.043902371984361</v>
       </c>
       <c r="L3">
-        <v>0.9946696802434225</v>
+        <v>1.020422710008266</v>
       </c>
       <c r="M3">
-        <v>1.002583706309632</v>
+        <v>1.036441315706398</v>
       </c>
       <c r="N3">
-        <v>0.9888072161875365</v>
+        <v>1.006919542687115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9744490481877905</v>
+        <v>0.9951291980125186</v>
       </c>
       <c r="D4">
-        <v>1.038417893646024</v>
+        <v>1.035910659880895</v>
       </c>
       <c r="E4">
-        <v>0.9912092311888229</v>
+        <v>1.013461908444001</v>
       </c>
       <c r="F4">
-        <v>0.9993965695850457</v>
+        <v>1.029441940703754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048827310168972</v>
+        <v>1.048823672956123</v>
       </c>
       <c r="J4">
-        <v>0.9945297289005813</v>
+        <v>1.014658325427506</v>
       </c>
       <c r="K4">
-        <v>1.048073746579002</v>
+        <v>1.045594164478707</v>
       </c>
       <c r="L4">
-        <v>1.001414923870074</v>
+        <v>1.023400530406064</v>
       </c>
       <c r="M4">
-        <v>1.009502282940287</v>
+        <v>1.039197553103582</v>
       </c>
       <c r="N4">
-        <v>0.9959420751897746</v>
+        <v>1.008043792182194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9779244386181918</v>
+        <v>0.9969485481265241</v>
       </c>
       <c r="D5">
-        <v>1.039091943975934</v>
+        <v>1.036833922877227</v>
       </c>
       <c r="E5">
-        <v>0.9942271151609635</v>
+        <v>1.014932096208601</v>
       </c>
       <c r="F5">
-        <v>1.002483134807337</v>
+        <v>1.030813855814408</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049121983978518</v>
+        <v>1.049082551587782</v>
       </c>
       <c r="J5">
-        <v>0.9974389166996933</v>
+        <v>1.015973150456683</v>
       </c>
       <c r="K5">
-        <v>1.048527028750199</v>
+        <v>1.046293246045576</v>
       </c>
       <c r="L5">
-        <v>1.004169353418497</v>
+        <v>1.024633416238722</v>
       </c>
       <c r="M5">
-        <v>1.012327832289658</v>
+        <v>1.040338437429982</v>
       </c>
       <c r="N5">
-        <v>0.9988553943692497</v>
+        <v>1.008508736641676</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9785023204767049</v>
+        <v>0.9972524393582957</v>
       </c>
       <c r="D6">
-        <v>1.039204418251188</v>
+        <v>1.036988182483658</v>
       </c>
       <c r="E6">
-        <v>0.9947290247897338</v>
+        <v>1.015177753182346</v>
       </c>
       <c r="F6">
-        <v>1.002996476513083</v>
+        <v>1.031043089656899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049170849826468</v>
+        <v>1.04912562135773</v>
       </c>
       <c r="J6">
-        <v>0.9979225841351731</v>
+        <v>1.01619274049613</v>
       </c>
       <c r="K6">
-        <v>1.048602480285618</v>
+        <v>1.046409925371046</v>
       </c>
       <c r="L6">
-        <v>1.004627300422217</v>
+        <v>1.024839335825235</v>
       </c>
       <c r="M6">
-        <v>1.012797620039738</v>
+        <v>1.040528973675874</v>
       </c>
       <c r="N6">
-        <v>0.9993397486679652</v>
+        <v>1.008586361956267</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.974495871519267</v>
+        <v>0.9951536154174515</v>
       </c>
       <c r="D7">
-        <v>1.03842694782235</v>
+        <v>1.035923047823504</v>
       </c>
       <c r="E7">
-        <v>0.9912498835697089</v>
+        <v>1.013481633808582</v>
       </c>
       <c r="F7">
-        <v>0.9994381464180757</v>
+        <v>1.029460347681751</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048831288973291</v>
+        <v>1.04882715882831</v>
       </c>
       <c r="J7">
-        <v>0.9945689283046223</v>
+        <v>1.014675973527694</v>
       </c>
       <c r="K7">
-        <v>1.048079847779708</v>
+        <v>1.045603552786703</v>
       </c>
       <c r="L7">
-        <v>1.001452037345844</v>
+        <v>1.023417077704428</v>
       </c>
       <c r="M7">
-        <v>1.009540353504132</v>
+        <v>1.03921286670383</v>
       </c>
       <c r="N7">
-        <v>0.9959813302614655</v>
+        <v>1.008050034549607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9568574714895983</v>
+        <v>0.9861410718424055</v>
       </c>
       <c r="D8">
-        <v>1.035070278886315</v>
+        <v>1.031357391254664</v>
       </c>
       <c r="E8">
-        <v>0.975950829538179</v>
+        <v>1.006212115283455</v>
       </c>
       <c r="F8">
-        <v>0.9837931660040325</v>
+        <v>1.022676867407974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047318764811652</v>
+        <v>1.047520849966318</v>
       </c>
       <c r="J8">
-        <v>0.9797957175078047</v>
+        <v>1.008159075329801</v>
       </c>
       <c r="K8">
-        <v>1.045795265352041</v>
+        <v>1.042128720265008</v>
       </c>
       <c r="L8">
-        <v>0.9874667266727808</v>
+        <v>1.017308591927284</v>
       </c>
       <c r="M8">
-        <v>0.9951972385158238</v>
+        <v>1.033558183377848</v>
       </c>
       <c r="N8">
-        <v>0.9811871398108054</v>
+        <v>1.005742045586754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9214965366919957</v>
+        <v>0.969245379130437</v>
       </c>
       <c r="D9">
-        <v>1.028686722617157</v>
+        <v>1.022846556494264</v>
       </c>
       <c r="E9">
-        <v>0.945385146844535</v>
+        <v>0.9926468061960666</v>
       </c>
       <c r="F9">
-        <v>0.9525562135637573</v>
+        <v>1.010024097481983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044243892231636</v>
+        <v>1.044983358769352</v>
       </c>
       <c r="J9">
-        <v>0.9501622772231091</v>
+        <v>0.9959329446909988</v>
       </c>
       <c r="K9">
-        <v>1.041330912602123</v>
+        <v>1.03557952863444</v>
       </c>
       <c r="L9">
-        <v>0.9594311559845755</v>
+        <v>1.005860321165668</v>
       </c>
       <c r="M9">
-        <v>0.9664689808449746</v>
+        <v>1.0229566076001</v>
       </c>
       <c r="N9">
-        <v>0.9515116166419025</v>
+        <v>1.001399604438972</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8937885441639076</v>
+        <v>0.9571802780408585</v>
       </c>
       <c r="D10">
-        <v>1.024028913313837</v>
+        <v>1.016819769785108</v>
       </c>
       <c r="E10">
-        <v>0.9215554632633551</v>
+        <v>0.983012823987388</v>
       </c>
       <c r="F10">
-        <v>0.9282312769886595</v>
+        <v>1.001047461864341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041840082883407</v>
+        <v>1.043118281029999</v>
       </c>
       <c r="J10">
-        <v>0.9269568562652931</v>
+        <v>0.9872021894353198</v>
       </c>
       <c r="K10">
-        <v>1.037977460934697</v>
+        <v>1.030891836703912</v>
       </c>
       <c r="L10">
-        <v>0.9375018614922659</v>
+        <v>0.9976957135189912</v>
       </c>
       <c r="M10">
-        <v>0.9440296540215003</v>
+        <v>1.015397829783051</v>
       </c>
       <c r="N10">
-        <v>0.9282732413246273</v>
+        <v>0.9982916879066805</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8803733043143582</v>
+        <v>0.9517350258961403</v>
       </c>
       <c r="D11">
-        <v>1.02188730653678</v>
+        <v>1.014116238222719</v>
       </c>
       <c r="E11">
-        <v>0.9100628783584497</v>
+        <v>0.9786799469065769</v>
       </c>
       <c r="F11">
-        <v>0.9165111784432992</v>
+        <v>0.9970138052808404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040688446015993</v>
+        <v>1.042265704457202</v>
       </c>
       <c r="J11">
-        <v>0.9157342018407194</v>
+        <v>0.9832632769910222</v>
       </c>
       <c r="K11">
-        <v>1.036407936531698</v>
+        <v>1.028776764173574</v>
       </c>
       <c r="L11">
-        <v>0.9269065906129008</v>
+        <v>0.9940154483337791</v>
       </c>
       <c r="M11">
-        <v>0.9332002534435562</v>
+        <v>1.011992257442974</v>
       </c>
       <c r="N11">
-        <v>0.9170346494435144</v>
+        <v>0.9968882694202124</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8751206405517713</v>
+        <v>0.9496762030202335</v>
       </c>
       <c r="D12">
-        <v>1.021069353513906</v>
+        <v>1.013096940528684</v>
       </c>
       <c r="E12">
-        <v>0.9055717501717701</v>
+        <v>0.9770442312501401</v>
       </c>
       <c r="F12">
-        <v>0.9119333988163816</v>
+        <v>0.9954917173098302</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040240601624687</v>
+        <v>1.041941889015193</v>
       </c>
       <c r="J12">
-        <v>0.911343072853487</v>
+        <v>0.9817743591756344</v>
       </c>
       <c r="K12">
-        <v>1.035803731945233</v>
+        <v>1.027977452960058</v>
       </c>
       <c r="L12">
-        <v>0.9227630031223462</v>
+        <v>0.9926248504619998</v>
       </c>
       <c r="M12">
-        <v>0.928967507546798</v>
+        <v>1.010705801599725</v>
       </c>
       <c r="N12">
-        <v>0.9126372845494507</v>
+        <v>0.9963576184943971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8762607323527954</v>
+        <v>0.9501195187051317</v>
       </c>
       <c r="D13">
-        <v>1.021245900126488</v>
+        <v>1.013316282920478</v>
       </c>
       <c r="E13">
-        <v>0.9065461192140709</v>
+        <v>0.977396323302629</v>
       </c>
       <c r="F13">
-        <v>0.912926455054038</v>
+        <v>0.9958193183124268</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04033764488491</v>
+        <v>1.042011677634507</v>
       </c>
       <c r="J13">
-        <v>0.9122960088739469</v>
+        <v>0.9820949411865808</v>
       </c>
       <c r="K13">
-        <v>1.035934369119512</v>
+        <v>1.028149541958511</v>
       </c>
       <c r="L13">
-        <v>0.9236621161301022</v>
+        <v>0.9929242370166791</v>
       </c>
       <c r="M13">
-        <v>0.9298858481439407</v>
+        <v>1.010982749509668</v>
       </c>
       <c r="N13">
-        <v>0.9135915738483628</v>
+        <v>0.9964718804809084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8799450319181704</v>
+        <v>0.9515656004471392</v>
       </c>
       <c r="D14">
-        <v>1.02182017945129</v>
+        <v>1.014032296550381</v>
       </c>
       <c r="E14">
-        <v>0.9096965084858364</v>
+        <v>0.9785452872603997</v>
       </c>
       <c r="F14">
-        <v>0.9161376907904014</v>
+        <v>0.996888485633446</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040651861475413</v>
+        <v>1.042239085533737</v>
       </c>
       <c r="J14">
-        <v>0.9153761051271699</v>
+        <v>0.9831407420962704</v>
       </c>
       <c r="K14">
-        <v>1.036358451352171</v>
+        <v>1.028710977279847</v>
       </c>
       <c r="L14">
-        <v>0.926568635901297</v>
+        <v>0.9939009933965309</v>
       </c>
       <c r="M14">
-        <v>0.9328549748743464</v>
+        <v>1.011886366327655</v>
       </c>
       <c r="N14">
-        <v>0.9166760441915572</v>
+        <v>0.9968446008756091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8821772227603822</v>
+        <v>0.9524516840526414</v>
       </c>
       <c r="D15">
-        <v>1.022170898663741</v>
+        <v>1.014471426043894</v>
       </c>
       <c r="E15">
-        <v>0.9116064213781063</v>
+        <v>0.9792496522160677</v>
       </c>
       <c r="F15">
-        <v>0.9180848033895914</v>
+        <v>0.9975440237978873</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040842674305988</v>
+        <v>1.042378242338237</v>
       </c>
       <c r="J15">
-        <v>0.91724266411857</v>
+        <v>0.9837816070367673</v>
       </c>
       <c r="K15">
-        <v>1.036616800501688</v>
+        <v>1.029055055858132</v>
       </c>
       <c r="L15">
-        <v>0.9283302920476828</v>
+        <v>0.994499622469088</v>
       </c>
       <c r="M15">
-        <v>0.9346549081691331</v>
+        <v>1.012440219222363</v>
       </c>
       <c r="N15">
-        <v>0.9185452539108223</v>
+        <v>0.9970729839070752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.89464466578851</v>
+        <v>0.95753675661737</v>
       </c>
       <c r="D16">
-        <v>1.024168129866378</v>
+        <v>1.016997134879004</v>
       </c>
       <c r="E16">
-        <v>0.9222899347591335</v>
+        <v>0.983296814037984</v>
       </c>
       <c r="F16">
-        <v>0.9289805578466003</v>
+        <v>1.001311925039779</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041913915697791</v>
+        <v>1.043173885125044</v>
       </c>
       <c r="J16">
-        <v>0.9276733909337586</v>
+        <v>0.9874600963735926</v>
       </c>
       <c r="K16">
-        <v>1.038078876187256</v>
+        <v>1.031030338639502</v>
       </c>
       <c r="L16">
-        <v>0.9381785838465153</v>
+        <v>0.9979367573564568</v>
       </c>
       <c r="M16">
-        <v>0.9447216190556437</v>
+        <v>1.015620924381415</v>
       </c>
       <c r="N16">
-        <v>0.9289907935545098</v>
+        <v>0.9983835556770804</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9020521615413627</v>
+        <v>0.9606653087622413</v>
       </c>
       <c r="D17">
-        <v>1.025385321546441</v>
+        <v>1.018555648944435</v>
       </c>
       <c r="E17">
-        <v>0.9286498997851547</v>
+        <v>0.985790927068846</v>
       </c>
       <c r="F17">
-        <v>0.9354700400431549</v>
+        <v>1.003634964989576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042554179772669</v>
+        <v>1.043660677080122</v>
       </c>
       <c r="J17">
-        <v>0.9338745838462553</v>
+        <v>0.9897237396484927</v>
       </c>
       <c r="K17">
-        <v>1.03896242760508</v>
+        <v>1.032245968869717</v>
       </c>
       <c r="L17">
-        <v>0.9440363767697457</v>
+        <v>1.000052765653996</v>
       </c>
       <c r="M17">
-        <v>0.9507127376042908</v>
+        <v>1.017579558874027</v>
       </c>
       <c r="N17">
-        <v>0.9352007928722288</v>
+        <v>0.999189737365456</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9062407874761957</v>
+        <v>0.9624690404253466</v>
       </c>
       <c r="D18">
-        <v>1.026083560784932</v>
+        <v>1.019455716060765</v>
       </c>
       <c r="E18">
-        <v>0.9322500870988237</v>
+        <v>0.9872302890564881</v>
       </c>
       <c r="F18">
-        <v>0.9391445255197245</v>
+        <v>1.004975928505345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042917231997086</v>
+        <v>1.043940301363322</v>
       </c>
       <c r="J18">
-        <v>0.937382144926623</v>
+        <v>0.9910289464713571</v>
       </c>
       <c r="K18">
-        <v>1.039466750783692</v>
+        <v>1.032946861550405</v>
       </c>
       <c r="L18">
-        <v>0.9473505832401271</v>
+        <v>1.001273146035767</v>
       </c>
       <c r="M18">
-        <v>0.9541034442896296</v>
+        <v>1.018709320179715</v>
       </c>
       <c r="N18">
-        <v>0.9387133350916534</v>
+        <v>0.9996544561776304</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9076479842164109</v>
+        <v>0.9630805730885941</v>
       </c>
       <c r="D19">
-        <v>1.026319744762491</v>
+        <v>1.019761119225986</v>
       </c>
       <c r="E19">
-        <v>0.9334602090262957</v>
+        <v>0.987718518859781</v>
       </c>
       <c r="F19">
-        <v>0.9403797746762911</v>
+        <v>1.005430833713995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043039343097542</v>
+        <v>1.044034925046716</v>
       </c>
       <c r="J19">
-        <v>0.9385606848782335</v>
+        <v>0.9914714783198535</v>
       </c>
       <c r="K19">
-        <v>1.039636927460984</v>
+        <v>1.033184487909698</v>
       </c>
       <c r="L19">
-        <v>0.9484642933961506</v>
+        <v>1.001686966299811</v>
       </c>
       <c r="M19">
-        <v>0.9552430295879666</v>
+        <v>1.019092433767944</v>
       </c>
       <c r="N19">
-        <v>0.9398935487051759</v>
+        <v>0.999811997917338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9012714046905529</v>
+        <v>0.960331847803098</v>
       </c>
       <c r="D20">
-        <v>1.025255964029103</v>
+        <v>1.018389371518796</v>
       </c>
       <c r="E20">
-        <v>0.9279791345002143</v>
+        <v>0.9855249405933774</v>
       </c>
       <c r="F20">
-        <v>0.934785508982009</v>
+        <v>1.00338718772886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042486582230882</v>
+        <v>1.043608897603603</v>
       </c>
       <c r="J20">
-        <v>0.9332208561209003</v>
+        <v>0.9894824518289732</v>
       </c>
       <c r="K20">
-        <v>1.038868794097144</v>
+        <v>1.032116393641796</v>
       </c>
       <c r="L20">
-        <v>0.9434187548524947</v>
+        <v>0.9998271831088649</v>
       </c>
       <c r="M20">
-        <v>0.9500809433907599</v>
+        <v>1.017370737862502</v>
       </c>
       <c r="N20">
-        <v>0.9345461367785205</v>
+        <v>0.9991038167300782</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8788681164090815</v>
+        <v>0.9511407911518891</v>
       </c>
       <c r="D21">
-        <v>1.021651726036915</v>
+        <v>1.013821873232311</v>
       </c>
       <c r="E21">
-        <v>0.9087753974862218</v>
+        <v>0.978207689556204</v>
       </c>
       <c r="F21">
-        <v>0.9151987227636168</v>
+        <v>0.9965743149373382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040559921304702</v>
+        <v>1.042172319612606</v>
       </c>
       <c r="J21">
-        <v>0.9144757034717798</v>
+        <v>0.9828335103356692</v>
       </c>
       <c r="K21">
-        <v>1.036234191193834</v>
+        <v>1.028546033648805</v>
       </c>
       <c r="L21">
-        <v>0.9257189144674149</v>
+        <v>0.9936140296077107</v>
       </c>
       <c r="M21">
-        <v>0.9319868795519656</v>
+        <v>1.011620879918475</v>
       </c>
       <c r="N21">
-        <v>0.9157743638625389</v>
+        <v>0.9967351083498789</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8631734291728214</v>
+        <v>0.9451507121868512</v>
       </c>
       <c r="D22">
-        <v>1.019252493586437</v>
+        <v>1.010862256808593</v>
       </c>
       <c r="E22">
-        <v>0.8953760195611616</v>
+        <v>0.9734537203192601</v>
       </c>
       <c r="F22">
-        <v>0.901545998742077</v>
+        <v>0.9921520140104546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039229494412825</v>
+        <v>1.041227614513954</v>
       </c>
       <c r="J22">
-        <v>0.9013628727524843</v>
+        <v>0.9785024211609812</v>
       </c>
       <c r="K22">
-        <v>1.034451965555598</v>
+        <v>1.026221558379785</v>
       </c>
       <c r="L22">
-        <v>0.9133500769818232</v>
+        <v>0.9895700672638863</v>
       </c>
       <c r="M22">
-        <v>0.9193573651061017</v>
+        <v>1.00788056085277</v>
       </c>
       <c r="N22">
-        <v>0.9026429114195597</v>
+        <v>0.9951912532788816</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8716720050922271</v>
+        <v>0.9483473013648089</v>
       </c>
       <c r="D23">
-        <v>1.020538673728302</v>
+        <v>1.012439888930552</v>
       </c>
       <c r="E23">
-        <v>0.9026258845568337</v>
+        <v>0.975989175708654</v>
       </c>
       <c r="F23">
-        <v>0.9089314206241782</v>
+        <v>0.9945101586976126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039947625861693</v>
+        <v>1.041732487203094</v>
       </c>
       <c r="J23">
-        <v>0.9084611219584038</v>
+        <v>0.9808134346076108</v>
       </c>
       <c r="K23">
-        <v>1.035410295091699</v>
+        <v>1.027461673009584</v>
       </c>
       <c r="L23">
-        <v>0.9200441836079895</v>
+        <v>0.991727544102022</v>
       </c>
       <c r="M23">
-        <v>0.9261909530239564</v>
+        <v>1.009875807074693</v>
       </c>
       <c r="N23">
-        <v>0.9097512409535317</v>
+        <v>0.9960151053990057</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9016245991711336</v>
+        <v>0.9604825894385696</v>
       </c>
       <c r="D24">
-        <v>1.025314451104537</v>
+        <v>1.018464532833003</v>
       </c>
       <c r="E24">
-        <v>0.9282825595397872</v>
+        <v>0.9856451759077102</v>
       </c>
       <c r="F24">
-        <v>0.9350951580236315</v>
+        <v>1.003499190822853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042517158557031</v>
+        <v>1.043632307821878</v>
       </c>
       <c r="J24">
-        <v>0.933516582660129</v>
+        <v>0.9895915260394191</v>
       </c>
       <c r="K24">
-        <v>1.038911136906993</v>
+        <v>1.032174968274544</v>
       </c>
       <c r="L24">
-        <v>0.9436981454980734</v>
+        <v>0.9999291568222853</v>
       </c>
       <c r="M24">
-        <v>0.9503667417860207</v>
+        <v>1.017465134149835</v>
       </c>
       <c r="N24">
-        <v>0.9348422832833551</v>
+        <v>0.9991426575532356</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9312534655106164</v>
+        <v>0.9737450439262789</v>
       </c>
       <c r="D25">
-        <v>1.030400154725943</v>
+        <v>1.025105854734674</v>
       </c>
       <c r="E25">
-        <v>0.9538031597997813</v>
+        <v>0.996251274477708</v>
       </c>
       <c r="F25">
-        <v>0.9611556641054606</v>
+        <v>1.013384924562056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045094167440409</v>
+        <v>1.04566873575117</v>
       </c>
       <c r="J25">
-        <v>0.9583386276334459</v>
+        <v>0.9991894905942993</v>
       </c>
       <c r="K25">
-        <v>1.042544189730002</v>
+        <v>1.037326546314827</v>
       </c>
       <c r="L25">
-        <v>0.9671636173807863</v>
+        <v>1.008908064665518</v>
       </c>
       <c r="M25">
-        <v>0.974388485429137</v>
+        <v>1.025778950335788</v>
       </c>
       <c r="N25">
-        <v>0.9596995784076623</v>
+        <v>1.002557556683597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9837559942110812</v>
+        <v>1.037708335920549</v>
       </c>
       <c r="D2">
-        <v>1.030151746366781</v>
+        <v>1.046290747192389</v>
       </c>
       <c r="E2">
-        <v>1.004292126330029</v>
+        <v>1.046002545876006</v>
       </c>
       <c r="F2">
-        <v>1.020885438177087</v>
+        <v>1.055882509905798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047169063988232</v>
+        <v>1.035704922036065</v>
       </c>
       <c r="J2">
-        <v>1.006433658783985</v>
+        <v>1.042809738020734</v>
       </c>
       <c r="K2">
-        <v>1.041206412724031</v>
+        <v>1.049056596035517</v>
       </c>
       <c r="L2">
-        <v>1.015691987141288</v>
+        <v>1.048769202523492</v>
       </c>
       <c r="M2">
-        <v>1.032061276166831</v>
+        <v>1.058621746425689</v>
       </c>
       <c r="N2">
-        <v>1.005130104956664</v>
+        <v>1.018040134670662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.990735475783201</v>
+        <v>1.039145625159971</v>
       </c>
       <c r="D3">
-        <v>1.033683069456211</v>
+        <v>1.047009176182324</v>
       </c>
       <c r="E3">
-        <v>1.009915142641057</v>
+        <v>1.047206049672822</v>
       </c>
       <c r="F3">
-        <v>1.026132230111815</v>
+        <v>1.056995609374209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048191552561815</v>
+        <v>1.035837607428554</v>
       </c>
       <c r="J3">
-        <v>1.011481927362417</v>
+        <v>1.043889069687797</v>
       </c>
       <c r="K3">
-        <v>1.043902371984361</v>
+        <v>1.049586880081442</v>
       </c>
       <c r="L3">
-        <v>1.020422710008266</v>
+        <v>1.049783241777533</v>
       </c>
       <c r="M3">
-        <v>1.036441315706398</v>
+        <v>1.059547611738855</v>
       </c>
       <c r="N3">
-        <v>1.006919542687115</v>
+        <v>1.018411740276893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9951291980125186</v>
+        <v>1.040075199399961</v>
       </c>
       <c r="D4">
-        <v>1.035910659880895</v>
+        <v>1.047473187592297</v>
       </c>
       <c r="E4">
-        <v>1.013461908444001</v>
+        <v>1.047984533216033</v>
       </c>
       <c r="F4">
-        <v>1.029441940703754</v>
+        <v>1.057715312902836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048823672956123</v>
+        <v>1.035921775160271</v>
       </c>
       <c r="J4">
-        <v>1.014658325427506</v>
+        <v>1.044586621511811</v>
       </c>
       <c r="K4">
-        <v>1.045594164478707</v>
+        <v>1.049928479879552</v>
       </c>
       <c r="L4">
-        <v>1.023400530406064</v>
+        <v>1.050438563337255</v>
       </c>
       <c r="M4">
-        <v>1.039197553103582</v>
+        <v>1.060145574356796</v>
       </c>
       <c r="N4">
-        <v>1.008043792182194</v>
+        <v>1.018651557742308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9969485481265241</v>
+        <v>1.040465890060417</v>
       </c>
       <c r="D5">
-        <v>1.036833922877227</v>
+        <v>1.047668052115803</v>
       </c>
       <c r="E5">
-        <v>1.014932096208601</v>
+        <v>1.048311747387946</v>
       </c>
       <c r="F5">
-        <v>1.030813855814408</v>
+        <v>1.05801774740347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049082551587782</v>
+        <v>1.035956755007466</v>
       </c>
       <c r="J5">
-        <v>1.015973150456683</v>
+        <v>1.044879672498627</v>
       </c>
       <c r="K5">
-        <v>1.046293246045576</v>
+        <v>1.050071722607669</v>
       </c>
       <c r="L5">
-        <v>1.024633416238722</v>
+        <v>1.050713864519954</v>
       </c>
       <c r="M5">
-        <v>1.040338437429982</v>
+        <v>1.06039668809241</v>
       </c>
       <c r="N5">
-        <v>1.008508736641676</v>
+        <v>1.018752225650712</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9972524393582957</v>
+        <v>1.040531482881862</v>
       </c>
       <c r="D6">
-        <v>1.036988182483658</v>
+        <v>1.047700758655648</v>
       </c>
       <c r="E6">
-        <v>1.015177753182346</v>
+        <v>1.048366684633723</v>
       </c>
       <c r="F6">
-        <v>1.031043089656899</v>
+        <v>1.058068519985682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04912562135773</v>
+        <v>1.035962604570767</v>
       </c>
       <c r="J6">
-        <v>1.01619274049613</v>
+        <v>1.044928865425171</v>
       </c>
       <c r="K6">
-        <v>1.046409925371046</v>
+        <v>1.050095752248946</v>
       </c>
       <c r="L6">
-        <v>1.024839335825235</v>
+        <v>1.050760077382194</v>
       </c>
       <c r="M6">
-        <v>1.040528973675874</v>
+        <v>1.060438835426554</v>
       </c>
       <c r="N6">
-        <v>1.008586361956267</v>
+        <v>1.018769119387714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9951536154174515</v>
+        <v>1.04008042022376</v>
       </c>
       <c r="D7">
-        <v>1.035923047823504</v>
+        <v>1.047475792190512</v>
       </c>
       <c r="E7">
-        <v>1.013481633808582</v>
+        <v>1.047988905701239</v>
       </c>
       <c r="F7">
-        <v>1.029460347681751</v>
+        <v>1.05771935455143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04882715882831</v>
+        <v>1.03592224415123</v>
       </c>
       <c r="J7">
-        <v>1.014675973527694</v>
+        <v>1.044590538054556</v>
       </c>
       <c r="K7">
-        <v>1.045603552786703</v>
+        <v>1.049930395332981</v>
       </c>
       <c r="L7">
-        <v>1.023417077704428</v>
+        <v>1.050442242692047</v>
       </c>
       <c r="M7">
-        <v>1.03921286670383</v>
+        <v>1.060148930808583</v>
       </c>
       <c r="N7">
-        <v>1.008050034549607</v>
+        <v>1.018652903465361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9861410718424055</v>
+        <v>1.038194170266145</v>
       </c>
       <c r="D8">
-        <v>1.031357391254664</v>
+        <v>1.046533721779266</v>
       </c>
       <c r="E8">
-        <v>1.006212115283455</v>
+        <v>1.046409331987411</v>
       </c>
       <c r="F8">
-        <v>1.022676867407974</v>
+        <v>1.056258801344061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047520849966318</v>
+        <v>1.035750113311614</v>
       </c>
       <c r="J8">
-        <v>1.008159075329801</v>
+        <v>1.0431746807101</v>
       </c>
       <c r="K8">
-        <v>1.042128720265008</v>
+        <v>1.049236124890375</v>
       </c>
       <c r="L8">
-        <v>1.017308591927284</v>
+        <v>1.049112075199224</v>
       </c>
       <c r="M8">
-        <v>1.033558183377848</v>
+        <v>1.058934882844915</v>
       </c>
       <c r="N8">
-        <v>1.005742045586754</v>
+        <v>1.01816585283361</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.969245379130437</v>
+        <v>1.034866705822902</v>
       </c>
       <c r="D9">
-        <v>1.022846556494264</v>
+        <v>1.044867081584931</v>
       </c>
       <c r="E9">
-        <v>0.9926468061960666</v>
+        <v>1.043623771298484</v>
       </c>
       <c r="F9">
-        <v>1.010024097481983</v>
+        <v>1.053680849799657</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044983358769352</v>
+        <v>1.035433864409756</v>
       </c>
       <c r="J9">
-        <v>0.9959329446909988</v>
+        <v>1.040673121349413</v>
       </c>
       <c r="K9">
-        <v>1.03557952863444</v>
+        <v>1.048001002553345</v>
       </c>
       <c r="L9">
-        <v>1.005860321165668</v>
+        <v>1.046761678286052</v>
       </c>
       <c r="M9">
-        <v>1.0229566076001</v>
+        <v>1.056786808968533</v>
       </c>
       <c r="N9">
-        <v>1.001399604438972</v>
+        <v>1.017302691691863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9571802780408585</v>
+        <v>1.032645632665048</v>
       </c>
       <c r="D10">
-        <v>1.016819769785108</v>
+        <v>1.04375154724516</v>
       </c>
       <c r="E10">
-        <v>0.983012823987388</v>
+        <v>1.041765102734796</v>
       </c>
       <c r="F10">
-        <v>1.001047461864341</v>
+        <v>1.051959220382117</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043118281029999</v>
+        <v>1.035214335586556</v>
       </c>
       <c r="J10">
-        <v>0.9872021894353198</v>
+        <v>1.039000749555696</v>
       </c>
       <c r="K10">
-        <v>1.030891836703912</v>
+        <v>1.04716967716346</v>
       </c>
       <c r="L10">
-        <v>0.9976957135189912</v>
+        <v>1.045190228947433</v>
       </c>
       <c r="M10">
-        <v>1.015397829783051</v>
+        <v>1.055348751113437</v>
       </c>
       <c r="N10">
-        <v>0.9982916879066805</v>
+        <v>1.016723884652698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9517350258961403</v>
+        <v>1.03168315884005</v>
       </c>
       <c r="D11">
-        <v>1.014116238222719</v>
+        <v>1.043267452112489</v>
       </c>
       <c r="E11">
-        <v>0.9786799469065769</v>
+        <v>1.040959851217245</v>
       </c>
       <c r="F11">
-        <v>0.9970138052808404</v>
+        <v>1.05121299689772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042265704457202</v>
+        <v>1.035117213794324</v>
       </c>
       <c r="J11">
-        <v>0.9832632769910222</v>
+        <v>1.038275441834503</v>
       </c>
       <c r="K11">
-        <v>1.028776764173574</v>
+        <v>1.046807821461601</v>
       </c>
       <c r="L11">
-        <v>0.9940154483337791</v>
+        <v>1.044508664643433</v>
       </c>
       <c r="M11">
-        <v>1.011992257442974</v>
+        <v>1.054724604635534</v>
       </c>
       <c r="N11">
-        <v>0.9968882694202124</v>
+        <v>1.016472442440848</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9496762030202335</v>
+        <v>1.031325536830371</v>
       </c>
       <c r="D12">
-        <v>1.013096940528684</v>
+        <v>1.043087477767421</v>
       </c>
       <c r="E12">
-        <v>0.9770442312501401</v>
+        <v>1.040660675829982</v>
       </c>
       <c r="F12">
-        <v>0.9954917173098302</v>
+        <v>1.050935701531528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041941889015193</v>
+        <v>1.035080828155254</v>
       </c>
       <c r="J12">
-        <v>0.9817743591756344</v>
+        <v>1.038005852006006</v>
       </c>
       <c r="K12">
-        <v>1.027977452960058</v>
+        <v>1.046673128084924</v>
       </c>
       <c r="L12">
-        <v>0.9926248504619998</v>
+        <v>1.044255330250838</v>
       </c>
       <c r="M12">
-        <v>1.010705801599725</v>
+        <v>1.054492547422187</v>
       </c>
       <c r="N12">
-        <v>0.9963576184943971</v>
+        <v>1.016378921928486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9501195187051317</v>
+        <v>1.031402253328812</v>
       </c>
       <c r="D13">
-        <v>1.013316282920478</v>
+        <v>1.043126090115818</v>
       </c>
       <c r="E13">
-        <v>0.977396323302629</v>
+        <v>1.040724853152796</v>
       </c>
       <c r="F13">
-        <v>0.9958193183124268</v>
+        <v>1.050995187562552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042011677634507</v>
+        <v>1.035088647041428</v>
       </c>
       <c r="J13">
-        <v>0.9820949411865808</v>
+        <v>1.038063688070083</v>
       </c>
       <c r="K13">
-        <v>1.028149541958511</v>
+        <v>1.046702033136365</v>
       </c>
       <c r="L13">
-        <v>0.9929242370166791</v>
+        <v>1.044309679132853</v>
       </c>
       <c r="M13">
-        <v>1.010982749509668</v>
+        <v>1.054542334540423</v>
       </c>
       <c r="N13">
-        <v>0.9964718804809084</v>
+        <v>1.016398988012654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9515656004471392</v>
+        <v>1.03165360010219</v>
       </c>
       <c r="D14">
-        <v>1.014032296550381</v>
+        <v>1.04325257864039</v>
       </c>
       <c r="E14">
-        <v>0.9785452872603997</v>
+        <v>1.040935122717625</v>
       </c>
       <c r="F14">
-        <v>0.996888485633446</v>
+        <v>1.05119007793183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042239085533737</v>
+        <v>1.035114212476482</v>
       </c>
       <c r="J14">
-        <v>0.9831407420962704</v>
+        <v>1.038253161114654</v>
       </c>
       <c r="K14">
-        <v>1.028710977279847</v>
+        <v>1.046796693463613</v>
       </c>
       <c r="L14">
-        <v>0.9939009933965309</v>
+        <v>1.044487727452552</v>
       </c>
       <c r="M14">
-        <v>1.011886366327655</v>
+        <v>1.054705427244666</v>
       </c>
       <c r="N14">
-        <v>0.9968446008756091</v>
+        <v>1.016464714536364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9524516840526414</v>
+        <v>1.031808447542884</v>
       </c>
       <c r="D15">
-        <v>1.014471426043894</v>
+        <v>1.043330491200131</v>
       </c>
       <c r="E15">
-        <v>0.9792496522160677</v>
+        <v>1.04106466746765</v>
       </c>
       <c r="F15">
-        <v>0.9975440237978873</v>
+        <v>1.051310141039272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042378242338237</v>
+        <v>1.03512992306543</v>
       </c>
       <c r="J15">
-        <v>0.9837816070367673</v>
+        <v>1.038369877970953</v>
       </c>
       <c r="K15">
-        <v>1.029055055858132</v>
+        <v>1.046854979155107</v>
       </c>
       <c r="L15">
-        <v>0.994499622469088</v>
+        <v>1.044597406130798</v>
       </c>
       <c r="M15">
-        <v>1.012440219222363</v>
+        <v>1.054805884630411</v>
       </c>
       <c r="N15">
-        <v>0.9970729839070752</v>
+        <v>1.016505194390819</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.95753675661737</v>
+        <v>1.032709492894223</v>
       </c>
       <c r="D16">
-        <v>1.016997134879004</v>
+        <v>1.043783652648947</v>
       </c>
       <c r="E16">
-        <v>0.983296814037984</v>
+        <v>1.041818535133776</v>
       </c>
       <c r="F16">
-        <v>1.001311925039779</v>
+        <v>1.052008728828337</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043173885125044</v>
+        <v>1.035220737734985</v>
       </c>
       <c r="J16">
-        <v>0.9874600963735926</v>
+        <v>1.03904886106468</v>
       </c>
       <c r="K16">
-        <v>1.031030338639502</v>
+        <v>1.047193652536095</v>
       </c>
       <c r="L16">
-        <v>0.9979367573564568</v>
+        <v>1.04523543832021</v>
       </c>
       <c r="M16">
-        <v>1.015620924381415</v>
+        <v>1.055390142739586</v>
       </c>
       <c r="N16">
-        <v>0.9983835556770804</v>
+        <v>1.016740554768322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9606653087622413</v>
+        <v>1.033274493946378</v>
       </c>
       <c r="D17">
-        <v>1.018555648944435</v>
+        <v>1.044067624412008</v>
       </c>
       <c r="E17">
-        <v>0.985790927068846</v>
+        <v>1.042291297165928</v>
       </c>
       <c r="F17">
-        <v>1.003634964989576</v>
+        <v>1.052446732799515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043660677080122</v>
+        <v>1.03527715059634</v>
       </c>
       <c r="J17">
-        <v>0.9897237396484927</v>
+        <v>1.039474455908371</v>
       </c>
       <c r="K17">
-        <v>1.032245968869717</v>
+        <v>1.047405587917267</v>
       </c>
       <c r="L17">
-        <v>1.000052765653996</v>
+        <v>1.045635357818706</v>
       </c>
       <c r="M17">
-        <v>1.017579558874027</v>
+        <v>1.055756240407649</v>
       </c>
       <c r="N17">
-        <v>0.999189737365456</v>
+        <v>1.016887971055926</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9624690404253466</v>
+        <v>1.033603979042729</v>
       </c>
       <c r="D18">
-        <v>1.019455716060765</v>
+        <v>1.044233157955808</v>
       </c>
       <c r="E18">
-        <v>0.9872302890564881</v>
+        <v>1.042567009464592</v>
       </c>
       <c r="F18">
-        <v>1.004975928505345</v>
+        <v>1.052702141246773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043940301363322</v>
+        <v>1.035309856092629</v>
       </c>
       <c r="J18">
-        <v>0.9910289464713571</v>
+        <v>1.039722586559208</v>
       </c>
       <c r="K18">
-        <v>1.032946861550405</v>
+        <v>1.047529024282885</v>
       </c>
       <c r="L18">
-        <v>1.001273146035767</v>
+        <v>1.045868516610114</v>
       </c>
       <c r="M18">
-        <v>1.018709320179715</v>
+        <v>1.055969638476743</v>
       </c>
       <c r="N18">
-        <v>0.9996544561776304</v>
+        <v>1.016973877936863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9630805730885941</v>
+        <v>1.033716313176554</v>
       </c>
       <c r="D19">
-        <v>1.019761119225986</v>
+        <v>1.04428958326209</v>
       </c>
       <c r="E19">
-        <v>0.987718518859781</v>
+        <v>1.042661013253755</v>
       </c>
       <c r="F19">
-        <v>1.005430833713995</v>
+        <v>1.052789216815508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044034925046716</v>
+        <v>1.035320974042558</v>
       </c>
       <c r="J19">
-        <v>0.9914714783198535</v>
+        <v>1.03980717388681</v>
       </c>
       <c r="K19">
-        <v>1.033184487909698</v>
+        <v>1.04757108205005</v>
       </c>
       <c r="L19">
-        <v>1.001686966299811</v>
+        <v>1.045947999601563</v>
       </c>
       <c r="M19">
-        <v>1.019092433767944</v>
+        <v>1.056042377942597</v>
       </c>
       <c r="N19">
-        <v>0.999811997917338</v>
+        <v>1.01700315667788</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.960331847803098</v>
+        <v>1.033213882012278</v>
       </c>
       <c r="D20">
-        <v>1.018389371518796</v>
+        <v>1.044037167522087</v>
       </c>
       <c r="E20">
-        <v>0.9855249405933774</v>
+        <v>1.04224057862386</v>
       </c>
       <c r="F20">
-        <v>1.00338718772886</v>
+        <v>1.052399746570142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043608897603603</v>
+        <v>1.035271118632452</v>
       </c>
       <c r="J20">
-        <v>0.9894824518289732</v>
+        <v>1.039428805184158</v>
       </c>
       <c r="K20">
-        <v>1.032116393641796</v>
+        <v>1.047382868082116</v>
       </c>
       <c r="L20">
-        <v>0.9998271831088649</v>
+        <v>1.045592461383459</v>
       </c>
       <c r="M20">
-        <v>1.017370737862502</v>
+        <v>1.055716976143284</v>
       </c>
       <c r="N20">
-        <v>0.9991038167300782</v>
+        <v>1.016872162816802</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9511407911518891</v>
+        <v>1.031579588003208</v>
       </c>
       <c r="D21">
-        <v>1.013821873232311</v>
+        <v>1.043215335338676</v>
       </c>
       <c r="E21">
-        <v>0.978207689556204</v>
+        <v>1.040873205509089</v>
       </c>
       <c r="F21">
-        <v>0.9965743149373382</v>
+        <v>1.051132690763696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042172319612606</v>
+        <v>1.03510669265944</v>
       </c>
       <c r="J21">
-        <v>0.9828335103356692</v>
+        <v>1.038197370978345</v>
       </c>
       <c r="K21">
-        <v>1.028546033648805</v>
+        <v>1.046768826203319</v>
       </c>
       <c r="L21">
-        <v>0.9936140296077107</v>
+        <v>1.044435301409259</v>
       </c>
       <c r="M21">
-        <v>1.011620879918475</v>
+        <v>1.054657406639787</v>
       </c>
       <c r="N21">
-        <v>0.9967351083498789</v>
+        <v>1.016445363137505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9451507121868512</v>
+        <v>1.030551366167626</v>
       </c>
       <c r="D22">
-        <v>1.010862256808593</v>
+        <v>1.042697691726803</v>
       </c>
       <c r="E22">
-        <v>0.9734537203192601</v>
+        <v>1.040013082030764</v>
       </c>
       <c r="F22">
-        <v>0.9921520140104546</v>
+        <v>1.050335377358292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041227614513954</v>
+        <v>1.035001516263025</v>
       </c>
       <c r="J22">
-        <v>0.9785024211609812</v>
+        <v>1.03742208613417</v>
       </c>
       <c r="K22">
-        <v>1.026221558379785</v>
+        <v>1.046381109897767</v>
       </c>
       <c r="L22">
-        <v>0.9895700672638863</v>
+        <v>1.043706757616233</v>
       </c>
       <c r="M22">
-        <v>1.00788056085277</v>
+        <v>1.053989930969176</v>
       </c>
       <c r="N22">
-        <v>0.9951912532788816</v>
+        <v>1.016176301046767</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9483473013648089</v>
+        <v>1.031096512144219</v>
       </c>
       <c r="D23">
-        <v>1.012439888930552</v>
+        <v>1.042972192223993</v>
       </c>
       <c r="E23">
-        <v>0.975989175708654</v>
+        <v>1.040469089063915</v>
       </c>
       <c r="F23">
-        <v>0.9945101586976126</v>
+        <v>1.05075811219024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041732487203094</v>
+        <v>1.035057442476712</v>
       </c>
       <c r="J23">
-        <v>0.9808134346076108</v>
+        <v>1.037833178587525</v>
       </c>
       <c r="K23">
-        <v>1.027461673009584</v>
+        <v>1.046586801684044</v>
       </c>
       <c r="L23">
-        <v>0.991727544102022</v>
+        <v>1.044093067557715</v>
       </c>
       <c r="M23">
-        <v>1.009875807074693</v>
+        <v>1.054343894795311</v>
       </c>
       <c r="N23">
-        <v>0.9960151053990057</v>
+        <v>1.016319004255618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9604825894385696</v>
+        <v>1.033241270154384</v>
       </c>
       <c r="D24">
-        <v>1.018464532833003</v>
+        <v>1.044050929996412</v>
       </c>
       <c r="E24">
-        <v>0.9856451759077102</v>
+        <v>1.042263496279438</v>
       </c>
       <c r="F24">
-        <v>1.003499190822853</v>
+        <v>1.052420977847203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043632307821878</v>
+        <v>1.035273844832857</v>
       </c>
       <c r="J24">
-        <v>0.9895915260394191</v>
+        <v>1.03944943312667</v>
       </c>
       <c r="K24">
-        <v>1.032174968274544</v>
+        <v>1.047393134760213</v>
       </c>
       <c r="L24">
-        <v>0.9999291568222853</v>
+        <v>1.04561184476858</v>
       </c>
       <c r="M24">
-        <v>1.017465134149835</v>
+        <v>1.055734718408797</v>
       </c>
       <c r="N24">
-        <v>0.9991426575532356</v>
+        <v>1.016879306122451</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9737450439262789</v>
+        <v>1.035727399520845</v>
       </c>
       <c r="D25">
-        <v>1.025105854734674</v>
+        <v>1.045298730043293</v>
       </c>
       <c r="E25">
-        <v>0.996251274477708</v>
+        <v>1.044344179024689</v>
       </c>
       <c r="F25">
-        <v>1.013384924562056</v>
+        <v>1.054347830811061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04566873575117</v>
+        <v>1.035517154989385</v>
       </c>
       <c r="J25">
-        <v>0.9991894905942993</v>
+        <v>1.041320641825925</v>
       </c>
       <c r="K25">
-        <v>1.037326546314827</v>
+        <v>1.048321703716982</v>
       </c>
       <c r="L25">
-        <v>1.008908064665518</v>
+        <v>1.047370096284175</v>
       </c>
       <c r="M25">
-        <v>1.025778950335788</v>
+        <v>1.057343188147165</v>
       </c>
       <c r="N25">
-        <v>1.002557556683597</v>
+        <v>1.017526428352252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.037708335920549</v>
+        <v>0.9837559942110816</v>
       </c>
       <c r="D2">
-        <v>1.046290747192389</v>
+        <v>1.030151746366781</v>
       </c>
       <c r="E2">
-        <v>1.046002545876006</v>
+        <v>1.004292126330029</v>
       </c>
       <c r="F2">
-        <v>1.055882509905798</v>
+        <v>1.020885438177087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035704922036065</v>
+        <v>1.047169063988232</v>
       </c>
       <c r="J2">
-        <v>1.042809738020734</v>
+        <v>1.006433658783985</v>
       </c>
       <c r="K2">
-        <v>1.049056596035517</v>
+        <v>1.041206412724031</v>
       </c>
       <c r="L2">
-        <v>1.048769202523492</v>
+        <v>1.015691987141288</v>
       </c>
       <c r="M2">
-        <v>1.058621746425689</v>
+        <v>1.032061276166831</v>
       </c>
       <c r="N2">
-        <v>1.018040134670662</v>
+        <v>1.005130104956664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039145625159971</v>
+        <v>0.9907354757832014</v>
       </c>
       <c r="D3">
-        <v>1.047009176182324</v>
+        <v>1.033683069456211</v>
       </c>
       <c r="E3">
-        <v>1.047206049672822</v>
+        <v>1.009915142641057</v>
       </c>
       <c r="F3">
-        <v>1.056995609374209</v>
+        <v>1.026132230111815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035837607428554</v>
+        <v>1.048191552561815</v>
       </c>
       <c r="J3">
-        <v>1.043889069687797</v>
+        <v>1.011481927362418</v>
       </c>
       <c r="K3">
-        <v>1.049586880081442</v>
+        <v>1.043902371984361</v>
       </c>
       <c r="L3">
-        <v>1.049783241777533</v>
+        <v>1.020422710008266</v>
       </c>
       <c r="M3">
-        <v>1.059547611738855</v>
+        <v>1.036441315706399</v>
       </c>
       <c r="N3">
-        <v>1.018411740276893</v>
+        <v>1.006919542687115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040075199399961</v>
+        <v>0.9951291980125186</v>
       </c>
       <c r="D4">
-        <v>1.047473187592297</v>
+        <v>1.035910659880895</v>
       </c>
       <c r="E4">
-        <v>1.047984533216033</v>
+        <v>1.013461908444001</v>
       </c>
       <c r="F4">
-        <v>1.057715312902836</v>
+        <v>1.029441940703754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035921775160271</v>
+        <v>1.048823672956123</v>
       </c>
       <c r="J4">
-        <v>1.044586621511811</v>
+        <v>1.014658325427506</v>
       </c>
       <c r="K4">
-        <v>1.049928479879552</v>
+        <v>1.045594164478707</v>
       </c>
       <c r="L4">
-        <v>1.050438563337255</v>
+        <v>1.023400530406064</v>
       </c>
       <c r="M4">
-        <v>1.060145574356796</v>
+        <v>1.039197553103582</v>
       </c>
       <c r="N4">
-        <v>1.018651557742308</v>
+        <v>1.008043792182194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040465890060417</v>
+        <v>0.9969485481265237</v>
       </c>
       <c r="D5">
-        <v>1.047668052115803</v>
+        <v>1.036833922877227</v>
       </c>
       <c r="E5">
-        <v>1.048311747387946</v>
+        <v>1.014932096208601</v>
       </c>
       <c r="F5">
-        <v>1.05801774740347</v>
+        <v>1.030813855814408</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035956755007466</v>
+        <v>1.049082551587782</v>
       </c>
       <c r="J5">
-        <v>1.044879672498627</v>
+        <v>1.015973150456683</v>
       </c>
       <c r="K5">
-        <v>1.050071722607669</v>
+        <v>1.046293246045576</v>
       </c>
       <c r="L5">
-        <v>1.050713864519954</v>
+        <v>1.024633416238722</v>
       </c>
       <c r="M5">
-        <v>1.06039668809241</v>
+        <v>1.040338437429982</v>
       </c>
       <c r="N5">
-        <v>1.018752225650712</v>
+        <v>1.008508736641676</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040531482881862</v>
+        <v>0.9972524393582973</v>
       </c>
       <c r="D6">
-        <v>1.047700758655648</v>
+        <v>1.036988182483659</v>
       </c>
       <c r="E6">
-        <v>1.048366684633723</v>
+        <v>1.015177753182348</v>
       </c>
       <c r="F6">
-        <v>1.058068519985682</v>
+        <v>1.0310430896569</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035962604570767</v>
+        <v>1.049125621357729</v>
       </c>
       <c r="J6">
-        <v>1.044928865425171</v>
+        <v>1.016192740496132</v>
       </c>
       <c r="K6">
-        <v>1.050095752248946</v>
+        <v>1.046409925371046</v>
       </c>
       <c r="L6">
-        <v>1.050760077382194</v>
+        <v>1.024839335825237</v>
       </c>
       <c r="M6">
-        <v>1.060438835426554</v>
+        <v>1.040528973675876</v>
       </c>
       <c r="N6">
-        <v>1.018769119387714</v>
+        <v>1.008586361956268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04008042022376</v>
+        <v>0.9951536154174512</v>
       </c>
       <c r="D7">
-        <v>1.047475792190512</v>
+        <v>1.035923047823504</v>
       </c>
       <c r="E7">
-        <v>1.047988905701239</v>
+        <v>1.013481633808582</v>
       </c>
       <c r="F7">
-        <v>1.05771935455143</v>
+        <v>1.02946034768175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03592224415123</v>
+        <v>1.04882715882831</v>
       </c>
       <c r="J7">
-        <v>1.044590538054556</v>
+        <v>1.014675973527694</v>
       </c>
       <c r="K7">
-        <v>1.049930395332981</v>
+        <v>1.045603552786703</v>
       </c>
       <c r="L7">
-        <v>1.050442242692047</v>
+        <v>1.023417077704428</v>
       </c>
       <c r="M7">
-        <v>1.060148930808583</v>
+        <v>1.039212866703829</v>
       </c>
       <c r="N7">
-        <v>1.018652903465361</v>
+        <v>1.008050034549607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038194170266145</v>
+        <v>0.9861410718424051</v>
       </c>
       <c r="D8">
-        <v>1.046533721779266</v>
+        <v>1.031357391254664</v>
       </c>
       <c r="E8">
-        <v>1.046409331987411</v>
+        <v>1.006212115283455</v>
       </c>
       <c r="F8">
-        <v>1.056258801344061</v>
+        <v>1.022676867407973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035750113311614</v>
+        <v>1.047520849966318</v>
       </c>
       <c r="J8">
-        <v>1.0431746807101</v>
+        <v>1.0081590753298</v>
       </c>
       <c r="K8">
-        <v>1.049236124890375</v>
+        <v>1.042128720265008</v>
       </c>
       <c r="L8">
-        <v>1.049112075199224</v>
+        <v>1.017308591927284</v>
       </c>
       <c r="M8">
-        <v>1.058934882844915</v>
+        <v>1.033558183377848</v>
       </c>
       <c r="N8">
-        <v>1.01816585283361</v>
+        <v>1.005742045586754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034866705822902</v>
+        <v>0.969245379130437</v>
       </c>
       <c r="D9">
-        <v>1.044867081584931</v>
+        <v>1.022846556494264</v>
       </c>
       <c r="E9">
-        <v>1.043623771298484</v>
+        <v>0.9926468061960667</v>
       </c>
       <c r="F9">
-        <v>1.053680849799657</v>
+        <v>1.010024097481984</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035433864409756</v>
+        <v>1.044983358769352</v>
       </c>
       <c r="J9">
-        <v>1.040673121349413</v>
+        <v>0.9959329446909988</v>
       </c>
       <c r="K9">
-        <v>1.048001002553345</v>
+        <v>1.03557952863444</v>
       </c>
       <c r="L9">
-        <v>1.046761678286052</v>
+        <v>1.005860321165668</v>
       </c>
       <c r="M9">
-        <v>1.056786808968533</v>
+        <v>1.0229566076001</v>
       </c>
       <c r="N9">
-        <v>1.017302691691863</v>
+        <v>1.001399604438972</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032645632665048</v>
+        <v>0.9571802780408568</v>
       </c>
       <c r="D10">
-        <v>1.04375154724516</v>
+        <v>1.016819769785108</v>
       </c>
       <c r="E10">
-        <v>1.041765102734796</v>
+        <v>0.9830128239873862</v>
       </c>
       <c r="F10">
-        <v>1.051959220382117</v>
+        <v>1.00104746186434</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035214335586556</v>
+        <v>1.043118281029999</v>
       </c>
       <c r="J10">
-        <v>1.039000749555696</v>
+        <v>0.9872021894353181</v>
       </c>
       <c r="K10">
-        <v>1.04716967716346</v>
+        <v>1.030891836703912</v>
       </c>
       <c r="L10">
-        <v>1.045190228947433</v>
+        <v>0.9976957135189897</v>
       </c>
       <c r="M10">
-        <v>1.055348751113437</v>
+        <v>1.01539782978305</v>
       </c>
       <c r="N10">
-        <v>1.016723884652698</v>
+        <v>0.9982916879066802</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03168315884005</v>
+        <v>0.9517350258961417</v>
       </c>
       <c r="D11">
-        <v>1.043267452112489</v>
+        <v>1.01411623822272</v>
       </c>
       <c r="E11">
-        <v>1.040959851217245</v>
+        <v>0.978679946906578</v>
       </c>
       <c r="F11">
-        <v>1.05121299689772</v>
+        <v>0.9970138052808417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035117213794324</v>
+        <v>1.042265704457203</v>
       </c>
       <c r="J11">
-        <v>1.038275441834503</v>
+        <v>0.9832632769910234</v>
       </c>
       <c r="K11">
-        <v>1.046807821461601</v>
+        <v>1.028776764173575</v>
       </c>
       <c r="L11">
-        <v>1.044508664643433</v>
+        <v>0.9940154483337803</v>
       </c>
       <c r="M11">
-        <v>1.054724604635534</v>
+        <v>1.011992257442976</v>
       </c>
       <c r="N11">
-        <v>1.016472442440848</v>
+        <v>0.9968882694202128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031325536830371</v>
+        <v>0.9496762030202337</v>
       </c>
       <c r="D12">
-        <v>1.043087477767421</v>
+        <v>1.013096940528684</v>
       </c>
       <c r="E12">
-        <v>1.040660675829982</v>
+        <v>0.9770442312501401</v>
       </c>
       <c r="F12">
-        <v>1.050935701531528</v>
+        <v>0.9954917173098301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035080828155254</v>
+        <v>1.041941889015193</v>
       </c>
       <c r="J12">
-        <v>1.038005852006006</v>
+        <v>0.9817743591756345</v>
       </c>
       <c r="K12">
-        <v>1.046673128084924</v>
+        <v>1.027977452960057</v>
       </c>
       <c r="L12">
-        <v>1.044255330250838</v>
+        <v>0.9926248504619998</v>
       </c>
       <c r="M12">
-        <v>1.054492547422187</v>
+        <v>1.010705801599725</v>
       </c>
       <c r="N12">
-        <v>1.016378921928486</v>
+        <v>0.9963576184943971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031402253328812</v>
+        <v>0.9501195187051312</v>
       </c>
       <c r="D13">
-        <v>1.043126090115818</v>
+        <v>1.013316282920477</v>
       </c>
       <c r="E13">
-        <v>1.040724853152796</v>
+        <v>0.9773963233026286</v>
       </c>
       <c r="F13">
-        <v>1.050995187562552</v>
+        <v>0.9958193183124266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035088647041428</v>
+        <v>1.042011677634507</v>
       </c>
       <c r="J13">
-        <v>1.038063688070083</v>
+        <v>0.9820949411865805</v>
       </c>
       <c r="K13">
-        <v>1.046702033136365</v>
+        <v>1.02814954195851</v>
       </c>
       <c r="L13">
-        <v>1.044309679132853</v>
+        <v>0.9929242370166786</v>
       </c>
       <c r="M13">
-        <v>1.054542334540423</v>
+        <v>1.010982749509668</v>
       </c>
       <c r="N13">
-        <v>1.016398988012654</v>
+        <v>0.9964718804809083</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03165360010219</v>
+        <v>0.9515656004471392</v>
       </c>
       <c r="D14">
-        <v>1.04325257864039</v>
+        <v>1.014032296550381</v>
       </c>
       <c r="E14">
-        <v>1.040935122717625</v>
+        <v>0.9785452872603999</v>
       </c>
       <c r="F14">
-        <v>1.05119007793183</v>
+        <v>0.9968884856334461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035114212476482</v>
+        <v>1.042239085533737</v>
       </c>
       <c r="J14">
-        <v>1.038253161114654</v>
+        <v>0.9831407420962704</v>
       </c>
       <c r="K14">
-        <v>1.046796693463613</v>
+        <v>1.028710977279846</v>
       </c>
       <c r="L14">
-        <v>1.044487727452552</v>
+        <v>0.993900993396531</v>
       </c>
       <c r="M14">
-        <v>1.054705427244666</v>
+        <v>1.011886366327655</v>
       </c>
       <c r="N14">
-        <v>1.016464714536364</v>
+        <v>0.9968446008756091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031808447542884</v>
+        <v>0.9524516840526409</v>
       </c>
       <c r="D15">
-        <v>1.043330491200131</v>
+        <v>1.014471426043893</v>
       </c>
       <c r="E15">
-        <v>1.04106466746765</v>
+        <v>0.9792496522160673</v>
       </c>
       <c r="F15">
-        <v>1.051310141039272</v>
+        <v>0.9975440237978865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03512992306543</v>
+        <v>1.042378242338237</v>
       </c>
       <c r="J15">
-        <v>1.038369877970953</v>
+        <v>0.9837816070367669</v>
       </c>
       <c r="K15">
-        <v>1.046854979155107</v>
+        <v>1.029055055858132</v>
       </c>
       <c r="L15">
-        <v>1.044597406130798</v>
+        <v>0.9944996224690875</v>
       </c>
       <c r="M15">
-        <v>1.054805884630411</v>
+        <v>1.012440219222362</v>
       </c>
       <c r="N15">
-        <v>1.016505194390819</v>
+        <v>0.997072983907075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032709492894223</v>
+        <v>0.9575367566173696</v>
       </c>
       <c r="D16">
-        <v>1.043783652648947</v>
+        <v>1.016997134879004</v>
       </c>
       <c r="E16">
-        <v>1.041818535133776</v>
+        <v>0.9832968140379833</v>
       </c>
       <c r="F16">
-        <v>1.052008728828337</v>
+        <v>1.001311925039778</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035220737734985</v>
+        <v>1.043173885125044</v>
       </c>
       <c r="J16">
-        <v>1.03904886106468</v>
+        <v>0.9874600963735921</v>
       </c>
       <c r="K16">
-        <v>1.047193652536095</v>
+        <v>1.031030338639501</v>
       </c>
       <c r="L16">
-        <v>1.04523543832021</v>
+        <v>0.9979367573564563</v>
       </c>
       <c r="M16">
-        <v>1.055390142739586</v>
+        <v>1.015620924381414</v>
       </c>
       <c r="N16">
-        <v>1.016740554768322</v>
+        <v>0.9983835556770801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033274493946378</v>
+        <v>0.9606653087622401</v>
       </c>
       <c r="D17">
-        <v>1.044067624412008</v>
+        <v>1.018555648944435</v>
       </c>
       <c r="E17">
-        <v>1.042291297165928</v>
+        <v>0.985790927068845</v>
       </c>
       <c r="F17">
-        <v>1.052446732799515</v>
+        <v>1.003634964989575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03527715059634</v>
+        <v>1.043660677080122</v>
       </c>
       <c r="J17">
-        <v>1.039474455908371</v>
+        <v>0.9897237396484916</v>
       </c>
       <c r="K17">
-        <v>1.047405587917267</v>
+        <v>1.032245968869716</v>
       </c>
       <c r="L17">
-        <v>1.045635357818706</v>
+        <v>1.000052765653995</v>
       </c>
       <c r="M17">
-        <v>1.055756240407649</v>
+        <v>1.017579558874026</v>
       </c>
       <c r="N17">
-        <v>1.016887971055926</v>
+        <v>0.9991897373654558</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033603979042729</v>
+        <v>0.9624690404253461</v>
       </c>
       <c r="D18">
-        <v>1.044233157955808</v>
+        <v>1.019455716060765</v>
       </c>
       <c r="E18">
-        <v>1.042567009464592</v>
+        <v>0.9872302890564878</v>
       </c>
       <c r="F18">
-        <v>1.052702141246773</v>
+        <v>1.004975928505345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035309856092629</v>
+        <v>1.043940301363322</v>
       </c>
       <c r="J18">
-        <v>1.039722586559208</v>
+        <v>0.9910289464713566</v>
       </c>
       <c r="K18">
-        <v>1.047529024282885</v>
+        <v>1.032946861550405</v>
       </c>
       <c r="L18">
-        <v>1.045868516610114</v>
+        <v>1.001273146035766</v>
       </c>
       <c r="M18">
-        <v>1.055969638476743</v>
+        <v>1.018709320179714</v>
       </c>
       <c r="N18">
-        <v>1.016973877936863</v>
+        <v>0.9996544561776302</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033716313176554</v>
+        <v>0.9630805730885934</v>
       </c>
       <c r="D19">
-        <v>1.04428958326209</v>
+        <v>1.019761119225985</v>
       </c>
       <c r="E19">
-        <v>1.042661013253755</v>
+        <v>0.9877185188597803</v>
       </c>
       <c r="F19">
-        <v>1.052789216815508</v>
+        <v>1.005430833713993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320974042558</v>
+        <v>1.044034925046716</v>
       </c>
       <c r="J19">
-        <v>1.03980717388681</v>
+        <v>0.9914714783198527</v>
       </c>
       <c r="K19">
-        <v>1.04757108205005</v>
+        <v>1.033184487909697</v>
       </c>
       <c r="L19">
-        <v>1.045947999601563</v>
+        <v>1.00168696629981</v>
       </c>
       <c r="M19">
-        <v>1.056042377942597</v>
+        <v>1.019092433767943</v>
       </c>
       <c r="N19">
-        <v>1.01700315667788</v>
+        <v>0.9998119979173377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033213882012278</v>
+        <v>0.9603318478030971</v>
       </c>
       <c r="D20">
-        <v>1.044037167522087</v>
+        <v>1.018389371518796</v>
       </c>
       <c r="E20">
-        <v>1.04224057862386</v>
+        <v>0.9855249405933767</v>
       </c>
       <c r="F20">
-        <v>1.052399746570142</v>
+        <v>1.00338718772886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035271118632452</v>
+        <v>1.043608897603603</v>
       </c>
       <c r="J20">
-        <v>1.039428805184158</v>
+        <v>0.9894824518289728</v>
       </c>
       <c r="K20">
-        <v>1.047382868082116</v>
+        <v>1.032116393641796</v>
       </c>
       <c r="L20">
-        <v>1.045592461383459</v>
+        <v>0.9998271831088644</v>
       </c>
       <c r="M20">
-        <v>1.055716976143284</v>
+        <v>1.017370737862502</v>
       </c>
       <c r="N20">
-        <v>1.016872162816802</v>
+        <v>0.999103816730078</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031579588003208</v>
+        <v>0.9511407911518893</v>
       </c>
       <c r="D21">
-        <v>1.043215335338676</v>
+        <v>1.013821873232311</v>
       </c>
       <c r="E21">
-        <v>1.040873205509089</v>
+        <v>0.9782076895562042</v>
       </c>
       <c r="F21">
-        <v>1.051132690763696</v>
+        <v>0.9965743149373388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03510669265944</v>
+        <v>1.042172319612607</v>
       </c>
       <c r="J21">
-        <v>1.038197370978345</v>
+        <v>0.9828335103356695</v>
       </c>
       <c r="K21">
-        <v>1.046768826203319</v>
+        <v>1.028546033648805</v>
       </c>
       <c r="L21">
-        <v>1.044435301409259</v>
+        <v>0.9936140296077109</v>
       </c>
       <c r="M21">
-        <v>1.054657406639787</v>
+        <v>1.011620879918476</v>
       </c>
       <c r="N21">
-        <v>1.016445363137505</v>
+        <v>0.996735108349879</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030551366167626</v>
+        <v>0.9451507121868511</v>
       </c>
       <c r="D22">
-        <v>1.042697691726803</v>
+        <v>1.010862256808593</v>
       </c>
       <c r="E22">
-        <v>1.040013082030764</v>
+        <v>0.9734537203192598</v>
       </c>
       <c r="F22">
-        <v>1.050335377358292</v>
+        <v>0.9921520140104542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035001516263025</v>
+        <v>1.041227614513954</v>
       </c>
       <c r="J22">
-        <v>1.03742208613417</v>
+        <v>0.978502421160981</v>
       </c>
       <c r="K22">
-        <v>1.046381109897767</v>
+        <v>1.026221558379785</v>
       </c>
       <c r="L22">
-        <v>1.043706757616233</v>
+        <v>0.989570067263886</v>
       </c>
       <c r="M22">
-        <v>1.053989930969176</v>
+        <v>1.00788056085277</v>
       </c>
       <c r="N22">
-        <v>1.016176301046767</v>
+        <v>0.9951912532788816</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031096512144219</v>
+        <v>0.9483473013648087</v>
       </c>
       <c r="D23">
-        <v>1.042972192223993</v>
+        <v>1.012439888930551</v>
       </c>
       <c r="E23">
-        <v>1.040469089063915</v>
+        <v>0.975989175708654</v>
       </c>
       <c r="F23">
-        <v>1.05075811219024</v>
+        <v>0.9945101586976121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035057442476712</v>
+        <v>1.041732487203094</v>
       </c>
       <c r="J23">
-        <v>1.037833178587525</v>
+        <v>0.9808134346076106</v>
       </c>
       <c r="K23">
-        <v>1.046586801684044</v>
+        <v>1.027461673009583</v>
       </c>
       <c r="L23">
-        <v>1.044093067557715</v>
+        <v>0.9917275441020217</v>
       </c>
       <c r="M23">
-        <v>1.054343894795311</v>
+        <v>1.009875807074692</v>
       </c>
       <c r="N23">
-        <v>1.016319004255618</v>
+        <v>0.9960151053990057</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033241270154384</v>
+        <v>0.9604825894385695</v>
       </c>
       <c r="D24">
-        <v>1.044050929996412</v>
+        <v>1.018464532833003</v>
       </c>
       <c r="E24">
-        <v>1.042263496279438</v>
+        <v>0.9856451759077103</v>
       </c>
       <c r="F24">
-        <v>1.052420977847203</v>
+        <v>1.003499190822852</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035273844832857</v>
+        <v>1.043632307821878</v>
       </c>
       <c r="J24">
-        <v>1.03944943312667</v>
+        <v>0.9895915260394192</v>
       </c>
       <c r="K24">
-        <v>1.047393134760213</v>
+        <v>1.032174968274544</v>
       </c>
       <c r="L24">
-        <v>1.04561184476858</v>
+        <v>0.9999291568222852</v>
       </c>
       <c r="M24">
-        <v>1.055734718408797</v>
+        <v>1.017465134149835</v>
       </c>
       <c r="N24">
-        <v>1.016879306122451</v>
+        <v>0.9991426575532355</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035727399520845</v>
+        <v>0.9737450439262783</v>
       </c>
       <c r="D25">
-        <v>1.045298730043293</v>
+        <v>1.025105854734674</v>
       </c>
       <c r="E25">
-        <v>1.044344179024689</v>
+        <v>0.9962512744777074</v>
       </c>
       <c r="F25">
-        <v>1.054347830811061</v>
+        <v>1.013384924562055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035517154989385</v>
+        <v>1.04566873575117</v>
       </c>
       <c r="J25">
-        <v>1.041320641825925</v>
+        <v>0.9991894905942988</v>
       </c>
       <c r="K25">
-        <v>1.048321703716982</v>
+        <v>1.037326546314827</v>
       </c>
       <c r="L25">
-        <v>1.047370096284175</v>
+        <v>1.008908064665517</v>
       </c>
       <c r="M25">
-        <v>1.057343188147165</v>
+        <v>1.025778950335788</v>
       </c>
       <c r="N25">
-        <v>1.017526428352252</v>
+        <v>1.002557556683597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9837559942110816</v>
+        <v>0.9859204188564969</v>
       </c>
       <c r="D2">
-        <v>1.030151746366781</v>
+        <v>1.036360806828373</v>
       </c>
       <c r="E2">
-        <v>1.004292126330029</v>
+        <v>1.005505890612929</v>
       </c>
       <c r="F2">
-        <v>1.020885438177087</v>
+        <v>1.019779305373067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047169063988232</v>
+        <v>1.050006036644254</v>
       </c>
       <c r="J2">
-        <v>1.006433658783985</v>
+        <v>1.008530560612905</v>
       </c>
       <c r="K2">
-        <v>1.041206412724031</v>
+        <v>1.047335794687619</v>
       </c>
       <c r="L2">
-        <v>1.015691987141288</v>
+        <v>1.016889048894608</v>
       </c>
       <c r="M2">
-        <v>1.032061276166831</v>
+        <v>1.030969792393172</v>
       </c>
       <c r="N2">
-        <v>1.005130104956664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006566734617183</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033082865028427</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044540773647318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907354757832014</v>
+        <v>0.9900170496004768</v>
       </c>
       <c r="D3">
-        <v>1.033683069456211</v>
+        <v>1.03777977756558</v>
       </c>
       <c r="E3">
-        <v>1.009915142641057</v>
+        <v>1.00867946786172</v>
       </c>
       <c r="F3">
-        <v>1.026132230111815</v>
+        <v>1.022786010914612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048191552561815</v>
+        <v>1.050274382781403</v>
       </c>
       <c r="J3">
-        <v>1.011481927362418</v>
+        <v>1.010783609626981</v>
       </c>
       <c r="K3">
-        <v>1.043902371984361</v>
+        <v>1.047951044598585</v>
       </c>
       <c r="L3">
-        <v>1.020422710008266</v>
+        <v>1.019202484871535</v>
       </c>
       <c r="M3">
-        <v>1.036441315706399</v>
+        <v>1.033135410974835</v>
       </c>
       <c r="N3">
-        <v>1.006919542687115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007357960039601</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.034796822723916</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044973152813001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9951291980125186</v>
+        <v>0.9926196209142644</v>
       </c>
       <c r="D4">
-        <v>1.035910659880895</v>
+        <v>1.038686554928775</v>
       </c>
       <c r="E4">
-        <v>1.013461908444001</v>
+        <v>1.010701787015041</v>
       </c>
       <c r="F4">
-        <v>1.029441940703754</v>
+        <v>1.024702194930915</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048823672956123</v>
+        <v>1.050434767864191</v>
       </c>
       <c r="J4">
-        <v>1.014658325427506</v>
+        <v>1.012214020439981</v>
       </c>
       <c r="K4">
-        <v>1.045594164478707</v>
+        <v>1.048339454590891</v>
       </c>
       <c r="L4">
-        <v>1.023400530406064</v>
+        <v>1.020672744233808</v>
       </c>
       <c r="M4">
-        <v>1.039197553103582</v>
+        <v>1.034511354463453</v>
       </c>
       <c r="N4">
-        <v>1.008043792182194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.007859585056656</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035885797608639</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045248674007833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9969485481265237</v>
+        <v>0.9937026856325575</v>
       </c>
       <c r="D5">
-        <v>1.036833922877227</v>
+        <v>1.039070268233505</v>
       </c>
       <c r="E5">
-        <v>1.014932096208601</v>
+        <v>1.011544757771995</v>
       </c>
       <c r="F5">
-        <v>1.030813855814408</v>
+        <v>1.025500649553246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049082551587782</v>
+        <v>1.05050057739155</v>
       </c>
       <c r="J5">
-        <v>1.015973150456683</v>
+        <v>1.012809077661968</v>
       </c>
       <c r="K5">
-        <v>1.046293246045576</v>
+        <v>1.048505585069394</v>
       </c>
       <c r="L5">
-        <v>1.024633416238722</v>
+        <v>1.021284659233706</v>
       </c>
       <c r="M5">
-        <v>1.040338437429982</v>
+        <v>1.035083609440577</v>
       </c>
       <c r="N5">
-        <v>1.008508736641676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.00806814515147</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.036338701833643</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045373258070747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9972524393582973</v>
+        <v>0.993884021315845</v>
       </c>
       <c r="D6">
-        <v>1.036988182483659</v>
+        <v>1.039140858551966</v>
       </c>
       <c r="E6">
-        <v>1.015177753182348</v>
+        <v>1.011685915569561</v>
       </c>
       <c r="F6">
-        <v>1.0310430896569</v>
+        <v>1.025633975289141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049125621357729</v>
+        <v>1.050513308182855</v>
       </c>
       <c r="J6">
-        <v>1.016192740496132</v>
+        <v>1.01290874572416</v>
       </c>
       <c r="K6">
-        <v>1.046409925371046</v>
+        <v>1.048539598009937</v>
       </c>
       <c r="L6">
-        <v>1.024839335825237</v>
+        <v>1.02138708036595</v>
       </c>
       <c r="M6">
-        <v>1.040528973675876</v>
+        <v>1.035179011420994</v>
       </c>
       <c r="N6">
-        <v>1.008586361956268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008103137942274</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.036414206539839</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045405989547808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9951536154174512</v>
+        <v>0.9926344740516843</v>
       </c>
       <c r="D7">
-        <v>1.035923047823504</v>
+        <v>1.038708538086091</v>
       </c>
       <c r="E7">
-        <v>1.013481633808582</v>
+        <v>1.010713164702254</v>
       </c>
       <c r="F7">
-        <v>1.02946034768175</v>
+        <v>1.024711917721466</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04882715882831</v>
+        <v>1.050440576327693</v>
       </c>
       <c r="J7">
-        <v>1.014675973527694</v>
+        <v>1.012222325491434</v>
       </c>
       <c r="K7">
-        <v>1.045603552786703</v>
+        <v>1.048358343793556</v>
       </c>
       <c r="L7">
-        <v>1.023417077704428</v>
+        <v>1.020681029549914</v>
       </c>
       <c r="M7">
-        <v>1.039212866703829</v>
+        <v>1.034518062276155</v>
       </c>
       <c r="N7">
-        <v>1.008050034549607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.007862690055776</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035891106426899</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045281993942354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9861410718424051</v>
+        <v>0.9873155058606079</v>
       </c>
       <c r="D8">
-        <v>1.031357391254664</v>
+        <v>1.036863097514988</v>
       </c>
       <c r="E8">
-        <v>1.006212115283455</v>
+        <v>1.006585048298416</v>
       </c>
       <c r="F8">
-        <v>1.022676867407973</v>
+        <v>1.02080019791887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047520849966318</v>
+        <v>1.050105166672681</v>
       </c>
       <c r="J8">
-        <v>1.0081590753298</v>
+        <v>1.009298167808384</v>
       </c>
       <c r="K8">
-        <v>1.042128720265008</v>
+        <v>1.047565854793791</v>
       </c>
       <c r="L8">
-        <v>1.017308591927284</v>
+        <v>1.017676553667121</v>
       </c>
       <c r="M8">
-        <v>1.033558183377848</v>
+        <v>1.031705599793654</v>
       </c>
       <c r="N8">
-        <v>1.005742045586754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006836700662971</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.033665213084306</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044726164613628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.969245379130437</v>
+        <v>0.9775549116272277</v>
       </c>
       <c r="D9">
-        <v>1.022846556494264</v>
+        <v>1.0334965928922</v>
       </c>
       <c r="E9">
-        <v>0.9926468061960667</v>
+        <v>0.9990612792418866</v>
       </c>
       <c r="F9">
-        <v>1.010024097481984</v>
+        <v>1.013675095736597</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044983358769352</v>
+        <v>1.049404710812353</v>
       </c>
       <c r="J9">
-        <v>0.9959329446909988</v>
+        <v>1.003925944242964</v>
       </c>
       <c r="K9">
-        <v>1.03557952863444</v>
+        <v>1.046068621680106</v>
       </c>
       <c r="L9">
-        <v>1.005860321165668</v>
+        <v>1.012169604917716</v>
       </c>
       <c r="M9">
-        <v>1.0229566076001</v>
+        <v>1.026550132987963</v>
       </c>
       <c r="N9">
-        <v>1.001399604438972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00494613456338</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029584955694056</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043664405977104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9571802780408568</v>
+        <v>0.9708415365612897</v>
       </c>
       <c r="D10">
-        <v>1.016819769785108</v>
+        <v>1.031204091380094</v>
       </c>
       <c r="E10">
-        <v>0.9830128239873862</v>
+        <v>0.9939587541340006</v>
       </c>
       <c r="F10">
-        <v>1.00104746186434</v>
+        <v>1.008894713029733</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043118281029999</v>
+        <v>1.048882436253627</v>
       </c>
       <c r="J10">
-        <v>0.9872021894353181</v>
+        <v>1.000261776313812</v>
       </c>
       <c r="K10">
-        <v>1.030891836703912</v>
+        <v>1.045031910939362</v>
       </c>
       <c r="L10">
-        <v>0.9976957135189897</v>
+        <v>1.008437948613568</v>
       </c>
       <c r="M10">
-        <v>1.01539782978305</v>
+        <v>1.023105206571343</v>
       </c>
       <c r="N10">
-        <v>0.9982916879066802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003658658284941</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.026910650579098</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04294806020556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9517350258961417</v>
+        <v>0.9685214846218286</v>
       </c>
       <c r="D11">
-        <v>1.01411623822272</v>
+        <v>1.030285433929251</v>
       </c>
       <c r="E11">
-        <v>0.978679946906578</v>
+        <v>0.992484263910505</v>
       </c>
       <c r="F11">
-        <v>0.9970138052808417</v>
+        <v>1.007912212800129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042265704457203</v>
+        <v>1.048754008454839</v>
       </c>
       <c r="J11">
-        <v>0.9832632769910234</v>
+        <v>0.9992650838109912</v>
       </c>
       <c r="K11">
-        <v>1.028776764173575</v>
+        <v>1.044657952184986</v>
       </c>
       <c r="L11">
-        <v>0.9940154483337803</v>
+        <v>1.007549321604131</v>
       </c>
       <c r="M11">
-        <v>1.011992257442976</v>
+        <v>1.022686443167474</v>
       </c>
       <c r="N11">
-        <v>0.9968882694202128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003353217598123</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.027021296729203</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042716171661849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9496762030202337</v>
+        <v>0.9679093434842102</v>
       </c>
       <c r="D12">
-        <v>1.013096940528684</v>
+        <v>1.029958351414683</v>
       </c>
       <c r="E12">
-        <v>0.9770442312501401</v>
+        <v>0.9922300204569178</v>
       </c>
       <c r="F12">
-        <v>0.9954917173098301</v>
+        <v>1.007969250824798</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041941889015193</v>
+        <v>1.048744952673762</v>
       </c>
       <c r="J12">
-        <v>0.9817743591756345</v>
+        <v>0.9991367898827224</v>
       </c>
       <c r="K12">
-        <v>1.027977452960057</v>
+        <v>1.044533255662207</v>
       </c>
       <c r="L12">
-        <v>0.9926248504619998</v>
+        <v>1.007507610493509</v>
       </c>
       <c r="M12">
-        <v>1.010705801599725</v>
+        <v>1.02294534878477</v>
       </c>
       <c r="N12">
-        <v>0.9963576184943971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003346943907424</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.027556322836995</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042628008879226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9501195187051312</v>
+        <v>0.9685718192225163</v>
       </c>
       <c r="D13">
-        <v>1.013316282920477</v>
+        <v>1.0300813682137</v>
       </c>
       <c r="E13">
-        <v>0.9773963233026286</v>
+        <v>0.9928993093917264</v>
       </c>
       <c r="F13">
-        <v>0.9958193183124266</v>
+        <v>1.008839738733849</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042011677634507</v>
+        <v>1.048835660719887</v>
       </c>
       <c r="J13">
-        <v>0.9820949411865805</v>
+        <v>0.9996707789177574</v>
       </c>
       <c r="K13">
-        <v>1.02814954195851</v>
+        <v>1.044611912171239</v>
       </c>
       <c r="L13">
-        <v>0.9929242370166786</v>
+        <v>1.008119327691223</v>
       </c>
       <c r="M13">
-        <v>1.010982749509668</v>
+        <v>1.023756048568571</v>
       </c>
       <c r="N13">
-        <v>0.9964718804809083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003571227792476</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.028476770995891</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042681153221833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9515656004471392</v>
+        <v>0.9696093095739329</v>
       </c>
       <c r="D14">
-        <v>1.014032296550381</v>
+        <v>1.03037501215481</v>
       </c>
       <c r="E14">
-        <v>0.9785452872603999</v>
+        <v>0.9937817708470438</v>
       </c>
       <c r="F14">
-        <v>0.9968884856334461</v>
+        <v>1.009812839366705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042239085533737</v>
+        <v>1.048944428506562</v>
       </c>
       <c r="J14">
-        <v>0.9831407420962704</v>
+        <v>1.000340953857423</v>
       </c>
       <c r="K14">
-        <v>1.028710977279846</v>
+        <v>1.044762216189489</v>
       </c>
       <c r="L14">
-        <v>0.993900993396531</v>
+        <v>1.008839038606227</v>
       </c>
       <c r="M14">
-        <v>1.011886366327655</v>
+        <v>1.024568771908193</v>
       </c>
       <c r="N14">
-        <v>0.9968446008756091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003831322505954</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.029293975222053</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042788831150316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9524516840526409</v>
+        <v>0.9701423349870081</v>
       </c>
       <c r="D15">
-        <v>1.014471426043893</v>
+        <v>1.030549054301386</v>
       </c>
       <c r="E15">
-        <v>0.9792496522160673</v>
+        <v>0.994204843349409</v>
       </c>
       <c r="F15">
-        <v>0.9975440237978865</v>
+        <v>1.010240627046324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042378242338237</v>
+        <v>1.048994429784251</v>
       </c>
       <c r="J15">
-        <v>0.9837816070367669</v>
+        <v>1.000653256626138</v>
       </c>
       <c r="K15">
-        <v>1.029055055858132</v>
+        <v>1.04484811362273</v>
       </c>
       <c r="L15">
-        <v>0.9944996224690875</v>
+        <v>1.009164341074314</v>
       </c>
       <c r="M15">
-        <v>1.012440219222362</v>
+        <v>1.024901100743743</v>
       </c>
       <c r="N15">
-        <v>0.997072983907075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003946430363569</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.029594458851775</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042855375036585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9575367566173696</v>
+        <v>0.9728512434256382</v>
       </c>
       <c r="D16">
-        <v>1.016997134879004</v>
+        <v>1.031495211074718</v>
       </c>
       <c r="E16">
-        <v>0.9832968140379833</v>
+        <v>0.9962348067115538</v>
       </c>
       <c r="F16">
-        <v>1.001311925039778</v>
+        <v>1.0121232241255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043173885125044</v>
+        <v>1.049211779193382</v>
       </c>
       <c r="J16">
-        <v>0.9874600963735921</v>
+        <v>1.002104617660429</v>
       </c>
       <c r="K16">
-        <v>1.031030338639501</v>
+        <v>1.045283099267214</v>
       </c>
       <c r="L16">
-        <v>0.9979367573564563</v>
+        <v>1.010635498555593</v>
       </c>
       <c r="M16">
-        <v>1.015620924381414</v>
+        <v>1.02624094119566</v>
       </c>
       <c r="N16">
-        <v>0.9983835556770801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004448615733586</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03061445429004</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04316606187305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9606653087622401</v>
+        <v>0.9743873017466452</v>
       </c>
       <c r="D17">
-        <v>1.018555648944435</v>
+        <v>1.032070055076724</v>
       </c>
       <c r="E17">
-        <v>0.985790927068845</v>
+        <v>0.9973310196874998</v>
       </c>
       <c r="F17">
-        <v>1.003634964989575</v>
+        <v>1.013053232133176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043660677080122</v>
+        <v>1.049319220797778</v>
       </c>
       <c r="J17">
-        <v>0.9897237396484916</v>
+        <v>1.002866609042947</v>
       </c>
       <c r="K17">
-        <v>1.032245968869716</v>
+        <v>1.045538212601925</v>
       </c>
       <c r="L17">
-        <v>1.000052765653995</v>
+        <v>1.011386008191841</v>
       </c>
       <c r="M17">
-        <v>1.017579558874026</v>
+        <v>1.026836197413432</v>
       </c>
       <c r="N17">
-        <v>0.9991897373654558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004697305715798</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.030954916291163</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043349001630028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624690404253461</v>
+        <v>0.9750488596553741</v>
       </c>
       <c r="D18">
-        <v>1.019455716060765</v>
+        <v>1.032369355172218</v>
       </c>
       <c r="E18">
-        <v>0.9872302890564878</v>
+        <v>0.9977002421240426</v>
       </c>
       <c r="F18">
-        <v>1.004975928505345</v>
+        <v>1.013202966780076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043940301363322</v>
+        <v>1.049339039774489</v>
       </c>
       <c r="J18">
-        <v>0.9910289464713566</v>
+        <v>1.003088798895584</v>
       </c>
       <c r="K18">
-        <v>1.032946861550405</v>
+        <v>1.045651802071798</v>
       </c>
       <c r="L18">
-        <v>1.001273146035766</v>
+        <v>1.011558790813493</v>
       </c>
       <c r="M18">
-        <v>1.018709320179714</v>
+        <v>1.026797626140743</v>
       </c>
       <c r="N18">
-        <v>0.9996544561776302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004744768359205</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.030684615331533</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043417785290593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9630805730885934</v>
+        <v>0.9749179374782294</v>
       </c>
       <c r="D19">
-        <v>1.019761119225985</v>
+        <v>1.032441690493769</v>
       </c>
       <c r="E19">
-        <v>0.9877185188597803</v>
+        <v>0.9974046125566248</v>
       </c>
       <c r="F19">
-        <v>1.005430833713993</v>
+        <v>1.012635169277387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044034925046716</v>
+        <v>1.049287423549313</v>
       </c>
       <c r="J19">
-        <v>0.9914714783198527</v>
+        <v>1.002822798030271</v>
       </c>
       <c r="K19">
-        <v>1.033184487909697</v>
+        <v>1.045661316044735</v>
       </c>
       <c r="L19">
-        <v>1.00168696629981</v>
+        <v>1.011203511779776</v>
       </c>
       <c r="M19">
-        <v>1.019092433767943</v>
+        <v>1.026175916743785</v>
       </c>
       <c r="N19">
-        <v>0.9998119979173377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004614290894363</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.029864126233843</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043430845994839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603318478030971</v>
+        <v>0.9725847620527425</v>
       </c>
       <c r="D20">
-        <v>1.018389371518796</v>
+        <v>1.031834027041606</v>
       </c>
       <c r="E20">
-        <v>0.9855249405933767</v>
+        <v>0.9952815823833101</v>
       </c>
       <c r="F20">
-        <v>1.00338718772886</v>
+        <v>1.01013250107981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043608897603603</v>
+        <v>1.049031118252672</v>
       </c>
       <c r="J20">
-        <v>0.9894824518289728</v>
+        <v>1.001214991531079</v>
       </c>
       <c r="K20">
-        <v>1.032116393641796</v>
+        <v>1.045339293852643</v>
       </c>
       <c r="L20">
-        <v>0.9998271831088644</v>
+        <v>1.009407910004718</v>
       </c>
       <c r="M20">
-        <v>1.017370737862502</v>
+        <v>1.023999492216409</v>
       </c>
       <c r="N20">
-        <v>0.999103816730078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.003994573067791</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027607695466993</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043207040462496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9511407911518893</v>
+        <v>0.967417449890441</v>
       </c>
       <c r="D21">
-        <v>1.013821873232311</v>
+        <v>1.030101578569219</v>
       </c>
       <c r="E21">
-        <v>0.9782076895562042</v>
+        <v>0.9913143402639457</v>
       </c>
       <c r="F21">
-        <v>0.9965743149373388</v>
+        <v>1.006339581664739</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042172319612607</v>
+        <v>1.048598731253312</v>
       </c>
       <c r="J21">
-        <v>0.9828335103356695</v>
+        <v>0.9983435504903448</v>
       </c>
       <c r="K21">
-        <v>1.028546033648805</v>
+        <v>1.044534259849915</v>
       </c>
       <c r="L21">
-        <v>0.9936140296077109</v>
+        <v>1.006462154936068</v>
       </c>
       <c r="M21">
-        <v>1.011620879918476</v>
+        <v>1.021201835935222</v>
       </c>
       <c r="N21">
-        <v>0.996735108349879</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002976749540936</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02535205876938</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042641038745457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9451507121868511</v>
+        <v>0.9641395803185697</v>
       </c>
       <c r="D22">
-        <v>1.010862256808593</v>
+        <v>1.028988564295882</v>
       </c>
       <c r="E22">
-        <v>0.9734537203192598</v>
+        <v>0.9888247034590528</v>
       </c>
       <c r="F22">
-        <v>0.9921520140104542</v>
+        <v>1.003986690754893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041227614513954</v>
+        <v>1.04831545915103</v>
       </c>
       <c r="J22">
-        <v>0.978502421160981</v>
+        <v>0.9965385945099414</v>
       </c>
       <c r="K22">
-        <v>1.026221558379785</v>
+        <v>1.044006825272724</v>
       </c>
       <c r="L22">
-        <v>0.989570067263886</v>
+        <v>1.004620844156974</v>
       </c>
       <c r="M22">
-        <v>1.00788056085277</v>
+        <v>1.019479582079851</v>
       </c>
       <c r="N22">
-        <v>0.9951912532788816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002338627811906</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.023988979495563</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042254754645941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9483473013648087</v>
+        <v>0.9658837341297483</v>
       </c>
       <c r="D23">
-        <v>1.012439888930551</v>
+        <v>1.029566487824452</v>
       </c>
       <c r="E23">
-        <v>0.975989175708654</v>
+        <v>0.9901488788091176</v>
       </c>
       <c r="F23">
-        <v>0.9945101586976121</v>
+        <v>1.005239537165074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041732487203094</v>
+        <v>1.048463997143682</v>
       </c>
       <c r="J23">
-        <v>0.9808134346076106</v>
+        <v>0.9974988875239413</v>
       </c>
       <c r="K23">
-        <v>1.027461673009583</v>
+        <v>1.044274338113322</v>
       </c>
       <c r="L23">
-        <v>0.9917275441020217</v>
+        <v>1.00560064492044</v>
       </c>
       <c r="M23">
-        <v>1.009875807074692</v>
+        <v>1.020397484360658</v>
       </c>
       <c r="N23">
-        <v>0.9960151053990057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002677953944215</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024715454373864</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042434363610487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9604825894385695</v>
+        <v>0.9726056599859131</v>
       </c>
       <c r="D24">
-        <v>1.018464532833003</v>
+        <v>1.03183351354226</v>
       </c>
       <c r="E24">
-        <v>0.9856451759077103</v>
+        <v>0.9952705385416366</v>
       </c>
       <c r="F24">
-        <v>1.003499190822852</v>
+        <v>1.010084841214424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043632307821878</v>
+        <v>1.049021947450316</v>
       </c>
       <c r="J24">
-        <v>0.9895915260394192</v>
+        <v>1.001200597351217</v>
       </c>
       <c r="K24">
-        <v>1.032174968274544</v>
+        <v>1.045323744912181</v>
       </c>
       <c r="L24">
-        <v>0.9999291568222852</v>
+        <v>1.009381221013913</v>
       </c>
       <c r="M24">
-        <v>1.017465134149835</v>
+        <v>1.023937140462696</v>
       </c>
       <c r="N24">
-        <v>0.9991426575532355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.003985273337685</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.027516912260405</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043168908744674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9737450439262783</v>
+        <v>0.9801272630464772</v>
       </c>
       <c r="D25">
-        <v>1.025105854734674</v>
+        <v>1.034402492924246</v>
       </c>
       <c r="E25">
-        <v>0.9962512744777074</v>
+        <v>1.001037376265153</v>
       </c>
       <c r="F25">
-        <v>1.013384924562055</v>
+        <v>1.015543962972803</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04566873575117</v>
+        <v>1.049604493540351</v>
       </c>
       <c r="J25">
-        <v>0.9991894905942988</v>
+        <v>1.005342445477202</v>
       </c>
       <c r="K25">
-        <v>1.037326546314827</v>
+        <v>1.046489236759929</v>
       </c>
       <c r="L25">
-        <v>1.008908064665517</v>
+        <v>1.013619609620084</v>
       </c>
       <c r="M25">
-        <v>1.025778950335788</v>
+        <v>1.027905677587647</v>
       </c>
       <c r="N25">
-        <v>1.002557556683597</v>
+        <v>1.005445543269128</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030657794102952</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043990126648633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9859204188564969</v>
+        <v>0.9868719249375217</v>
       </c>
       <c r="D2">
-        <v>1.036360806828373</v>
+        <v>1.033463267677229</v>
       </c>
       <c r="E2">
-        <v>1.005505890612929</v>
+        <v>1.006225674620726</v>
       </c>
       <c r="F2">
-        <v>1.019779305373067</v>
+        <v>1.020263885585323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050006036644254</v>
+        <v>1.04892434964303</v>
       </c>
       <c r="J2">
-        <v>1.008530560612905</v>
+        <v>1.00945251227468</v>
       </c>
       <c r="K2">
-        <v>1.047335794687619</v>
+        <v>1.044475289604334</v>
       </c>
       <c r="L2">
-        <v>1.016889048894608</v>
+        <v>1.017598951978813</v>
       </c>
       <c r="M2">
-        <v>1.030969792393172</v>
+        <v>1.031447950179299</v>
       </c>
       <c r="N2">
-        <v>1.006566734617183</v>
+        <v>1.009535602090565</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033082865028427</v>
+        <v>1.033461298701972</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044540773647318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042526887689985</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023874536377849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900170496004768</v>
+        <v>0.9909009091477476</v>
       </c>
       <c r="D3">
-        <v>1.03777977756558</v>
+        <v>1.034782870476003</v>
       </c>
       <c r="E3">
-        <v>1.00867946786172</v>
+        <v>1.009345170320366</v>
       </c>
       <c r="F3">
-        <v>1.022786010914612</v>
+        <v>1.023223665676881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050274382781403</v>
+        <v>1.04914684925833</v>
       </c>
       <c r="J3">
-        <v>1.010783609626981</v>
+        <v>1.011642735955905</v>
       </c>
       <c r="K3">
-        <v>1.047951044598585</v>
+        <v>1.044989231182597</v>
       </c>
       <c r="L3">
-        <v>1.019202484871535</v>
+        <v>1.019859858193369</v>
       </c>
       <c r="M3">
-        <v>1.033135410974835</v>
+        <v>1.033567774365246</v>
       </c>
       <c r="N3">
-        <v>1.007357960039601</v>
+        <v>1.010149760577735</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.034796822723916</v>
+        <v>1.035139012011292</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044973152813001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042887362130838</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023922117396996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9926196209142644</v>
+        <v>0.9934611435199986</v>
       </c>
       <c r="D4">
-        <v>1.038686554928775</v>
+        <v>1.035626733560948</v>
       </c>
       <c r="E4">
-        <v>1.010701787015041</v>
+        <v>1.011333555857291</v>
       </c>
       <c r="F4">
-        <v>1.024702194930915</v>
+        <v>1.02511040269658</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050434767864191</v>
+        <v>1.049278177833387</v>
       </c>
       <c r="J4">
-        <v>1.012214020439981</v>
+        <v>1.013033605916932</v>
       </c>
       <c r="K4">
-        <v>1.048339454590891</v>
+        <v>1.045313379888033</v>
       </c>
       <c r="L4">
-        <v>1.020672744233808</v>
+        <v>1.02129709252836</v>
       </c>
       <c r="M4">
-        <v>1.034511354463453</v>
+        <v>1.034914926489849</v>
       </c>
       <c r="N4">
-        <v>1.007859585056656</v>
+        <v>1.010539207576185</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035885797608639</v>
+        <v>1.036205199798839</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045248674007833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043117533917417</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023948950454784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9937026856325575</v>
+        <v>0.9945267412469948</v>
       </c>
       <c r="D5">
-        <v>1.039070268233505</v>
+        <v>1.035984123130554</v>
       </c>
       <c r="E5">
-        <v>1.011544757771995</v>
+        <v>1.012162525324203</v>
       </c>
       <c r="F5">
-        <v>1.025500649553246</v>
+        <v>1.025896764257898</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05050057739155</v>
+        <v>1.049331969562601</v>
       </c>
       <c r="J5">
-        <v>1.012809077661968</v>
+        <v>1.013612300326078</v>
       </c>
       <c r="K5">
-        <v>1.048505585069394</v>
+        <v>1.045452601894042</v>
       </c>
       <c r="L5">
-        <v>1.021284659233706</v>
+        <v>1.021895366724029</v>
       </c>
       <c r="M5">
-        <v>1.035083609440577</v>
+        <v>1.035475346238383</v>
       </c>
       <c r="N5">
-        <v>1.00806814515147</v>
+        <v>1.01070114411483</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036338701833643</v>
+        <v>1.036648736979789</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045373258070747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043223814228063</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023960357953953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.993884021315845</v>
+        <v>0.9947051692935984</v>
       </c>
       <c r="D6">
-        <v>1.039140858551966</v>
+        <v>1.036050068574047</v>
       </c>
       <c r="E6">
-        <v>1.011685915569561</v>
+        <v>1.012301373143539</v>
       </c>
       <c r="F6">
-        <v>1.025633975289141</v>
+        <v>1.026028165624126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050513308182855</v>
+        <v>1.049342757779455</v>
       </c>
       <c r="J6">
-        <v>1.01290874572416</v>
+        <v>1.013709241993461</v>
       </c>
       <c r="K6">
-        <v>1.048539598009937</v>
+        <v>1.045481872759411</v>
       </c>
       <c r="L6">
-        <v>1.02138708036595</v>
+        <v>1.021995536900675</v>
       </c>
       <c r="M6">
-        <v>1.035179011420994</v>
+        <v>1.035568865149689</v>
       </c>
       <c r="N6">
-        <v>1.008103137942274</v>
+        <v>1.010728313851143</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036414206539839</v>
+        <v>1.036722751322226</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045405989547808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043254073489441</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023963512951154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9926344740516843</v>
+        <v>0.9934865666284747</v>
       </c>
       <c r="D7">
-        <v>1.038708538086091</v>
+        <v>1.03564807271683</v>
       </c>
       <c r="E7">
-        <v>1.010713164702254</v>
+        <v>1.011353834328926</v>
       </c>
       <c r="F7">
-        <v>1.024711917721466</v>
+        <v>1.025127344776017</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050440576327693</v>
+        <v>1.049284647692919</v>
       </c>
       <c r="J7">
-        <v>1.012222325491434</v>
+        <v>1.013052214768154</v>
       </c>
       <c r="K7">
-        <v>1.048358343793556</v>
+        <v>1.045331619226724</v>
       </c>
       <c r="L7">
-        <v>1.020681029549914</v>
+        <v>1.021314176896794</v>
       </c>
       <c r="M7">
-        <v>1.034518062276155</v>
+        <v>1.034928773333331</v>
       </c>
       <c r="N7">
-        <v>1.007862690055776</v>
+        <v>1.010570786884668</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035891106426899</v>
+        <v>1.036216158712779</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045281993942354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043152419924248</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023952595803425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873155058606079</v>
+        <v>0.9882772230727149</v>
       </c>
       <c r="D8">
-        <v>1.036863097514988</v>
+        <v>1.033932037517265</v>
       </c>
       <c r="E8">
-        <v>1.006585048298416</v>
+        <v>1.007314416791923</v>
       </c>
       <c r="F8">
-        <v>1.02080019791887</v>
+        <v>1.02129130837169</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050105166672681</v>
+        <v>1.04901014459417</v>
       </c>
       <c r="J8">
-        <v>1.009298167808384</v>
+        <v>1.010231030688222</v>
       </c>
       <c r="K8">
-        <v>1.047565854793791</v>
+        <v>1.044671186903991</v>
       </c>
       <c r="L8">
-        <v>1.017676553667121</v>
+        <v>1.018396212881653</v>
       </c>
       <c r="M8">
-        <v>1.031705599793654</v>
+        <v>1.032190396452329</v>
       </c>
       <c r="N8">
-        <v>1.006836700662971</v>
+        <v>1.009834075001558</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033665213084306</v>
+        <v>1.034048900714336</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044726164613628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042690422648281</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023895633119914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9775549116272277</v>
+        <v>0.978687077266437</v>
       </c>
       <c r="D9">
-        <v>1.0334965928922</v>
+        <v>1.0308042773927</v>
       </c>
       <c r="E9">
-        <v>0.9990612792418866</v>
+        <v>0.9999266514403854</v>
       </c>
       <c r="F9">
-        <v>1.013675095736597</v>
+        <v>1.014283854507287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049404710812353</v>
+        <v>1.048419436707656</v>
       </c>
       <c r="J9">
-        <v>1.003925944242964</v>
+        <v>1.005015568145767</v>
       </c>
       <c r="K9">
-        <v>1.046068621680106</v>
+        <v>1.043416592656849</v>
       </c>
       <c r="L9">
-        <v>1.012169604917716</v>
+        <v>1.013020918785839</v>
       </c>
       <c r="M9">
-        <v>1.026550132987963</v>
+        <v>1.027149360339277</v>
       </c>
       <c r="N9">
-        <v>1.00494613456338</v>
+        <v>1.008378413893156</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029584955694056</v>
+        <v>1.030059211130296</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043664405977104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041799917467563</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023759492661383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9708415365612897</v>
+        <v>0.9721438903566206</v>
       </c>
       <c r="D10">
-        <v>1.031204091380094</v>
+        <v>1.028678724562451</v>
       </c>
       <c r="E10">
-        <v>0.9939587541340006</v>
+        <v>0.9949618368574824</v>
       </c>
       <c r="F10">
-        <v>1.008894713029733</v>
+        <v>1.009620354341281</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048882436253627</v>
+        <v>1.047976575344222</v>
       </c>
       <c r="J10">
-        <v>1.000261776313812</v>
+        <v>1.00150803024097</v>
       </c>
       <c r="K10">
-        <v>1.045031910939362</v>
+        <v>1.042548787807063</v>
       </c>
       <c r="L10">
-        <v>1.008437948613568</v>
+        <v>1.009422656645553</v>
       </c>
       <c r="M10">
-        <v>1.023105206571343</v>
+        <v>1.023818055970217</v>
       </c>
       <c r="N10">
-        <v>1.003658658284941</v>
+        <v>1.007514112226091</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026910650579098</v>
+        <v>1.027474797602737</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04294806020556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04120468029497</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023650282452877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9685214846218286</v>
+        <v>0.969960482977246</v>
       </c>
       <c r="D11">
-        <v>1.030285433929251</v>
+        <v>1.027823824820637</v>
       </c>
       <c r="E11">
-        <v>0.992484263910505</v>
+        <v>0.9936020839997471</v>
       </c>
       <c r="F11">
-        <v>1.007912212800129</v>
+        <v>1.00873362736694</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048754008454839</v>
+        <v>1.047884677308756</v>
       </c>
       <c r="J11">
-        <v>0.9992650838109912</v>
+        <v>1.00063862929065</v>
       </c>
       <c r="K11">
-        <v>1.044657952184986</v>
+        <v>1.04223943175642</v>
       </c>
       <c r="L11">
-        <v>1.007549321604131</v>
+        <v>1.008645672728712</v>
       </c>
       <c r="M11">
-        <v>1.022686443167474</v>
+        <v>1.023492698553652</v>
       </c>
       <c r="N11">
-        <v>1.003353217598123</v>
+        <v>1.007539387541585</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.027021296729203</v>
+        <v>1.027659035620953</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042716171661849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041021719484842</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023611407306002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9679093434842102</v>
+        <v>0.9693990621467826</v>
       </c>
       <c r="D12">
-        <v>1.029958351414683</v>
+        <v>1.027516120618285</v>
       </c>
       <c r="E12">
-        <v>0.9922300204569178</v>
+        <v>0.9933911086853516</v>
       </c>
       <c r="F12">
-        <v>1.007969250824798</v>
+        <v>1.008826630637777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048744952673762</v>
+        <v>1.047887762702106</v>
       </c>
       <c r="J12">
-        <v>0.9991367898827224</v>
+        <v>1.00055744483557</v>
       </c>
       <c r="K12">
-        <v>1.044533255662207</v>
+        <v>1.042134483091614</v>
       </c>
       <c r="L12">
-        <v>1.007507610493509</v>
+        <v>1.008646029456794</v>
       </c>
       <c r="M12">
-        <v>1.02294534878477</v>
+        <v>1.023786657815008</v>
       </c>
       <c r="N12">
-        <v>1.003346943907424</v>
+        <v>1.007651161499948</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.027556322836995</v>
+        <v>1.028221558248548</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042628008879226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040947520028292</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02359739322849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9685718192225163</v>
+        <v>0.9700336019150712</v>
       </c>
       <c r="D13">
-        <v>1.0300813682137</v>
+        <v>1.027624404781646</v>
       </c>
       <c r="E13">
-        <v>0.9928993093917264</v>
+        <v>0.9940381094083303</v>
       </c>
       <c r="F13">
-        <v>1.008839738733849</v>
+        <v>1.00967864650082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048835660719887</v>
+        <v>1.047972057336336</v>
       </c>
       <c r="J13">
-        <v>0.9996707789177574</v>
+        <v>1.001065172730801</v>
       </c>
       <c r="K13">
-        <v>1.044611912171239</v>
+        <v>1.042198510699627</v>
       </c>
       <c r="L13">
-        <v>1.008119327691223</v>
+        <v>1.00923600697026</v>
       </c>
       <c r="M13">
-        <v>1.023756048568571</v>
+        <v>1.024579319396875</v>
       </c>
       <c r="N13">
-        <v>1.003571227792476</v>
+        <v>1.007798862054582</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.028476770995891</v>
+        <v>1.029127576663225</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042681153221833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040990075124962</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023606275446169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9696093095739329</v>
+        <v>0.9710168027589555</v>
       </c>
       <c r="D14">
-        <v>1.03037501215481</v>
+        <v>1.027892310790817</v>
       </c>
       <c r="E14">
-        <v>0.9937817708470438</v>
+        <v>0.9948761964515088</v>
       </c>
       <c r="F14">
-        <v>1.009812839366705</v>
+        <v>1.010615038773596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048944428506562</v>
+        <v>1.048068215904891</v>
       </c>
       <c r="J14">
-        <v>1.000340953857423</v>
+        <v>1.00168453791236</v>
       </c>
       <c r="K14">
-        <v>1.044762216189489</v>
+        <v>1.042323020619405</v>
       </c>
       <c r="L14">
-        <v>1.008839038606227</v>
+        <v>1.009912488104434</v>
       </c>
       <c r="M14">
-        <v>1.024568771908193</v>
+        <v>1.025356219577088</v>
       </c>
       <c r="N14">
-        <v>1.003831322505954</v>
+        <v>1.007918881880044</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.029293975222053</v>
+        <v>1.029916377123038</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042788831150316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041079655057915</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023623327423572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9701423349870081</v>
+        <v>0.9715207871842118</v>
       </c>
       <c r="D15">
-        <v>1.030549054301386</v>
+        <v>1.028052562426889</v>
       </c>
       <c r="E15">
-        <v>0.994204843349409</v>
+        <v>0.9952754048305688</v>
       </c>
       <c r="F15">
-        <v>1.010240627046324</v>
+        <v>1.011023164776039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048994429784251</v>
+        <v>1.048111376179462</v>
       </c>
       <c r="J15">
-        <v>1.000653256626138</v>
+        <v>1.001969684837783</v>
       </c>
       <c r="K15">
-        <v>1.04484811362273</v>
+        <v>1.042395053153746</v>
       </c>
       <c r="L15">
-        <v>1.009164341074314</v>
+        <v>1.010214546964196</v>
       </c>
       <c r="M15">
-        <v>1.024901100743743</v>
+        <v>1.025669362171259</v>
       </c>
       <c r="N15">
-        <v>1.003946430363569</v>
+        <v>1.007960381486249</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.029594458851775</v>
+        <v>1.030201679759299</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042855375036585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041136973802238</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02363335460876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9728512434256382</v>
+        <v>0.9740898175308428</v>
       </c>
       <c r="D16">
-        <v>1.031495211074718</v>
+        <v>1.02892824371964</v>
       </c>
       <c r="E16">
-        <v>0.9962348067115538</v>
+        <v>0.9971898431181692</v>
       </c>
       <c r="F16">
-        <v>1.0121232241255</v>
+        <v>1.012810226556297</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049211779193382</v>
+        <v>1.04829224541262</v>
       </c>
       <c r="J16">
-        <v>1.002104617660429</v>
+        <v>1.003290319086665</v>
       </c>
       <c r="K16">
-        <v>1.045283099267214</v>
+        <v>1.04275891738352</v>
       </c>
       <c r="L16">
-        <v>1.010635498555593</v>
+        <v>1.01157319431358</v>
       </c>
       <c r="M16">
-        <v>1.02624094119566</v>
+        <v>1.026915967287366</v>
       </c>
       <c r="N16">
-        <v>1.004448615733586</v>
+        <v>1.008113579193505</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03061445429004</v>
+        <v>1.031147999064897</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04316606187305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041397685453626</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023683465611706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743873017466452</v>
+        <v>0.9755594271193193</v>
       </c>
       <c r="D17">
-        <v>1.032070055076724</v>
+        <v>1.029462784343555</v>
       </c>
       <c r="E17">
-        <v>0.9973310196874998</v>
+        <v>0.9982310302276958</v>
       </c>
       <c r="F17">
-        <v>1.013053232133176</v>
+        <v>1.013694569908998</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049319220797778</v>
+        <v>1.048378894812909</v>
       </c>
       <c r="J17">
-        <v>1.002866609042947</v>
+        <v>1.003990338402658</v>
       </c>
       <c r="K17">
-        <v>1.045538212601925</v>
+        <v>1.04297321924912</v>
       </c>
       <c r="L17">
-        <v>1.011386008191841</v>
+        <v>1.012270147146739</v>
       </c>
       <c r="M17">
-        <v>1.026836197413432</v>
+        <v>1.027466670025681</v>
       </c>
       <c r="N17">
-        <v>1.004697305715798</v>
+        <v>1.008198843187909</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.030954916291163</v>
+        <v>1.031453296048348</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043349001630028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041552024289336</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023712251009907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9750488596553741</v>
+        <v>0.9761953822877951</v>
       </c>
       <c r="D18">
-        <v>1.032369355172218</v>
+        <v>1.029743812056833</v>
       </c>
       <c r="E18">
-        <v>0.9977002421240426</v>
+        <v>0.9985783531924861</v>
       </c>
       <c r="F18">
-        <v>1.013202966780076</v>
+        <v>1.0138257597011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049339039774489</v>
+        <v>1.048388197219569</v>
       </c>
       <c r="J18">
-        <v>1.003088798895584</v>
+        <v>1.004188876366016</v>
       </c>
       <c r="K18">
-        <v>1.045651802071798</v>
+        <v>1.043068147030643</v>
       </c>
       <c r="L18">
-        <v>1.011558790813493</v>
+        <v>1.012421671316576</v>
       </c>
       <c r="M18">
-        <v>1.026797626140743</v>
+        <v>1.027410035013582</v>
       </c>
       <c r="N18">
-        <v>1.004744768359205</v>
+        <v>1.008188493528599</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.030684615331533</v>
+        <v>1.031168818557751</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043417785290593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041606465118281</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023724005206334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9749179374782294</v>
+        <v>0.9760673403501606</v>
       </c>
       <c r="D19">
-        <v>1.032441690493769</v>
+        <v>1.029816489751909</v>
       </c>
       <c r="E19">
-        <v>0.9974046125566248</v>
+        <v>0.9982839572729881</v>
       </c>
       <c r="F19">
-        <v>1.012635169277387</v>
+        <v>1.013258797877188</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049287423549313</v>
+        <v>1.048335434722225</v>
       </c>
       <c r="J19">
-        <v>1.002822798030271</v>
+        <v>1.003925895813065</v>
       </c>
       <c r="K19">
-        <v>1.045661316044735</v>
+        <v>1.043077767546032</v>
       </c>
       <c r="L19">
-        <v>1.011203511779776</v>
+        <v>1.012067674868407</v>
       </c>
       <c r="M19">
-        <v>1.026175916743785</v>
+        <v>1.026789188047194</v>
       </c>
       <c r="N19">
-        <v>1.004614290894363</v>
+        <v>1.008073539508596</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.029864126233843</v>
+        <v>1.030349173059503</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043430845994839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041620232183416</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023724248819063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9725847620527425</v>
+        <v>0.973812165410749</v>
       </c>
       <c r="D20">
-        <v>1.031834027041606</v>
+        <v>1.029262670477964</v>
       </c>
       <c r="E20">
-        <v>0.9952815823833101</v>
+        <v>0.9962230869733657</v>
       </c>
       <c r="F20">
-        <v>1.01013250107981</v>
+        <v>1.01080755787617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049031118252672</v>
+        <v>1.048103300935231</v>
       </c>
       <c r="J20">
-        <v>1.001214991531079</v>
+        <v>1.002391293238284</v>
       </c>
       <c r="K20">
-        <v>1.045339293852643</v>
+        <v>1.042809773288465</v>
       </c>
       <c r="L20">
-        <v>1.009407910004718</v>
+        <v>1.01033267555747</v>
       </c>
       <c r="M20">
-        <v>1.023999492216409</v>
+        <v>1.024662994672163</v>
       </c>
       <c r="N20">
-        <v>1.003994573067791</v>
+        <v>1.007662108972106</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027607695466993</v>
+        <v>1.028132795860691</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043207040462496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041435013066547</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023686257007396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.967417449890441</v>
+        <v>0.9689275528902452</v>
       </c>
       <c r="D21">
-        <v>1.030101578569219</v>
+        <v>1.027664204510206</v>
       </c>
       <c r="E21">
-        <v>0.9913143402639457</v>
+        <v>0.9924906152746618</v>
       </c>
       <c r="F21">
-        <v>1.006339581664739</v>
+        <v>1.007209152295558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048598731253312</v>
+        <v>1.047741567043238</v>
       </c>
       <c r="J21">
-        <v>0.9983435504903448</v>
+        <v>0.9997844004531571</v>
       </c>
       <c r="K21">
-        <v>1.044534259849915</v>
+        <v>1.042139763432166</v>
       </c>
       <c r="L21">
-        <v>1.006462154936068</v>
+        <v>1.007615665665688</v>
       </c>
       <c r="M21">
-        <v>1.021201835935222</v>
+        <v>1.02205522024321</v>
       </c>
       <c r="N21">
-        <v>1.002976749540936</v>
+        <v>1.00735117740643</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02535205876938</v>
+        <v>1.026027469492705</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042641038745457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040964797212472</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023595303739201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9641395803185697</v>
+        <v>0.9658294315922632</v>
       </c>
       <c r="D22">
-        <v>1.028988564295882</v>
+        <v>1.026637299068974</v>
       </c>
       <c r="E22">
-        <v>0.9888247034590528</v>
+        <v>0.9901511066539244</v>
       </c>
       <c r="F22">
-        <v>1.003986690754893</v>
+        <v>1.004981518723168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04831545915103</v>
+        <v>1.047503617464554</v>
       </c>
       <c r="J22">
-        <v>0.9965385945099414</v>
+        <v>0.9981462790799398</v>
       </c>
       <c r="K22">
-        <v>1.044006825272724</v>
+        <v>1.041698912202824</v>
       </c>
       <c r="L22">
-        <v>1.004620844156974</v>
+        <v>1.005920229893675</v>
       </c>
       <c r="M22">
-        <v>1.019479582079851</v>
+        <v>1.020454932504758</v>
       </c>
       <c r="N22">
-        <v>1.002338627811906</v>
+        <v>1.007153773968269</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023988979495563</v>
+        <v>1.024760921751668</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042254754645941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040638405130689</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02353202343588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9658837341297483</v>
+        <v>0.9674598436736751</v>
       </c>
       <c r="D23">
-        <v>1.029566487824452</v>
+        <v>1.027169204727639</v>
       </c>
       <c r="E23">
-        <v>0.9901488788091176</v>
+        <v>0.9913796991877737</v>
       </c>
       <c r="F23">
-        <v>1.005239537165074</v>
+        <v>1.006154507324746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048463997143682</v>
+        <v>1.047626432236577</v>
       </c>
       <c r="J23">
-        <v>0.9974988875239413</v>
+        <v>0.9990006853549709</v>
       </c>
       <c r="K23">
-        <v>1.044274338113322</v>
+        <v>1.04192017853173</v>
       </c>
       <c r="L23">
-        <v>1.00560064492044</v>
+        <v>1.006807060718736</v>
       </c>
       <c r="M23">
-        <v>1.020397484360658</v>
+        <v>1.02129501048262</v>
       </c>
       <c r="N23">
-        <v>1.002677953944215</v>
+        <v>1.007213682307118</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024715454373864</v>
+        <v>1.025425801766068</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042434363610487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040784365496504</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023563701899656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9726056599859131</v>
+        <v>0.973831641483706</v>
       </c>
       <c r="D24">
-        <v>1.03183351354226</v>
+        <v>1.029262092037214</v>
       </c>
       <c r="E24">
-        <v>0.9952705385416366</v>
+        <v>0.9962106519602779</v>
       </c>
       <c r="F24">
-        <v>1.010084841214424</v>
+        <v>1.010758344460062</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049021947450316</v>
+        <v>1.048093092678503</v>
       </c>
       <c r="J24">
-        <v>1.001200597351217</v>
+        <v>1.002375611633905</v>
       </c>
       <c r="K24">
-        <v>1.045323744912181</v>
+        <v>1.042794107051238</v>
       </c>
       <c r="L24">
-        <v>1.009381221013913</v>
+        <v>1.010304641198108</v>
       </c>
       <c r="M24">
-        <v>1.023937140462696</v>
+        <v>1.024599129351147</v>
       </c>
       <c r="N24">
-        <v>1.003985273337685</v>
+        <v>1.00765031150058</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027516912260405</v>
+        <v>1.028040841545997</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043168908744674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041394092092571</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023682835836257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9801272630464772</v>
+        <v>0.9812006103823276</v>
       </c>
       <c r="D25">
-        <v>1.034402492924246</v>
+        <v>1.031645690629742</v>
       </c>
       <c r="E25">
-        <v>1.001037376265153</v>
+        <v>1.001855429935538</v>
       </c>
       <c r="F25">
-        <v>1.015543962972803</v>
+        <v>1.016112865847395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049604493540351</v>
+        <v>1.048589789179922</v>
       </c>
       <c r="J25">
-        <v>1.005342445477202</v>
+        <v>1.006377645744214</v>
       </c>
       <c r="K25">
-        <v>1.046489236759929</v>
+        <v>1.043771836181213</v>
       </c>
       <c r="L25">
-        <v>1.013619609620084</v>
+        <v>1.014425010865566</v>
       </c>
       <c r="M25">
-        <v>1.027905677587647</v>
+        <v>1.028466095597077</v>
       </c>
       <c r="N25">
-        <v>1.005445543269128</v>
+        <v>1.00872828837377</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030657794102952</v>
+        <v>1.031101333407759</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043990126648633</v>
+        <v>1.042082262756255</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023802799031528</v>
       </c>
     </row>
   </sheetData>
